--- a/04_documentation/Mockup.xlsx
+++ b/04_documentation/Mockup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="18915" windowHeight="11835" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="18915" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="clienteEscritorio" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
   <si>
     <t>Elementos</t>
   </si>
@@ -26,19 +26,7 @@
     <t>Carrusel</t>
   </si>
   <si>
-    <t>Objeto coche</t>
-  </si>
-  <si>
     <t>Navegador</t>
-  </si>
-  <si>
-    <t>Página detallada</t>
-  </si>
-  <si>
-    <t>Formulario contacto</t>
-  </si>
-  <si>
-    <t>Formulario Login</t>
   </si>
   <si>
     <t>Formulario confirmación</t>
@@ -188,6 +176,44 @@
   <si>
     <t>Comentarios</t>
   </si>
+  <si>
+    <t>Carruseles</t>
+  </si>
+  <si>
+    <t>Datos</t>
+  </si>
+  <si>
+    <t>Modelo y marca de todos los coches</t>
+  </si>
+  <si>
+    <t>Página 
+detallada</t>
+  </si>
+  <si>
+    <t>Foto, marca, modelo, 
+precio, kms,descripción, cilindrada</t>
+  </si>
+  <si>
+    <t>2 Carruseles con foto,marca,modelo, precio, kms, coches oferta</t>
+  </si>
+  <si>
+    <t>Foto, marca, modelo, precio, kms, coche oferta alquiler o venta</t>
+  </si>
+  <si>
+    <t>Formulario 
+contacto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre, apellidos, telefono,
+consulta </t>
+  </si>
+  <si>
+    <t>Formulario 
+Login</t>
+  </si>
+  <si>
+    <t>usuario, contraseña</t>
+  </si>
 </sst>
 </file>
 
@@ -241,7 +267,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -352,11 +378,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -377,6 +432,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -399,16 +456,56 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3688,7 +3785,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>522084</xdr:colOff>
+      <xdr:colOff>174702</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
@@ -24586,151 +24683,232 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C39:AL41"/>
+  <dimension ref="C38:AL42"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="Q10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AH38" sqref="AH38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="21" max="21" width="16.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="38" spans="3:38" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="J38" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="22"/>
+      <c r="T38" s="22"/>
+      <c r="V38" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB38" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH38" s="35" t="s">
+        <v>53</v>
+      </c>
+    </row>
     <row r="39" spans="3:38" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="9" t="s">
-        <v>13</v>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="11" t="s">
+        <v>9</v>
       </c>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="9"/>
-      <c r="S39" s="9"/>
-      <c r="T39" s="9"/>
-      <c r="U39" s="8" t="s">
-        <v>4</v>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="20" t="s">
+        <v>54</v>
       </c>
-      <c r="V39" s="8"/>
-      <c r="W39" s="8"/>
-      <c r="X39" s="8"/>
-      <c r="Y39" s="8"/>
-      <c r="Z39" s="8" t="s">
-        <v>5</v>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="25" t="s">
+        <v>55</v>
       </c>
-      <c r="AA39" s="8"/>
-      <c r="AB39" s="8"/>
-      <c r="AC39" s="8"/>
-      <c r="AD39" s="8"/>
-      <c r="AE39" s="8"/>
-      <c r="AF39" s="8" t="s">
-        <v>6</v>
+      <c r="V39" s="29" t="s">
+        <v>56</v>
       </c>
-      <c r="AG39" s="8"/>
-      <c r="AH39" s="8"/>
-      <c r="AI39" s="8"/>
-      <c r="AJ39" s="8"/>
-      <c r="AK39" s="8"/>
-      <c r="AL39" s="8"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA39" s="29"/>
+      <c r="AB39" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC39" s="28"/>
+      <c r="AD39" s="28"/>
+      <c r="AE39" s="32"/>
+      <c r="AF39" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG39" s="29"/>
+      <c r="AH39" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI39" s="2"/>
+      <c r="AJ39" s="2"/>
+      <c r="AK39" s="2"/>
+      <c r="AL39" s="3"/>
     </row>
     <row r="40" spans="3:38" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="9" t="s">
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="20"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="26"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="29"/>
+      <c r="AA40" s="29"/>
+      <c r="AB40" s="26"/>
+      <c r="AC40" s="30"/>
+      <c r="AD40" s="30"/>
+      <c r="AE40" s="33"/>
+      <c r="AF40" s="29"/>
+      <c r="AG40" s="29"/>
+      <c r="AH40" s="23"/>
+      <c r="AI40" s="23"/>
+      <c r="AJ40" s="23"/>
+      <c r="AK40" s="23"/>
+      <c r="AL40" s="24"/>
+    </row>
+    <row r="41" spans="3:38" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="9"/>
-      <c r="U40" s="8"/>
-      <c r="V40" s="8"/>
-      <c r="W40" s="8"/>
-      <c r="X40" s="8"/>
-      <c r="Y40" s="8"/>
-      <c r="Z40" s="8"/>
-      <c r="AA40" s="8"/>
-      <c r="AB40" s="8"/>
-      <c r="AC40" s="8"/>
-      <c r="AD40" s="8"/>
-      <c r="AE40" s="8"/>
-      <c r="AF40" s="8"/>
-      <c r="AG40" s="8"/>
-      <c r="AH40" s="8"/>
-      <c r="AI40" s="8"/>
-      <c r="AJ40" s="8"/>
-      <c r="AK40" s="8"/>
-      <c r="AL40" s="8"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="20"/>
+      <c r="T41" s="21"/>
+      <c r="U41" s="26"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="29"/>
+      <c r="AA41" s="29"/>
+      <c r="AB41" s="26"/>
+      <c r="AC41" s="30"/>
+      <c r="AD41" s="30"/>
+      <c r="AE41" s="33"/>
+      <c r="AF41" s="29"/>
+      <c r="AG41" s="29"/>
+      <c r="AH41" s="23"/>
+      <c r="AI41" s="23"/>
+      <c r="AJ41" s="23"/>
+      <c r="AK41" s="23"/>
+      <c r="AL41" s="24"/>
     </row>
-    <row r="41" spans="3:38" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="9"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="9"/>
-      <c r="U41" s="8"/>
-      <c r="V41" s="8"/>
-      <c r="W41" s="8"/>
-      <c r="X41" s="8"/>
-      <c r="Y41" s="8"/>
-      <c r="Z41" s="8"/>
-      <c r="AA41" s="8"/>
-      <c r="AB41" s="8"/>
-      <c r="AC41" s="8"/>
-      <c r="AD41" s="8"/>
-      <c r="AE41" s="8"/>
-      <c r="AF41" s="8"/>
-      <c r="AG41" s="8"/>
-      <c r="AH41" s="8"/>
-      <c r="AI41" s="8"/>
-      <c r="AJ41" s="8"/>
-      <c r="AK41" s="8"/>
-      <c r="AL41" s="8"/>
+    <row r="42" spans="3:38" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="20"/>
+      <c r="T42" s="21"/>
+      <c r="U42" s="27"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="29"/>
+      <c r="AA42" s="29"/>
+      <c r="AB42" s="27"/>
+      <c r="AC42" s="31"/>
+      <c r="AD42" s="31"/>
+      <c r="AE42" s="34"/>
+      <c r="AF42" s="29"/>
+      <c r="AG42" s="29"/>
+      <c r="AH42" s="4"/>
+      <c r="AI42" s="4"/>
+      <c r="AJ42" s="4"/>
+      <c r="AK42" s="4"/>
+      <c r="AL42" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="AF39:AL41"/>
-    <mergeCell ref="G39:T39"/>
-    <mergeCell ref="G40:T40"/>
-    <mergeCell ref="G41:T41"/>
-    <mergeCell ref="C39:F41"/>
-    <mergeCell ref="U39:Y41"/>
-    <mergeCell ref="Z39:AE41"/>
+  <mergeCells count="11">
+    <mergeCell ref="J38:T38"/>
+    <mergeCell ref="U39:U42"/>
+    <mergeCell ref="V39:Y42"/>
+    <mergeCell ref="Z39:AA42"/>
+    <mergeCell ref="AB39:AE42"/>
+    <mergeCell ref="C39:F42"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="AF39:AG42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -24749,154 +24927,159 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="35" spans="3:17" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="12" t="s">
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
     </row>
     <row r="36" spans="3:17" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="12" t="s">
-        <v>8</v>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="14" t="s">
+        <v>4</v>
       </c>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
     </row>
     <row r="72" spans="3:31" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C72" s="11" t="s">
+      <c r="C72" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
       <c r="F72" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="3"/>
-      <c r="K72" s="9" t="s">
-        <v>10</v>
+      <c r="K72" s="11" t="s">
+        <v>6</v>
       </c>
-      <c r="L72" s="9"/>
-      <c r="M72" s="9"/>
-      <c r="N72" s="9"/>
-      <c r="O72" s="9"/>
-      <c r="P72" s="9"/>
-      <c r="Q72" s="9"/>
-      <c r="R72" s="8" t="s">
-        <v>12</v>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="11"/>
+      <c r="R72" s="10" t="s">
+        <v>8</v>
       </c>
-      <c r="S72" s="8"/>
-      <c r="T72" s="8"/>
-      <c r="U72" s="8"/>
-      <c r="V72" s="8"/>
-      <c r="W72" s="8"/>
-      <c r="X72" s="8"/>
-      <c r="Y72" s="9" t="s">
-        <v>10</v>
+      <c r="S72" s="10"/>
+      <c r="T72" s="10"/>
+      <c r="U72" s="10"/>
+      <c r="V72" s="10"/>
+      <c r="W72" s="10"/>
+      <c r="X72" s="10"/>
+      <c r="Y72" s="11" t="s">
+        <v>6</v>
       </c>
-      <c r="Z72" s="9"/>
-      <c r="AA72" s="9"/>
-      <c r="AB72" s="9"/>
-      <c r="AC72" s="9"/>
-      <c r="AD72" s="9"/>
-      <c r="AE72" s="9"/>
+      <c r="Z72" s="11"/>
+      <c r="AA72" s="11"/>
+      <c r="AB72" s="11"/>
+      <c r="AC72" s="11"/>
+      <c r="AD72" s="11"/>
+      <c r="AE72" s="11"/>
     </row>
     <row r="73" spans="3:31" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
       <c r="F73" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="5"/>
-      <c r="K73" s="9" t="s">
+      <c r="K73" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="11"/>
+      <c r="R73" s="10"/>
+      <c r="S73" s="10"/>
+      <c r="T73" s="10"/>
+      <c r="U73" s="10"/>
+      <c r="V73" s="10"/>
+      <c r="W73" s="10"/>
+      <c r="X73" s="10"/>
+      <c r="Y73" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z73" s="11"/>
+      <c r="AA73" s="11"/>
+      <c r="AB73" s="11"/>
+      <c r="AC73" s="11"/>
+      <c r="AD73" s="11"/>
+      <c r="AE73" s="11"/>
+    </row>
+    <row r="74" spans="3:31" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="K74" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L73" s="9"/>
-      <c r="M73" s="9"/>
-      <c r="N73" s="9"/>
-      <c r="O73" s="9"/>
-      <c r="P73" s="9"/>
-      <c r="Q73" s="9"/>
-      <c r="R73" s="8"/>
-      <c r="S73" s="8"/>
-      <c r="T73" s="8"/>
-      <c r="U73" s="8"/>
-      <c r="V73" s="8"/>
-      <c r="W73" s="8"/>
-      <c r="X73" s="8"/>
-      <c r="Y73" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z73" s="9"/>
-      <c r="AA73" s="9"/>
-      <c r="AB73" s="9"/>
-      <c r="AC73" s="9"/>
-      <c r="AD73" s="9"/>
-      <c r="AE73" s="9"/>
-    </row>
-    <row r="74" spans="3:31" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="K74" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L74" s="9"/>
-      <c r="M74" s="9"/>
-      <c r="N74" s="9"/>
-      <c r="O74" s="9"/>
-      <c r="P74" s="9"/>
-      <c r="Q74" s="9"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="11"/>
     </row>
     <row r="75" spans="3:31" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="K75" s="9" t="s">
-        <v>16</v>
+      <c r="K75" s="11" t="s">
+        <v>12</v>
       </c>
-      <c r="L75" s="9"/>
-      <c r="M75" s="9"/>
-      <c r="N75" s="9"/>
-      <c r="O75" s="9"/>
-      <c r="P75" s="9"/>
-      <c r="Q75" s="9"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11"/>
+      <c r="O75" s="11"/>
+      <c r="P75" s="11"/>
+      <c r="Q75" s="11"/>
     </row>
     <row r="77" spans="3:31" x14ac:dyDescent="0.25">
       <c r="K77" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="L35:Q36"/>
+    <mergeCell ref="C35:E36"/>
+    <mergeCell ref="F35:K35"/>
+    <mergeCell ref="F36:K36"/>
+    <mergeCell ref="K72:Q72"/>
     <mergeCell ref="Y72:AE72"/>
     <mergeCell ref="Y73:AE73"/>
     <mergeCell ref="K74:Q74"/>
@@ -24904,11 +25087,6 @@
     <mergeCell ref="C72:E73"/>
     <mergeCell ref="R72:X73"/>
     <mergeCell ref="K73:Q73"/>
-    <mergeCell ref="L35:Q36"/>
-    <mergeCell ref="C35:E36"/>
-    <mergeCell ref="F35:K35"/>
-    <mergeCell ref="F36:K36"/>
-    <mergeCell ref="K72:Q72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -24935,8 +25113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24947,83 +25125,83 @@
   <sheetData>
     <row r="2" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
-        <v>18</v>
+      <c r="B4" s="9" t="s">
+        <v>14</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>55</v>
+      <c r="C4" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
-        <v>19</v>
+      <c r="B5" s="18" t="s">
+        <v>15</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>22</v>
+      <c r="C5" s="18" t="s">
+        <v>18</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="8">
         <v>200</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="8">
         <v>404</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
-        <v>20</v>
+      <c r="B7" s="19" t="s">
+        <v>16</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>23</v>
+      <c r="C7" s="18" t="s">
+        <v>19</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="8">
         <v>201</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="17"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16">
+      <c r="B8" s="19"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="8">
         <v>400</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
-        <v>24</v>
+      <c r="B9" s="19" t="s">
+        <v>20</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>25</v>
+      <c r="C9" s="18" t="s">
+        <v>21</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="8">
         <v>201</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="17"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16">
+      <c r="B10" s="19"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="8">
         <v>400</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="17"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16">
+      <c r="B11" s="19"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="8">
         <v>401</v>
       </c>
     </row>
@@ -25031,257 +25209,263 @@
       <c r="B12" s="6"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
-        <v>27</v>
+      <c r="B14" s="9" t="s">
+        <v>23</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>55</v>
+      <c r="C14" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="19" t="s">
-        <v>28</v>
+      <c r="B15" s="17" t="s">
+        <v>24</v>
       </c>
-      <c r="C15" s="19" t="s">
-        <v>30</v>
+      <c r="C15" s="17" t="s">
+        <v>26</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="8">
         <v>201</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="16">
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="8">
         <v>400</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="19" t="s">
-        <v>29</v>
+      <c r="B17" s="17" t="s">
+        <v>25</v>
       </c>
-      <c r="C17" s="19" t="s">
-        <v>31</v>
+      <c r="C17" s="17" t="s">
+        <v>27</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="8">
         <v>201</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="16">
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="8">
         <v>400</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="19" t="s">
-        <v>32</v>
+      <c r="B19" s="17" t="s">
+        <v>28</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>42</v>
+      <c r="C19" s="17" t="s">
+        <v>38</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="8">
         <v>201</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="16">
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="8">
         <v>400</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="19" t="s">
-        <v>26</v>
+      <c r="B21" s="17" t="s">
+        <v>22</v>
       </c>
-      <c r="C21" s="19" t="s">
-        <v>43</v>
+      <c r="C21" s="17" t="s">
+        <v>39</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="8">
         <v>200</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="16">
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="8">
         <v>404</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="19" t="s">
-        <v>33</v>
+      <c r="B23" s="17" t="s">
+        <v>29</v>
       </c>
-      <c r="C23" s="19" t="s">
-        <v>44</v>
+      <c r="C23" s="17" t="s">
+        <v>40</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="8">
         <v>201</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="16">
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="8">
         <v>400</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="19" t="s">
-        <v>34</v>
+      <c r="B25" s="17" t="s">
+        <v>30</v>
       </c>
-      <c r="C25" s="19" t="s">
-        <v>45</v>
+      <c r="C25" s="17" t="s">
+        <v>41</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="8">
         <v>201</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="16">
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="8">
         <v>400</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="19" t="s">
-        <v>35</v>
+      <c r="B27" s="17" t="s">
+        <v>31</v>
       </c>
-      <c r="C27" s="19" t="s">
-        <v>46</v>
+      <c r="C27" s="17" t="s">
+        <v>42</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="8">
         <v>200</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="16">
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="8">
         <v>404</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="19" t="s">
-        <v>36</v>
+      <c r="B29" s="17" t="s">
+        <v>32</v>
       </c>
-      <c r="C29" s="19" t="s">
-        <v>47</v>
+      <c r="C29" s="17" t="s">
+        <v>43</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="8">
         <v>201</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="16">
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="8">
         <v>400</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="19" t="s">
-        <v>37</v>
+      <c r="B31" s="17" t="s">
+        <v>33</v>
       </c>
-      <c r="C31" s="19" t="s">
-        <v>48</v>
+      <c r="C31" s="17" t="s">
+        <v>44</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="8">
         <v>201</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="16">
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="8">
         <v>400</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="19" t="s">
-        <v>38</v>
+      <c r="B33" s="17" t="s">
+        <v>34</v>
       </c>
-      <c r="C33" s="19" t="s">
-        <v>49</v>
+      <c r="C33" s="17" t="s">
+        <v>45</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="8">
         <v>200</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="16">
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="8">
         <v>404</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="19" t="s">
-        <v>39</v>
+      <c r="B35" s="17" t="s">
+        <v>35</v>
       </c>
-      <c r="C35" s="19" t="s">
-        <v>50</v>
+      <c r="C35" s="17" t="s">
+        <v>46</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="8">
         <v>200</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="16">
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="8">
         <v>404</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="19" t="s">
-        <v>40</v>
+      <c r="B37" s="17" t="s">
+        <v>36</v>
       </c>
-      <c r="C37" s="19" t="s">
-        <v>51</v>
+      <c r="C37" s="17" t="s">
+        <v>47</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="8">
         <v>200</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="16">
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="8">
         <v>404</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="19" t="s">
-        <v>41</v>
+      <c r="B39" s="17" t="s">
+        <v>37</v>
       </c>
-      <c r="C39" s="19" t="s">
-        <v>52</v>
+      <c r="C39" s="17" t="s">
+        <v>48</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D39" s="8">
         <v>201</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="16">
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="8">
         <v>400</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C35:C36"/>
@@ -25298,17 +25482,11 @@
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/04_documentation/Mockup.xlsx
+++ b/04_documentation/Mockup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="18915" windowHeight="11835"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="18915" windowHeight="11835" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="clienteEscritorio" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="84">
   <si>
     <t>Elementos</t>
   </si>
@@ -32,31 +32,7 @@
     <t>Formulario confirmación</t>
   </si>
   <si>
-    <t>Formulario alquilar/vender</t>
-  </si>
-  <si>
-    <t>Formulario alta vehículo</t>
-  </si>
-  <si>
-    <t>Tabla para listar/modificar/dar de baja vehiculo</t>
-  </si>
-  <si>
-    <t>Tabla para listar/modificar/dar de baja persona</t>
-  </si>
-  <si>
-    <t>Formulario búsqueda de un vehículo</t>
-  </si>
-  <si>
     <t>Barra navegación</t>
-  </si>
-  <si>
-    <t>Barra de navegacion</t>
-  </si>
-  <si>
-    <t>Resultado vehiculo</t>
-  </si>
-  <si>
-    <t>Resultado persona</t>
   </si>
   <si>
     <t>React: Empezar por elementos más pequeños</t>
@@ -87,31 +63,13 @@
     <t>Loguearse</t>
   </si>
   <si>
-    <t>GET/allCoches</t>
-  </si>
-  <si>
     <t>Concesionario</t>
-  </si>
-  <si>
-    <t>POST/alquiler</t>
-  </si>
-  <si>
-    <t>POST/venta</t>
   </si>
   <si>
     <t>Alquilar coche</t>
   </si>
   <si>
     <t>Vender coche</t>
-  </si>
-  <si>
-    <t>POST/coche</t>
-  </si>
-  <si>
-    <t>PUT/coche/id</t>
-  </si>
-  <si>
-    <t>DELETE/coche/id</t>
   </si>
   <si>
     <t>GET/allClientes</t>
@@ -121,9 +79,6 @@
   </si>
   <si>
     <t>DELETE/cliente/id</t>
-  </si>
-  <si>
-    <t>GET/coche/id</t>
   </si>
   <si>
     <t>GET/cliente/id</t>
@@ -183,21 +138,12 @@
     <t>Datos</t>
   </si>
   <si>
-    <t>Modelo y marca de todos los coches</t>
-  </si>
-  <si>
     <t>Página 
 detallada</t>
   </si>
   <si>
     <t>Foto, marca, modelo, 
 precio, kms,descripción, cilindrada</t>
-  </si>
-  <si>
-    <t>2 Carruseles con foto,marca,modelo, precio, kms, coches oferta</t>
-  </si>
-  <si>
-    <t>Foto, marca, modelo, precio, kms, coche oferta alquiler o venta</t>
   </si>
   <si>
     <t>Formulario 
@@ -214,12 +160,147 @@
   <si>
     <t>usuario, contraseña</t>
   </si>
+  <si>
+    <t>Modelo y marca de todos los coches disponibles</t>
+  </si>
+  <si>
+    <t>2 Carruseles con foto,marca,modelo, precio, kms, coches oferta y disponible</t>
+  </si>
+  <si>
+    <t>Foto, marca, modelo, precio, kms, coche oferta,disponible: alquiler o venta</t>
+  </si>
+  <si>
+    <t>Formulario 
+alquilar/vender</t>
+  </si>
+  <si>
+    <t>Cliente: DNI, Coche: matricula</t>
+  </si>
+  <si>
+    <t>Formulario 
+alta vehículo</t>
+  </si>
+  <si>
+    <t>matricula, modelo, marca, km, precio
+        , foto, cilindrada, combustible, alquiler, oferta</t>
+  </si>
+  <si>
+    <t>Formulario 
+alta persona</t>
+  </si>
+  <si>
+    <t>DNI,nombre, apellidos, telefono,
+cpostal, ciudad</t>
+  </si>
+  <si>
+    <t>Tabla para listar/
+modificar/
+dar de baja vehiculo</t>
+  </si>
+  <si>
+    <t>Tabla para listar/
+modificar/
+dar de baja persona</t>
+  </si>
+  <si>
+    <t>Formulario búsqueda 
+de un vehículo</t>
+  </si>
+  <si>
+    <t>Formulario búsqueda 
+de una persona</t>
+  </si>
+  <si>
+    <t>DNI</t>
+  </si>
+  <si>
+    <t>Tabla para listar
+/modificar/
+dar de baja persona</t>
+  </si>
+  <si>
+    <t>Tabla para listar
+/modificar/
+dar de baja vehiculo</t>
+  </si>
+  <si>
+    <t>matricula</t>
+  </si>
+  <si>
+    <t>Tabla para listar
+formularios y eliminarlos</t>
+  </si>
+  <si>
+    <t>DELETE/car/id</t>
+  </si>
+  <si>
+    <t>PUT/car/id</t>
+  </si>
+  <si>
+    <t>GET/allCars</t>
+  </si>
+  <si>
+    <t>GET/car/id</t>
+  </si>
+  <si>
+    <t>POST/car</t>
+  </si>
+  <si>
+    <t>id, fecha entrega, devolucion, id_coche, id_cliente, precio</t>
+  </si>
+  <si>
+    <t>Tabla para listar
+ventas</t>
+  </si>
+  <si>
+    <t>Tabla para listar
+alquileres</t>
+  </si>
+  <si>
+    <t>id, fecha , id_coche, id_cliente, precio</t>
+  </si>
+  <si>
+    <t>POST/rent</t>
+  </si>
+  <si>
+    <t>POST/sale</t>
+  </si>
+  <si>
+    <t>GET/allRents</t>
+  </si>
+  <si>
+    <t>GET/allSales</t>
+  </si>
+  <si>
+    <t>Listar todos los alquileres</t>
+  </si>
+  <si>
+    <t>Listar todas las ventas</t>
+  </si>
+  <si>
+    <t>DELETE/rent/id</t>
+  </si>
+  <si>
+    <t>DELETE/sale/id</t>
+  </si>
+  <si>
+    <t>Borrar alquiler</t>
+  </si>
+  <si>
+    <t>Borrar venta</t>
+  </si>
+  <si>
+    <t>POST/client</t>
+  </si>
+  <si>
+    <t>Registrar cliente</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,16 +339,81 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -407,15 +553,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -434,17 +603,56 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -455,8 +663,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -464,48 +672,171 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8554,13 +8885,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>266699</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>27213</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -8571,8 +8902,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2552700" y="514350"/>
-          <a:ext cx="4838700" cy="5857875"/>
+          <a:off x="2552699" y="514350"/>
+          <a:ext cx="6033407" cy="5857875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8666,8 +8997,8 @@
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>816429</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -8679,7 +9010,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2714625" y="923924"/>
-          <a:ext cx="4562475" cy="514351"/>
+          <a:ext cx="5721804" cy="514351"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8820,11 +9151,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>55469</xdr:colOff>
+      <xdr:colOff>212352</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="845744" cy="436786"/>
+      <xdr:rowOff>86285</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="468654" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="6 CuadroTexto"/>
@@ -8832,8 +9163,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3865469" y="971550"/>
-          <a:ext cx="845744" cy="436786"/>
+          <a:off x="4022352" y="1038785"/>
+          <a:ext cx="468654" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8862,19 +9193,9 @@
         <a:p>
           <a:r>
             <a:rPr lang="es-ES" sz="1100"/>
-            <a:t>Dar</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t> alta </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>un vehiculo</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-ES" sz="1100"/>
+            <a:t>Altas</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9658,8 +9979,8 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>206829</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
@@ -9671,7 +9992,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6724650" y="1066800"/>
+          <a:off x="7826829" y="1066800"/>
           <a:ext cx="567078" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9767,16 +10088,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>451757</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>39461</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>182336</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9785,8 +10106,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8058150" y="447675"/>
-          <a:ext cx="4838700" cy="5857875"/>
+          <a:off x="10534650" y="420461"/>
+          <a:ext cx="5015593" cy="5857875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9822,10 +10143,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>172811</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1364925" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -9835,7 +10156,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9705975" y="581025"/>
+          <a:off x="12359368" y="553811"/>
           <a:ext cx="1364925" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9874,16 +10195,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>613682</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:rowOff>68035</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>10886</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9892,8 +10213,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8220075" y="857249"/>
-          <a:ext cx="4562475" cy="514351"/>
+          <a:off x="10696575" y="830035"/>
+          <a:ext cx="4739368" cy="514351"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9929,10 +10250,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>632732</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>172811</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="628442" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -9942,7 +10263,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8239125" y="962025"/>
+          <a:off x="10715625" y="934811"/>
           <a:ext cx="628442" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9981,10 +10302,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>182336</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="602537" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -9994,7 +10315,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8810625" y="971550"/>
+          <a:off x="11464018" y="944336"/>
           <a:ext cx="602537" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10031,81 +10352,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="845744" cy="436786"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="43 CuadroTexto"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9820275" y="904875"/>
-          <a:ext cx="845744" cy="436786"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100"/>
-            <a:t>Dar</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t> alta </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>un vehiculo</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-ES" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>106136</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>20411</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10114,7 +10372,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8591550" y="2038350"/>
+          <a:off x="11244943" y="2011136"/>
           <a:ext cx="3381375" cy="2962275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10151,10 +10409,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>134711</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="628442" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -10164,7 +10422,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9915525" y="1685925"/>
+          <a:off x="12568918" y="1658711"/>
           <a:ext cx="628442" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10203,10 +10461,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>125186</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1012457" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -10216,7 +10474,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8801100" y="2247900"/>
+          <a:off x="11454493" y="2220686"/>
           <a:ext cx="1012457" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10260,10 +10518,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>10886</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1352037" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -10273,7 +10531,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8820150" y="3276600"/>
+          <a:off x="11473543" y="3249386"/>
           <a:ext cx="1352037" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10313,14 +10571,14 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>446314</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>274864</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -10331,7 +10589,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7467600" y="514350"/>
+          <a:off x="9767207" y="514350"/>
           <a:ext cx="590550" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -10370,27 +10628,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>156482</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>48986</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>594632</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>77561</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="51" name="50 Conector recto de flecha"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="50" idx="2"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7762875" y="838200"/>
+          <a:off x="10239375" y="810986"/>
           <a:ext cx="438150" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -10419,16 +10675,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>77561</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>447676</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>638176</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>28577</xdr:rowOff>
+      <xdr:rowOff>1363</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10437,7 +10693,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8829675" y="866775"/>
+          <a:off x="11483068" y="839561"/>
           <a:ext cx="1" cy="495302"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -10463,16 +10719,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>77561</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>438151</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>628651</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>28577</xdr:rowOff>
+      <xdr:rowOff>1363</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10481,7 +10737,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="9582150" y="866775"/>
+          <a:off x="12235543" y="839561"/>
           <a:ext cx="1" cy="495302"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -10507,16 +10763,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>87086</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>238126</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>428626</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>38102</xdr:rowOff>
+      <xdr:rowOff>10888</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10525,7 +10781,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="10906125" y="876300"/>
+          <a:off x="13559518" y="849086"/>
           <a:ext cx="1" cy="495302"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -10551,16 +10807,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>87086</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>171451</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>38102</xdr:rowOff>
+      <xdr:rowOff>10888</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10569,7 +10825,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="11601450" y="876300"/>
+          <a:off x="14254843" y="849086"/>
           <a:ext cx="1" cy="495302"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -10595,10 +10851,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>106136</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="720775" cy="436786"/>
     <xdr:sp macro="" textlink="">
@@ -10608,7 +10864,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10887075" y="895350"/>
+          <a:off x="13540468" y="868136"/>
           <a:ext cx="720775" cy="436786"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10653,16 +10909,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>96611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>20411</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10671,7 +10927,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12077700" y="504825"/>
+          <a:off x="14731093" y="477611"/>
           <a:ext cx="704850" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10710,10 +10966,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>48986</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="612412" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -10723,7 +10979,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12087225" y="457200"/>
+          <a:off x="14740618" y="429986"/>
           <a:ext cx="612412" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10762,10 +11018,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>115661</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="704552" cy="436786"/>
     <xdr:sp macro="" textlink="">
@@ -10775,7 +11031,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11544300" y="904875"/>
+          <a:off x="14197693" y="877661"/>
           <a:ext cx="704552" cy="436786"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10820,16 +11076,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>77561</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>28577</xdr:rowOff>
+      <xdr:rowOff>1363</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10838,7 +11094,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="12230100" y="866775"/>
+          <a:off x="14883493" y="839561"/>
           <a:ext cx="1" cy="495302"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -10864,10 +11120,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>20411</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="567078" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -10877,7 +11133,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12230100" y="1000125"/>
+          <a:off x="14883493" y="972911"/>
           <a:ext cx="567078" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10916,16 +11172,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>742949</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>172811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>115661</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10934,7 +11190,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9886949" y="2486025"/>
+          <a:off x="12540342" y="2458811"/>
           <a:ext cx="895351" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -10973,16 +11229,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>1361</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>20411</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10991,7 +11247,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8677275" y="2505075"/>
+          <a:off x="11330668" y="2477861"/>
           <a:ext cx="3162300" cy="1924050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11030,10 +11286,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>153761</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1259319" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -11043,7 +11299,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9553575" y="2847975"/>
+          <a:off x="12206968" y="2820761"/>
           <a:ext cx="1259319" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11082,16 +11338,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>96611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>20411</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11100,7 +11356,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9058275" y="3362325"/>
+          <a:off x="11711668" y="3335111"/>
           <a:ext cx="704850" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11139,10 +11395,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>125186</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="281872" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -11152,7 +11408,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9258300" y="3390900"/>
+          <a:off x="11911693" y="3363686"/>
           <a:ext cx="281872" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11191,16 +11447,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>96611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>20411</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11209,7 +11465,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10525125" y="3362325"/>
+          <a:off x="13178518" y="3335111"/>
           <a:ext cx="704850" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11248,10 +11504,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>106136</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="350096" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -11261,7 +11517,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10715625" y="3371850"/>
+          <a:off x="13369018" y="3344636"/>
           <a:ext cx="350096" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11300,16 +11556,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>533398</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>723898</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>1361</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>134711</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11318,7 +11574,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9677398" y="2314575"/>
+          <a:off x="12330791" y="2287361"/>
           <a:ext cx="1409702" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -11359,13 +11615,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11414,7 +11670,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1364925" cy="264560"/>
@@ -11466,13 +11722,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11521,7 +11777,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="628442" cy="264560"/>
@@ -11573,7 +11829,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="602537" cy="264560"/>
@@ -11621,81 +11877,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="845744" cy="436786"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="103" name="102 CuadroTexto"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4048125" y="6972300"/>
-          <a:ext cx="845744" cy="436786"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100"/>
-            <a:t>Dar</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t> alta </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>un vehiculo</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-ES" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>313204</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>37540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>646579</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>112060</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11704,8 +11897,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3305175" y="8105775"/>
-          <a:ext cx="3381375" cy="2962275"/>
+          <a:off x="3361204" y="9517716"/>
+          <a:ext cx="3381375" cy="2170020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11743,7 +11936,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="720775" cy="436786"/>
@@ -11822,9 +12015,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>624728</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>87406</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1327864" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -11834,7 +12027,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4524375" y="7696200"/>
+          <a:off x="4434728" y="9186582"/>
           <a:ext cx="1327864" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11874,9 +12067,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>522754</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>56589</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1028680" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -11886,7 +12079,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3514725" y="8315325"/>
+          <a:off x="3570754" y="9727265"/>
           <a:ext cx="1028680" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11932,13 +12125,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>495301</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11976,13 +12169,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>180977</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12020,13 +12213,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>28577</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12064,13 +12257,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>219076</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12108,13 +12301,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12165,7 +12358,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="612412" cy="264560"/>
@@ -12217,7 +12410,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="704552" cy="436786"/>
@@ -12275,13 +12468,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12319,7 +12512,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="567078" cy="264560"/>
@@ -12370,15 +12563,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>84603</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>104214</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>217954</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>47064</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12387,7 +12580,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4600574" y="8553450"/>
+          <a:off x="4656603" y="9965390"/>
           <a:ext cx="895351" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -12428,13 +12621,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12483,7 +12676,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1364925" cy="264560"/>
@@ -12535,13 +12728,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12590,7 +12783,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="628442" cy="264560"/>
@@ -12642,7 +12835,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="602537" cy="264560"/>
@@ -12690,80 +12883,17 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="845744" cy="436786"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="136" name="135 CuadroTexto"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9677400" y="6981825"/>
-          <a:ext cx="845744" cy="436786"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100"/>
-            <a:t>Dar</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t> alta </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>un vehiculo</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-ES" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12812,7 +12942,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1637884" cy="264560"/>
@@ -12864,13 +12994,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>371476</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12908,13 +13038,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12952,13 +13082,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>19052</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12996,13 +13126,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>19052</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13040,7 +13170,7 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="720775" cy="436786"/>
@@ -13098,13 +13228,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13155,7 +13285,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="612412" cy="264560"/>
@@ -13207,7 +13337,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="704552" cy="436786"/>
@@ -13265,13 +13395,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>723901</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13309,7 +13439,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="567078" cy="264560"/>
@@ -13361,13 +13491,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13405,13 +13535,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13449,13 +13579,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13493,13 +13623,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13537,13 +13667,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13581,13 +13711,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13625,13 +13755,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13669,13 +13799,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13726,13 +13856,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13783,13 +13913,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>504824</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13840,7 +13970,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="737959" cy="264560"/>
@@ -13892,7 +14022,7 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="839332" cy="264560"/>
@@ -13944,13 +14074,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13999,7 +14129,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1364925" cy="264560"/>
@@ -14051,13 +14181,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14106,7 +14236,7 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="628442" cy="264560"/>
@@ -14158,7 +14288,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="602537" cy="264560"/>
@@ -14210,7 +14340,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="845744" cy="436786"/>
@@ -14273,13 +14403,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14328,7 +14458,7 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="720775" cy="436786"/>
@@ -14408,7 +14538,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1779270" cy="264560"/>
@@ -14460,7 +14590,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2189510" cy="264560"/>
@@ -14517,13 +14647,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>38102</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14561,13 +14691,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>600076</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>28577</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14605,13 +14735,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>609601</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>66677</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14649,13 +14779,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>533401</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>47627</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14693,13 +14823,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14750,7 +14880,7 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="612412" cy="264560"/>
@@ -14802,7 +14932,7 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="704552" cy="436786"/>
@@ -14860,13 +14990,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>400051</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>38102</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -14904,7 +15034,7 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="567078" cy="264560"/>
@@ -15064,15 +15194,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>667309</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>189379</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>29134</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>113179</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15081,7 +15211,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4410075" y="10420350"/>
+          <a:off x="4477309" y="11003055"/>
           <a:ext cx="885825" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15121,9 +15251,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>647701</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>714935</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>27454</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="762388" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -15133,7 +15263,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4457701" y="10448925"/>
+          <a:off x="4524935" y="11031630"/>
           <a:ext cx="762388" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15174,13 +15304,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15231,7 +15361,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="567078" cy="264560"/>
@@ -15283,13 +15413,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>542926</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15340,13 +15470,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15395,7 +15525,7 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1364925" cy="264560"/>
@@ -15447,13 +15577,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15502,7 +15632,7 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="628442" cy="264560"/>
@@ -15554,7 +15684,7 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="602537" cy="264560"/>
@@ -15606,7 +15736,7 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="845744" cy="436786"/>
@@ -15669,13 +15799,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15724,7 +15854,7 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1528111" cy="264560"/>
@@ -15776,13 +15906,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>409576</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>47627</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15820,13 +15950,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>200026</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>38102</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15864,13 +15994,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>200026</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>57152</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15908,13 +16038,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>133351</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>57152</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15952,7 +16082,7 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="720775" cy="436786"/>
@@ -16010,13 +16140,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16067,7 +16197,7 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="612412" cy="264560"/>
@@ -16119,7 +16249,7 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="704552" cy="436786"/>
@@ -16177,13 +16307,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>47627</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16221,7 +16351,7 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="567078" cy="264560"/>
@@ -16273,13 +16403,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16317,13 +16447,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16361,13 +16491,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16405,13 +16535,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16449,13 +16579,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16493,13 +16623,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>542924</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16550,7 +16680,7 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="737959" cy="264560"/>
@@ -16602,7 +16732,7 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="839332" cy="264560"/>
@@ -16652,16 +16782,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>387723</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>17929</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>578223</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>181215</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>163605</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>354105</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>107576</xdr:rowOff>
+      <xdr:rowOff>80362</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -16670,7 +16800,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8769723" y="2875429"/>
+          <a:off x="11423116" y="2848215"/>
           <a:ext cx="537882" cy="280147"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -16713,15 +16843,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>78440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>560294</xdr:colOff>
+      <xdr:colOff>616323</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
+      <xdr:rowOff>168087</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -16730,7 +16860,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3832412" y="10085294"/>
+          <a:off x="3888441" y="10511116"/>
           <a:ext cx="537882" cy="280147"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -16774,13 +16904,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>466165</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>242047</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>51547</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16834,13 +16964,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>484094</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>2241</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>259976</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>91888</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16894,13 +17024,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>569259</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>188259</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>504265</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>87406</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16954,13 +17084,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>259977</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>69477</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>35859</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>159124</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17014,13 +17144,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>165848</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>98613</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>703730</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>188260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17132,13 +17262,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>638735</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>11205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>414617</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>100852</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17188,6 +17318,3337 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="468654" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="230" name="229 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12559393" y="925286"/>
+          <a:ext cx="468654" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Altas</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>410135</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>186018</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="468654" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="231" name="230 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4220135" y="8713694"/>
+          <a:ext cx="468654" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Altas</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>528917</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="468654" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="232" name="231 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9841005" y="8754035"/>
+          <a:ext cx="468654" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Altas</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>591110</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>154641</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1131528" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="233" name="232 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4401110" y="11730317"/>
+          <a:ext cx="1131528" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Dar alta persona</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>291353</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>624728</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="234" name="233 Rectángulo"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3339353" y="12012705"/>
+          <a:ext cx="3381375" cy="1927413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>500903</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>75078</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1012457" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="235" name="234 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3548903" y="12222254"/>
+          <a:ext cx="1012457" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Datos</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> persona</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>62752</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>122703</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>196103</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>65553</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="236" name="235 Rectángulo redondeado"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4634752" y="12460379"/>
+          <a:ext cx="895351" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Formulario</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>645458</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>17368</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7283</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>131668</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="237" name="236 Rectángulo"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4455458" y="13498044"/>
+          <a:ext cx="885825" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>693084</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>45943</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="762388" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="238" name="237 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4503084" y="13526619"/>
+          <a:ext cx="762388" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Confirmar</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>56590</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>96929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>594472</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>186576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="239" name="238 Rectángulo redondeado"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3866590" y="13006105"/>
+          <a:ext cx="537882" cy="280147"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>POST</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>569259</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>98052</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="240" name="239 Rectángulo"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24092647" y="8292353"/>
+          <a:ext cx="4838700" cy="5857875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>426384</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>88527</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1364925" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="241" name="240 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25740472" y="8425703"/>
+          <a:ext cx="1364925" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Concesionario Vioño</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>464484</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>174251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>454959</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>117102</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="242" name="241 Rectángulo"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24254572" y="8701927"/>
+          <a:ext cx="4562475" cy="514351"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>483534</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>88527</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="628442" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="243" name="242 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24273622" y="8806703"/>
+          <a:ext cx="628442" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Alquilar</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>293034</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>98052</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="602537" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="244" name="243 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24845122" y="8816228"/>
+          <a:ext cx="602537" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Vender</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>474009</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>31377</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="845744" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="245" name="244 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25788097" y="8749553"/>
+          <a:ext cx="845744" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Dar</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> alta </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>un vehiculo</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>73959</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>21853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>407334</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>59953</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="246" name="245 Rectángulo"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24626047" y="9883029"/>
+          <a:ext cx="3381375" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>293034</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>183777</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1467325" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="247" name="246 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25607122" y="9473453"/>
+          <a:ext cx="1467325" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Listado</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> de formularios</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>312084</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>183777</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>312085</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>107579</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="248" name="247 Conector recto"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="24864172" y="8711453"/>
+          <a:ext cx="1" cy="495302"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>102534</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>174252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>102535</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>98054</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="249" name="248 Conector recto"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="25416622" y="8701928"/>
+          <a:ext cx="1" cy="495302"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>102534</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>2802</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>102535</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>117104</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="250" name="249 Conector recto"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="26940622" y="8720978"/>
+          <a:ext cx="1" cy="495302"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>35859</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>2802</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>35860</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>117104</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="251" name="250 Conector recto"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="27635947" y="8720978"/>
+          <a:ext cx="1" cy="495302"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>83484</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>21852</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="720775" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="252" name="251 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26921572" y="8740028"/>
+          <a:ext cx="720775" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Listar</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>vehículos</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>512109</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>12327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>454959</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>126627</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="253" name="252 Rectángulo"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28112197" y="8349503"/>
+          <a:ext cx="704850" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>521634</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>155202</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="612412" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="254" name="253 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28121722" y="8301878"/>
+          <a:ext cx="612412" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Log out</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>740709</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>31377</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="704552" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="255" name="254 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27578797" y="8749553"/>
+          <a:ext cx="704552" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Listar</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>personas</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>664509</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>183777</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>664510</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>107579</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="256" name="255 Conector recto"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="28264597" y="8711453"/>
+          <a:ext cx="1" cy="495302"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>454959</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>21852</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>464484</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>59952</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="258" name="257 Conector recto"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27293047" y="9883028"/>
+          <a:ext cx="9525" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>616884</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>2802</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>635934</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>79002</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="259" name="258 Conector recto"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26692972" y="9863978"/>
+          <a:ext cx="19050" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>35859</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>12327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>45384</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>88527</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="260" name="259 Conector recto"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="26111947" y="9873503"/>
+          <a:ext cx="9525" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>245409</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>40902</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>245409</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>98052</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="261" name="260 Conector recto"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25559497" y="9902078"/>
+          <a:ext cx="0" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>531159</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>40902</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>550209</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>69477</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="262" name="261 Conector recto"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25083247" y="9902078"/>
+          <a:ext cx="19050" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>445433</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>2802</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>578784</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>136152</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="263" name="262 Rectángulo redondeado"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27283521" y="9482978"/>
+          <a:ext cx="895351" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Tabla</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>460562</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>88527</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="654218" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="264" name="263 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27298650" y="9949703"/>
+          <a:ext cx="654218" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Eliminar</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>68357</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>158565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>606239</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>57712</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="266" name="265 Rectángulo redondeado"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25382445" y="10400741"/>
+          <a:ext cx="537882" cy="280147"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>GET</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>638736</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>11207</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="849079" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="267" name="266 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28238824" y="8729383"/>
+          <a:ext cx="849079" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Listar</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>formularios</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>262829</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>187444</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>304393</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>139819</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="268" name="267 Rectángulo"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29392011" y="8326989"/>
+          <a:ext cx="4838700" cy="5857875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>161518</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>130294</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1364925" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="269" name="268 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31039836" y="8460339"/>
+          <a:ext cx="1364925" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Concesionario Vioño</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>424754</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>25518</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>190093</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>158869</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="270" name="269 Rectángulo"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29553936" y="8736563"/>
+          <a:ext cx="4562475" cy="514351"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>443804</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>130294</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="628442" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="271" name="270 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29572986" y="8841339"/>
+          <a:ext cx="628442" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Alquilar</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>253304</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>139819</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="602537" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="272" name="271 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30144486" y="8850864"/>
+          <a:ext cx="602537" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Vender</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>209143</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>73144</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="845744" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="273" name="272 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31087461" y="8784189"/>
+          <a:ext cx="845744" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Dar</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> alta </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>un vehiculo</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>34229</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>63620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>142468</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>101720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="274" name="273 Rectángulo"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29925411" y="9917665"/>
+          <a:ext cx="3381375" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>28168</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>35044</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1467325" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="275" name="274 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30906486" y="9508089"/>
+          <a:ext cx="1467325" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Listado</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> de formularios</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>272354</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>35044</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>272355</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>149346</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="276" name="275 Conector recto"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="30163536" y="8746089"/>
+          <a:ext cx="1" cy="495302"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>824804</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>25519</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>824805</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>139821</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="277" name="276 Conector recto"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="30715986" y="8736564"/>
+          <a:ext cx="1" cy="495302"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>599668</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>44569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>599669</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>158871</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="278" name="277 Conector recto"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="32239986" y="8755614"/>
+          <a:ext cx="1" cy="495302"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>532993</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>44569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>532994</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>158871</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="279" name="278 Conector recto"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="32935311" y="8755614"/>
+          <a:ext cx="1" cy="495302"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>580618</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>63619</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="720775" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="280" name="279 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32220936" y="8774664"/>
+          <a:ext cx="720775" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Listar</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>vehículos</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>247243</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>54094</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>190093</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>168394</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="281" name="280 Rectángulo"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33411561" y="8384139"/>
+          <a:ext cx="704850" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>256768</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>6469</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="612412" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="282" name="281 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33421086" y="8336514"/>
+          <a:ext cx="612412" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Log out</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>475843</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>73144</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="704552" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="283" name="282 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32878161" y="8784189"/>
+          <a:ext cx="704552" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Listar</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>personas</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>399643</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>35044</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>399644</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>149346</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="284" name="283 Conector recto"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="33563961" y="8746089"/>
+          <a:ext cx="1" cy="495302"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>190093</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>63619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>199618</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>101719</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="285" name="284 Conector recto"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32592411" y="9917664"/>
+          <a:ext cx="9525" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>352018</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>44569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>371068</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>120769</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="286" name="285 Conector recto"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31992336" y="9898614"/>
+          <a:ext cx="19050" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>532993</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>54094</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>542518</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>130294</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="287" name="286 Conector recto"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="31411311" y="9908139"/>
+          <a:ext cx="9525" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>967679</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>82669</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>967679</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>139819</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="288" name="287 Conector recto"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30858861" y="9936714"/>
+          <a:ext cx="0" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>491429</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>82669</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>510479</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>111244</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="289" name="288 Conector recto"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30382611" y="9936714"/>
+          <a:ext cx="19050" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>180567</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>44569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>313918</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>177919</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="290" name="289 Rectángulo redondeado"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32582885" y="9517614"/>
+          <a:ext cx="895351" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Tabla</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>195696</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>130294</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="654218" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="291" name="290 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32598014" y="9984339"/>
+          <a:ext cx="654218" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Eliminar</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>790627</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>9832</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>341373</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>99479</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="292" name="291 Rectángulo redondeado"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30681809" y="10435377"/>
+          <a:ext cx="537882" cy="280147"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>GET</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>373870</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>52974</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="849079" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="293" name="292 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33538188" y="8764019"/>
+          <a:ext cx="849079" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Listar</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>formularios</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>595032</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180573</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="562718" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="294" name="293 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6691032" y="942573"/>
+          <a:ext cx="562718" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Listar</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>ventas</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>366432</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>33616</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="742383" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="295" name="294 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7224432" y="986116"/>
+          <a:ext cx="742383" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Listar</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>alquileres</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -24685,8 +28146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C38:AL42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AH38" sqref="AH38"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB39" sqref="AB39:AE42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24695,220 +28156,220 @@
   </cols>
   <sheetData>
     <row r="38" spans="3:38" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="J38" s="22" t="s">
-        <v>53</v>
+      <c r="J38" s="14" t="s">
+        <v>38</v>
       </c>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="22"/>
-      <c r="V38" s="35" t="s">
-        <v>53</v>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="V38" s="13" t="s">
+        <v>38</v>
       </c>
-      <c r="AB38" s="35" t="s">
-        <v>53</v>
+      <c r="AB38" s="13" t="s">
+        <v>38</v>
       </c>
-      <c r="AH38" s="35" t="s">
-        <v>53</v>
+      <c r="AH38" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="3:38" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="11" t="s">
-        <v>9</v>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="27" t="s">
+        <v>4</v>
       </c>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="20" t="s">
-        <v>54</v>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="9" t="s">
+        <v>45</v>
       </c>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="20"/>
-      <c r="S39" s="20"/>
-      <c r="T39" s="21"/>
-      <c r="U39" s="25" t="s">
-        <v>55</v>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="15" t="s">
+        <v>39</v>
       </c>
-      <c r="V39" s="29" t="s">
-        <v>56</v>
+      <c r="V39" s="18" t="s">
+        <v>40</v>
       </c>
-      <c r="W39" s="10"/>
-      <c r="X39" s="10"/>
-      <c r="Y39" s="10"/>
-      <c r="Z39" s="29" t="s">
-        <v>59</v>
+      <c r="W39" s="19"/>
+      <c r="X39" s="19"/>
+      <c r="Y39" s="19"/>
+      <c r="Z39" s="18" t="s">
+        <v>41</v>
       </c>
-      <c r="AA39" s="29"/>
-      <c r="AB39" s="25" t="s">
-        <v>60</v>
+      <c r="AA39" s="18"/>
+      <c r="AB39" s="15" t="s">
+        <v>42</v>
       </c>
-      <c r="AC39" s="28"/>
-      <c r="AD39" s="28"/>
-      <c r="AE39" s="32"/>
-      <c r="AF39" s="29" t="s">
-        <v>61</v>
+      <c r="AC39" s="20"/>
+      <c r="AD39" s="20"/>
+      <c r="AE39" s="21"/>
+      <c r="AF39" s="18" t="s">
+        <v>43</v>
       </c>
-      <c r="AG39" s="29"/>
-      <c r="AH39" s="2" t="s">
-        <v>62</v>
+      <c r="AG39" s="18"/>
+      <c r="AH39" s="1" t="s">
+        <v>44</v>
       </c>
-      <c r="AI39" s="2"/>
-      <c r="AJ39" s="2"/>
-      <c r="AK39" s="2"/>
-      <c r="AL39" s="3"/>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1"/>
+      <c r="AK39" s="1"/>
+      <c r="AL39" s="2"/>
     </row>
     <row r="40" spans="3:38" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="11" t="s">
-        <v>52</v>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="27" t="s">
+        <v>37</v>
       </c>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="20" t="s">
-        <v>57</v>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="9" t="s">
+        <v>46</v>
       </c>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="20"/>
-      <c r="R40" s="20"/>
-      <c r="S40" s="20"/>
-      <c r="T40" s="21"/>
-      <c r="U40" s="26"/>
-      <c r="V40" s="10"/>
-      <c r="W40" s="10"/>
-      <c r="X40" s="10"/>
-      <c r="Y40" s="10"/>
-      <c r="Z40" s="29"/>
-      <c r="AA40" s="29"/>
-      <c r="AB40" s="26"/>
-      <c r="AC40" s="30"/>
-      <c r="AD40" s="30"/>
-      <c r="AE40" s="33"/>
-      <c r="AF40" s="29"/>
-      <c r="AG40" s="29"/>
-      <c r="AH40" s="23"/>
-      <c r="AI40" s="23"/>
-      <c r="AJ40" s="23"/>
-      <c r="AK40" s="23"/>
-      <c r="AL40" s="24"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="19"/>
+      <c r="W40" s="19"/>
+      <c r="X40" s="19"/>
+      <c r="Y40" s="19"/>
+      <c r="Z40" s="18"/>
+      <c r="AA40" s="18"/>
+      <c r="AB40" s="16"/>
+      <c r="AC40" s="22"/>
+      <c r="AD40" s="22"/>
+      <c r="AE40" s="23"/>
+      <c r="AF40" s="18"/>
+      <c r="AG40" s="18"/>
+      <c r="AH40" s="11"/>
+      <c r="AI40" s="11"/>
+      <c r="AJ40" s="11"/>
+      <c r="AK40" s="11"/>
+      <c r="AL40" s="12"/>
     </row>
     <row r="41" spans="3:38" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="14" t="s">
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="20" t="s">
-        <v>58</v>
+      <c r="H41" s="29"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="9" t="s">
+        <v>47</v>
       </c>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="20"/>
-      <c r="S41" s="20"/>
-      <c r="T41" s="21"/>
-      <c r="U41" s="26"/>
-      <c r="V41" s="10"/>
-      <c r="W41" s="10"/>
-      <c r="X41" s="10"/>
-      <c r="Y41" s="10"/>
-      <c r="Z41" s="29"/>
-      <c r="AA41" s="29"/>
-      <c r="AB41" s="26"/>
-      <c r="AC41" s="30"/>
-      <c r="AD41" s="30"/>
-      <c r="AE41" s="33"/>
-      <c r="AF41" s="29"/>
-      <c r="AG41" s="29"/>
-      <c r="AH41" s="23"/>
-      <c r="AI41" s="23"/>
-      <c r="AJ41" s="23"/>
-      <c r="AK41" s="23"/>
-      <c r="AL41" s="24"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="19"/>
+      <c r="W41" s="19"/>
+      <c r="X41" s="19"/>
+      <c r="Y41" s="19"/>
+      <c r="Z41" s="18"/>
+      <c r="AA41" s="18"/>
+      <c r="AB41" s="16"/>
+      <c r="AC41" s="22"/>
+      <c r="AD41" s="22"/>
+      <c r="AE41" s="23"/>
+      <c r="AF41" s="18"/>
+      <c r="AG41" s="18"/>
+      <c r="AH41" s="11"/>
+      <c r="AI41" s="11"/>
+      <c r="AJ41" s="11"/>
+      <c r="AK41" s="11"/>
+      <c r="AL41" s="12"/>
     </row>
     <row r="42" spans="3:38" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="20"/>
-      <c r="T42" s="21"/>
-      <c r="U42" s="27"/>
-      <c r="V42" s="10"/>
-      <c r="W42" s="10"/>
-      <c r="X42" s="10"/>
-      <c r="Y42" s="10"/>
-      <c r="Z42" s="29"/>
-      <c r="AA42" s="29"/>
-      <c r="AB42" s="27"/>
-      <c r="AC42" s="31"/>
-      <c r="AD42" s="31"/>
-      <c r="AE42" s="34"/>
-      <c r="AF42" s="29"/>
-      <c r="AG42" s="29"/>
-      <c r="AH42" s="4"/>
-      <c r="AI42" s="4"/>
-      <c r="AJ42" s="4"/>
-      <c r="AK42" s="4"/>
-      <c r="AL42" s="5"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="17"/>
+      <c r="V42" s="19"/>
+      <c r="W42" s="19"/>
+      <c r="X42" s="19"/>
+      <c r="Y42" s="19"/>
+      <c r="Z42" s="18"/>
+      <c r="AA42" s="18"/>
+      <c r="AB42" s="17"/>
+      <c r="AC42" s="24"/>
+      <c r="AD42" s="24"/>
+      <c r="AE42" s="25"/>
+      <c r="AF42" s="18"/>
+      <c r="AG42" s="18"/>
+      <c r="AH42" s="3"/>
+      <c r="AI42" s="3"/>
+      <c r="AJ42" s="3"/>
+      <c r="AK42" s="3"/>
+      <c r="AL42" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AF39:AG42"/>
+    <mergeCell ref="C39:F42"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G42:I42"/>
     <mergeCell ref="J38:T38"/>
     <mergeCell ref="U39:U42"/>
     <mergeCell ref="V39:Y42"/>
     <mergeCell ref="Z39:AA42"/>
     <mergeCell ref="AB39:AE42"/>
-    <mergeCell ref="C39:F42"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="AF39:AG42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -24918,175 +28379,396 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C35:AE77"/>
+  <dimension ref="C36:AS89"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="40" max="40" width="14.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="35" spans="3:17" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C35" s="13" t="s">
+    <row r="36" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="3:17" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C37" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="14" t="s">
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="10" t="s">
+      <c r="G37" s="35"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
     </row>
-    <row r="36" spans="3:17" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="14" t="s">
-        <v>4</v>
+    <row r="38" spans="3:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="36" t="s">
+        <v>48</v>
       </c>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
     </row>
-    <row r="72" spans="3:31" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C72" s="13" t="s">
+    <row r="74" spans="3:45" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C74" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="1" t="s">
+      <c r="D74" s="31"/>
+      <c r="E74" s="41"/>
+      <c r="F74" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="G74" s="40"/>
+      <c r="H74" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="I74" s="52"/>
+      <c r="J74" s="53"/>
+      <c r="K74" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="L74" s="62"/>
+      <c r="M74" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="N74" s="69"/>
+      <c r="O74" s="69"/>
+      <c r="P74" s="69"/>
+      <c r="Q74" s="69"/>
+      <c r="R74" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="S74" s="70"/>
+      <c r="T74" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="U74" s="69"/>
+      <c r="V74" s="69"/>
+      <c r="W74" s="69"/>
+      <c r="X74" s="69"/>
+      <c r="Y74" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z74" s="71"/>
+      <c r="AA74" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB74" s="78"/>
+      <c r="AC74" s="78"/>
+      <c r="AD74" s="78"/>
+      <c r="AE74" s="79"/>
+      <c r="AF74" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG74" s="71"/>
+      <c r="AH74" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI74" s="78"/>
+      <c r="AJ74" s="78"/>
+      <c r="AK74" s="78"/>
+      <c r="AL74" s="79"/>
+      <c r="AM74" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN74" s="71"/>
+      <c r="AO74" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP74" s="78"/>
+      <c r="AQ74" s="78"/>
+      <c r="AR74" s="78"/>
+      <c r="AS74" s="79"/>
+    </row>
+    <row r="75" spans="3:45" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C75" s="31"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="40"/>
+      <c r="G75" s="40"/>
+      <c r="H75" s="54"/>
+      <c r="I75" s="55"/>
+      <c r="J75" s="56"/>
+      <c r="K75" s="63"/>
+      <c r="L75" s="64"/>
+      <c r="M75" s="69"/>
+      <c r="N75" s="69"/>
+      <c r="O75" s="69"/>
+      <c r="P75" s="69"/>
+      <c r="Q75" s="69"/>
+      <c r="R75" s="70"/>
+      <c r="S75" s="70"/>
+      <c r="T75" s="69"/>
+      <c r="U75" s="69"/>
+      <c r="V75" s="69"/>
+      <c r="W75" s="69"/>
+      <c r="X75" s="69"/>
+      <c r="Y75" s="71"/>
+      <c r="Z75" s="71"/>
+      <c r="AA75" s="80"/>
+      <c r="AB75" s="81"/>
+      <c r="AC75" s="81"/>
+      <c r="AD75" s="81"/>
+      <c r="AE75" s="82"/>
+      <c r="AF75" s="71"/>
+      <c r="AG75" s="71"/>
+      <c r="AH75" s="80"/>
+      <c r="AI75" s="81"/>
+      <c r="AJ75" s="81"/>
+      <c r="AK75" s="81"/>
+      <c r="AL75" s="82"/>
+      <c r="AM75" s="71"/>
+      <c r="AN75" s="71"/>
+      <c r="AO75" s="80"/>
+      <c r="AP75" s="81"/>
+      <c r="AQ75" s="81"/>
+      <c r="AR75" s="81"/>
+      <c r="AS75" s="82"/>
+    </row>
+    <row r="76" spans="3:45" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F76" s="40"/>
+      <c r="G76" s="40"/>
+      <c r="H76" s="57"/>
+      <c r="I76" s="58"/>
+      <c r="J76" s="59"/>
+      <c r="K76" s="65"/>
+      <c r="L76" s="66"/>
+      <c r="M76" s="69"/>
+      <c r="N76" s="69"/>
+      <c r="O76" s="69"/>
+      <c r="P76" s="69"/>
+      <c r="Q76" s="69"/>
+      <c r="R76" s="70"/>
+      <c r="S76" s="70"/>
+      <c r="T76" s="69"/>
+      <c r="U76" s="69"/>
+      <c r="V76" s="69"/>
+      <c r="W76" s="69"/>
+      <c r="X76" s="69"/>
+      <c r="Y76" s="71"/>
+      <c r="Z76" s="71"/>
+      <c r="AA76" s="83"/>
+      <c r="AB76" s="84"/>
+      <c r="AC76" s="84"/>
+      <c r="AD76" s="84"/>
+      <c r="AE76" s="85"/>
+      <c r="AF76" s="71"/>
+      <c r="AG76" s="71"/>
+      <c r="AH76" s="83"/>
+      <c r="AI76" s="84"/>
+      <c r="AJ76" s="84"/>
+      <c r="AK76" s="84"/>
+      <c r="AL76" s="85"/>
+      <c r="AM76" s="71"/>
+      <c r="AN76" s="71"/>
+      <c r="AO76" s="83"/>
+      <c r="AP76" s="84"/>
+      <c r="AQ76" s="84"/>
+      <c r="AR76" s="84"/>
+      <c r="AS76" s="85"/>
+    </row>
+    <row r="77" spans="3:45" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F77" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="G77" s="40"/>
+      <c r="H77" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="I77" s="60"/>
+      <c r="J77" s="67"/>
+      <c r="K77" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="L77" s="36"/>
+      <c r="M77" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="N77" s="69"/>
+      <c r="O77" s="69"/>
+      <c r="P77" s="69"/>
+      <c r="Q77" s="69"/>
+      <c r="R77" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="S77" s="70"/>
+      <c r="T77" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="U77" s="69"/>
+      <c r="V77" s="69"/>
+      <c r="W77" s="69"/>
+      <c r="X77" s="69"/>
+      <c r="Y77" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z77" s="36"/>
+      <c r="AA77" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB77" s="44"/>
+      <c r="AC77" s="44"/>
+      <c r="AD77" s="44"/>
+      <c r="AE77" s="73"/>
+      <c r="AM77" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN77" s="71"/>
+      <c r="AO77" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP77" s="78"/>
+      <c r="AQ77" s="78"/>
+      <c r="AR77" s="78"/>
+      <c r="AS77" s="79"/>
+    </row>
+    <row r="78" spans="3:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F78" s="45"/>
+      <c r="G78" s="46"/>
+      <c r="H78" s="49"/>
+      <c r="I78" s="50"/>
+      <c r="J78" s="50"/>
+      <c r="K78" s="36"/>
+      <c r="L78" s="36"/>
+      <c r="M78" s="69"/>
+      <c r="N78" s="69"/>
+      <c r="O78" s="69"/>
+      <c r="P78" s="69"/>
+      <c r="Q78" s="69"/>
+      <c r="R78" s="70"/>
+      <c r="S78" s="70"/>
+      <c r="T78" s="69"/>
+      <c r="U78" s="69"/>
+      <c r="V78" s="69"/>
+      <c r="W78" s="69"/>
+      <c r="X78" s="69"/>
+      <c r="Y78" s="36"/>
+      <c r="Z78" s="36"/>
+      <c r="AA78" s="74"/>
+      <c r="AB78" s="75"/>
+      <c r="AC78" s="75"/>
+      <c r="AD78" s="75"/>
+      <c r="AE78" s="76"/>
+      <c r="AM78" s="71"/>
+      <c r="AN78" s="71"/>
+      <c r="AO78" s="80"/>
+      <c r="AP78" s="81"/>
+      <c r="AQ78" s="81"/>
+      <c r="AR78" s="81"/>
+      <c r="AS78" s="82"/>
+    </row>
+    <row r="79" spans="3:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F79" s="47"/>
+      <c r="G79" s="48"/>
+      <c r="H79" s="49"/>
+      <c r="I79" s="50"/>
+      <c r="J79" s="50"/>
+      <c r="K79" t="s">
         <v>5</v>
       </c>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L72" s="11"/>
-      <c r="M72" s="11"/>
-      <c r="N72" s="11"/>
-      <c r="O72" s="11"/>
-      <c r="P72" s="11"/>
-      <c r="Q72" s="11"/>
-      <c r="R72" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="S72" s="10"/>
-      <c r="T72" s="10"/>
-      <c r="U72" s="10"/>
-      <c r="V72" s="10"/>
-      <c r="W72" s="10"/>
-      <c r="X72" s="10"/>
-      <c r="Y72" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z72" s="11"/>
-      <c r="AA72" s="11"/>
-      <c r="AB72" s="11"/>
-      <c r="AC72" s="11"/>
-      <c r="AD72" s="11"/>
-      <c r="AE72" s="11"/>
+      <c r="R79" s="70"/>
+      <c r="S79" s="70"/>
+      <c r="AM79" s="71"/>
+      <c r="AN79" s="71"/>
+      <c r="AO79" s="83"/>
+      <c r="AP79" s="84"/>
+      <c r="AQ79" s="84"/>
+      <c r="AR79" s="84"/>
+      <c r="AS79" s="85"/>
     </row>
-    <row r="73" spans="3:31" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="L73" s="11"/>
-      <c r="M73" s="11"/>
-      <c r="N73" s="11"/>
-      <c r="O73" s="11"/>
-      <c r="P73" s="11"/>
-      <c r="Q73" s="11"/>
-      <c r="R73" s="10"/>
-      <c r="S73" s="10"/>
-      <c r="T73" s="10"/>
-      <c r="U73" s="10"/>
-      <c r="V73" s="10"/>
-      <c r="W73" s="10"/>
-      <c r="X73" s="10"/>
-      <c r="Y73" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z73" s="11"/>
-      <c r="AA73" s="11"/>
-      <c r="AB73" s="11"/>
-      <c r="AC73" s="11"/>
-      <c r="AD73" s="11"/>
-      <c r="AE73" s="11"/>
+    <row r="80" spans="3:45" x14ac:dyDescent="0.25">
+      <c r="AQ80" s="42"/>
     </row>
-    <row r="74" spans="3:31" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="K74" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="L74" s="11"/>
-      <c r="M74" s="11"/>
-      <c r="N74" s="11"/>
-      <c r="O74" s="11"/>
-      <c r="P74" s="11"/>
-      <c r="Q74" s="11"/>
+    <row r="81" spans="8:43" x14ac:dyDescent="0.25">
+      <c r="AQ81" s="42"/>
     </row>
-    <row r="75" spans="3:31" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="K75" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L75" s="11"/>
-      <c r="M75" s="11"/>
-      <c r="N75" s="11"/>
-      <c r="O75" s="11"/>
-      <c r="P75" s="11"/>
-      <c r="Q75" s="11"/>
+    <row r="82" spans="8:43" x14ac:dyDescent="0.25">
+      <c r="AQ82" s="42"/>
     </row>
-    <row r="77" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="K77" t="s">
-        <v>13</v>
-      </c>
+    <row r="83" spans="8:43" x14ac:dyDescent="0.25">
+      <c r="AQ83" s="42"/>
+    </row>
+    <row r="84" spans="8:43" x14ac:dyDescent="0.25">
+      <c r="H84" s="42"/>
+      <c r="AQ84" s="42"/>
+    </row>
+    <row r="85" spans="8:43" x14ac:dyDescent="0.25">
+      <c r="H85" s="42"/>
+      <c r="AQ85" s="42"/>
+    </row>
+    <row r="86" spans="8:43" x14ac:dyDescent="0.25">
+      <c r="H86" s="42"/>
+    </row>
+    <row r="87" spans="8:43" x14ac:dyDescent="0.25">
+      <c r="H87" s="42"/>
+    </row>
+    <row r="88" spans="8:43" x14ac:dyDescent="0.25">
+      <c r="H88" s="42"/>
+    </row>
+    <row r="89" spans="8:43" x14ac:dyDescent="0.25">
+      <c r="H89" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="L35:Q36"/>
-    <mergeCell ref="C35:E36"/>
-    <mergeCell ref="F35:K35"/>
-    <mergeCell ref="F36:K36"/>
-    <mergeCell ref="K72:Q72"/>
-    <mergeCell ref="Y72:AE72"/>
-    <mergeCell ref="Y73:AE73"/>
-    <mergeCell ref="K74:Q74"/>
-    <mergeCell ref="K75:Q75"/>
-    <mergeCell ref="C72:E73"/>
-    <mergeCell ref="R72:X73"/>
-    <mergeCell ref="K73:Q73"/>
+  <mergeCells count="28">
+    <mergeCell ref="AF74:AG76"/>
+    <mergeCell ref="AH74:AL76"/>
+    <mergeCell ref="AM74:AN76"/>
+    <mergeCell ref="AO74:AS76"/>
+    <mergeCell ref="AM77:AN79"/>
+    <mergeCell ref="AO77:AS79"/>
+    <mergeCell ref="Y77:Z78"/>
+    <mergeCell ref="Y74:Z76"/>
+    <mergeCell ref="AA74:AE76"/>
+    <mergeCell ref="AA77:AE78"/>
+    <mergeCell ref="M74:Q76"/>
+    <mergeCell ref="K77:L78"/>
+    <mergeCell ref="M77:Q78"/>
+    <mergeCell ref="R74:S76"/>
+    <mergeCell ref="R77:S79"/>
+    <mergeCell ref="T74:X76"/>
+    <mergeCell ref="T77:X78"/>
+    <mergeCell ref="C74:E75"/>
+    <mergeCell ref="H74:J76"/>
+    <mergeCell ref="F74:G76"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="K74:L76"/>
+    <mergeCell ref="L37:Q38"/>
+    <mergeCell ref="C37:E38"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:K38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -25111,10 +28793,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D40"/>
+  <dimension ref="B2:D50"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25124,369 +28806,469 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
-        <v>17</v>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
-        <v>14</v>
+      <c r="B4" s="8" t="s">
+        <v>6</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>51</v>
+      <c r="C4" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
-        <v>15</v>
+      <c r="B5" s="32" t="s">
+        <v>7</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>18</v>
+      <c r="C5" s="32" t="s">
+        <v>10</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>200</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="8">
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="7">
         <v>404</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="19" t="s">
-        <v>16</v>
+      <c r="B7" s="33" t="s">
+        <v>8</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>19</v>
+      <c r="C7" s="32" t="s">
+        <v>11</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>201</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="19"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="8">
+      <c r="B8" s="33"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="7">
         <v>400</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="19" t="s">
-        <v>20</v>
+      <c r="B9" s="33" t="s">
+        <v>12</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>21</v>
+      <c r="C9" s="32" t="s">
+        <v>13</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>201</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="19"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="8">
+      <c r="B10" s="33"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="7">
         <v>400</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="19"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="8">
+      <c r="B11" s="33"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="7">
         <v>401</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
+      <c r="B12" s="5"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
-        <v>23</v>
+      <c r="B14" s="8" t="s">
+        <v>14</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>51</v>
+      <c r="C14" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="17" t="s">
-        <v>24</v>
+      <c r="B15" s="34" t="s">
+        <v>72</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>26</v>
+      <c r="C15" s="34" t="s">
+        <v>15</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>201</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="8">
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="7">
         <v>400</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="17" t="s">
-        <v>25</v>
+      <c r="B17" s="34" t="s">
+        <v>73</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>27</v>
+      <c r="C17" s="34" t="s">
+        <v>16</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>201</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="8">
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="7">
         <v>400</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="17" t="s">
-        <v>28</v>
+      <c r="B19" s="34" t="s">
+        <v>74</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>38</v>
+      <c r="C19" s="87" t="s">
+        <v>76</v>
       </c>
-      <c r="D19" s="8">
-        <v>201</v>
+      <c r="D19" s="7">
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="8">
-        <v>400</v>
+      <c r="B20" s="34"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="7">
+        <v>404</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="17" t="s">
-        <v>22</v>
+      <c r="B21" s="34" t="s">
+        <v>75</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>39</v>
+      <c r="C21" s="87" t="s">
+        <v>77</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>200</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="8">
+      <c r="B22" s="34"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="7">
         <v>404</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="17" t="s">
-        <v>29</v>
+      <c r="B23" s="87" t="s">
+        <v>78</v>
       </c>
-      <c r="C23" s="17" t="s">
-        <v>40</v>
+      <c r="C23" s="87" t="s">
+        <v>80</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <v>201</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="8">
+      <c r="B24" s="88"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="7">
         <v>400</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="17" t="s">
-        <v>30</v>
+      <c r="B25" s="87" t="s">
+        <v>79</v>
       </c>
-      <c r="C25" s="17" t="s">
-        <v>41</v>
+      <c r="C25" s="87" t="s">
+        <v>81</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <v>201</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="8">
+      <c r="B26" s="88"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="7">
         <v>400</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="17" t="s">
-        <v>31</v>
+      <c r="B27" s="86" t="s">
+        <v>67</v>
       </c>
-      <c r="C27" s="17" t="s">
-        <v>42</v>
+      <c r="C27" s="34" t="s">
+        <v>23</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="7">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="86"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="7">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="8">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="86"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="7">
         <v>404</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="17" t="s">
-        <v>32</v>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="86" t="s">
+        <v>64</v>
       </c>
-      <c r="C29" s="17" t="s">
-        <v>43</v>
+      <c r="C31" s="34" t="s">
+        <v>25</v>
       </c>
-      <c r="D29" s="8">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="8">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="8">
+      <c r="D31" s="7">
         <v>201</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="8">
+      <c r="B32" s="86"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="7">
         <v>400</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="17" t="s">
-        <v>34</v>
+      <c r="B33" s="86" t="s">
+        <v>63</v>
       </c>
-      <c r="C33" s="17" t="s">
-        <v>45</v>
+      <c r="C33" s="34" t="s">
+        <v>26</v>
       </c>
-      <c r="D33" s="8">
-        <v>200</v>
+      <c r="D33" s="7">
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="8">
-        <v>404</v>
+      <c r="B34" s="86"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="7">
+        <v>400</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="17" t="s">
-        <v>35</v>
+      <c r="B35" s="86" t="s">
+        <v>17</v>
       </c>
-      <c r="C35" s="17" t="s">
-        <v>46</v>
+      <c r="C35" s="34" t="s">
+        <v>27</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="7">
         <v>200</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="8">
+      <c r="B36" s="86"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="7">
         <v>404</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="17" t="s">
-        <v>36</v>
+      <c r="B37" s="86" t="s">
+        <v>82</v>
       </c>
-      <c r="C37" s="17" t="s">
-        <v>47</v>
+      <c r="C37" s="34" t="s">
+        <v>83</v>
       </c>
-      <c r="D37" s="8">
-        <v>200</v>
+      <c r="D37" s="7">
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="8">
-        <v>404</v>
+      <c r="B38" s="86"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="7">
+        <v>400</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="17" t="s">
-        <v>37</v>
+      <c r="B39" s="86" t="s">
+        <v>18</v>
       </c>
-      <c r="C39" s="17" t="s">
-        <v>48</v>
+      <c r="C39" s="34" t="s">
+        <v>28</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="7">
         <v>201</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="8">
+      <c r="B40" s="86"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="7">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="86"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="7">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="86"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="7">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="7">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="7">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="7">
         <v>400</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="42">
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/04_documentation/Mockup.xlsx
+++ b/04_documentation/Mockup.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
   <si>
     <t>Elementos</t>
   </si>
@@ -158,9 +158,6 @@
 Login</t>
   </si>
   <si>
-    <t>usuario, contraseña</t>
-  </si>
-  <si>
     <t>Modelo y marca de todos los coches disponibles</t>
   </si>
   <si>
@@ -179,10 +176,6 @@
   <si>
     <t>Formulario 
 alta vehículo</t>
-  </si>
-  <si>
-    <t>matricula, modelo, marca, km, precio
-        , foto, cilindrada, combustible, alquiler, oferta</t>
   </si>
   <si>
     <t>Formulario 
@@ -295,12 +288,21 @@
   <si>
     <t>Registrar cliente</t>
   </si>
+  <si>
+    <t>Usuario, contraseña</t>
+  </si>
+  <si>
+    <t>matricula, modelo, marca, km, precio, foto, cilindrada, combustible, alquiler, oferta</t>
+  </si>
+  <si>
+    <t>DNI,nombre, apellidos, telefono, cpostal, ciudad</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,22 +358,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -386,13 +372,6 @@
     </font>
     <font>
       <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -583,20 +562,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -605,47 +572,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -663,8 +606,56 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -672,170 +663,117 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -28146,8 +28084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C38:AL42"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB39" sqref="AB39:AE42"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28156,220 +28094,221 @@
   </cols>
   <sheetData>
     <row r="38" spans="3:38" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="J38" s="14" t="s">
+      <c r="J38" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="14"/>
-      <c r="T38" s="14"/>
-      <c r="V38" s="13" t="s">
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="V38" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AB38" s="13" t="s">
+      <c r="AB38" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AH38" s="13" t="s">
+      <c r="AH38" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="39" spans="3:38" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="27" t="s">
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="9" t="s">
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="V39" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W39" s="40"/>
+      <c r="X39" s="40"/>
+      <c r="Y39" s="41"/>
+      <c r="Z39" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA39" s="13"/>
+      <c r="AB39" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC39" s="52"/>
+      <c r="AD39" s="52"/>
+      <c r="AE39" s="53"/>
+      <c r="AF39" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG39" s="13"/>
+      <c r="AH39" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI39" s="40"/>
+      <c r="AJ39" s="40"/>
+      <c r="AK39" s="40"/>
+      <c r="AL39" s="41"/>
+    </row>
+    <row r="40" spans="3:38" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="9"/>
-      <c r="S39" s="9"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="15" t="s">
-        <v>39</v>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="21"/>
+      <c r="V40" s="42"/>
+      <c r="W40" s="43"/>
+      <c r="X40" s="43"/>
+      <c r="Y40" s="44"/>
+      <c r="Z40" s="13"/>
+      <c r="AA40" s="13"/>
+      <c r="AB40" s="54"/>
+      <c r="AC40" s="55"/>
+      <c r="AD40" s="55"/>
+      <c r="AE40" s="56"/>
+      <c r="AF40" s="13"/>
+      <c r="AG40" s="13"/>
+      <c r="AH40" s="42"/>
+      <c r="AI40" s="43"/>
+      <c r="AJ40" s="43"/>
+      <c r="AK40" s="43"/>
+      <c r="AL40" s="44"/>
+    </row>
+    <row r="41" spans="3:38" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="16" t="s">
+        <v>1</v>
       </c>
-      <c r="V39" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="W39" s="19"/>
-      <c r="X39" s="19"/>
-      <c r="Y39" s="19"/>
-      <c r="Z39" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA39" s="18"/>
-      <c r="AB39" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC39" s="20"/>
-      <c r="AD39" s="20"/>
-      <c r="AE39" s="21"/>
-      <c r="AF39" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG39" s="18"/>
-      <c r="AH39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI39" s="1"/>
-      <c r="AJ39" s="1"/>
-      <c r="AK39" s="1"/>
-      <c r="AL39" s="2"/>
-    </row>
-    <row r="40" spans="3:38" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="9" t="s">
+      <c r="H41" s="17"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="16"/>
-      <c r="V40" s="19"/>
-      <c r="W40" s="19"/>
-      <c r="X40" s="19"/>
-      <c r="Y40" s="19"/>
-      <c r="Z40" s="18"/>
-      <c r="AA40" s="18"/>
-      <c r="AB40" s="16"/>
-      <c r="AC40" s="22"/>
-      <c r="AD40" s="22"/>
-      <c r="AE40" s="23"/>
-      <c r="AF40" s="18"/>
-      <c r="AG40" s="18"/>
-      <c r="AH40" s="11"/>
-      <c r="AI40" s="11"/>
-      <c r="AJ40" s="11"/>
-      <c r="AK40" s="11"/>
-      <c r="AL40" s="12"/>
-    </row>
-    <row r="41" spans="3:38" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="H41" s="29"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="9"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="10"/>
-      <c r="U41" s="16"/>
-      <c r="V41" s="19"/>
-      <c r="W41" s="19"/>
-      <c r="X41" s="19"/>
-      <c r="Y41" s="19"/>
-      <c r="Z41" s="18"/>
-      <c r="AA41" s="18"/>
-      <c r="AB41" s="16"/>
-      <c r="AC41" s="22"/>
-      <c r="AD41" s="22"/>
-      <c r="AE41" s="23"/>
-      <c r="AF41" s="18"/>
-      <c r="AG41" s="18"/>
-      <c r="AH41" s="11"/>
-      <c r="AI41" s="11"/>
-      <c r="AJ41" s="11"/>
-      <c r="AK41" s="11"/>
-      <c r="AL41" s="12"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="21"/>
+      <c r="V41" s="42"/>
+      <c r="W41" s="43"/>
+      <c r="X41" s="43"/>
+      <c r="Y41" s="44"/>
+      <c r="Z41" s="13"/>
+      <c r="AA41" s="13"/>
+      <c r="AB41" s="54"/>
+      <c r="AC41" s="55"/>
+      <c r="AD41" s="55"/>
+      <c r="AE41" s="56"/>
+      <c r="AF41" s="13"/>
+      <c r="AG41" s="13"/>
+      <c r="AH41" s="42"/>
+      <c r="AI41" s="43"/>
+      <c r="AJ41" s="43"/>
+      <c r="AK41" s="43"/>
+      <c r="AL41" s="44"/>
     </row>
     <row r="42" spans="3:38" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="9"/>
-      <c r="R42" s="9"/>
-      <c r="S42" s="9"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="17"/>
-      <c r="V42" s="19"/>
-      <c r="W42" s="19"/>
-      <c r="X42" s="19"/>
-      <c r="Y42" s="19"/>
-      <c r="Z42" s="18"/>
-      <c r="AA42" s="18"/>
-      <c r="AB42" s="17"/>
-      <c r="AC42" s="24"/>
-      <c r="AD42" s="24"/>
-      <c r="AE42" s="25"/>
-      <c r="AF42" s="18"/>
-      <c r="AG42" s="18"/>
-      <c r="AH42" s="3"/>
-      <c r="AI42" s="3"/>
-      <c r="AJ42" s="3"/>
-      <c r="AK42" s="3"/>
-      <c r="AL42" s="4"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="22"/>
+      <c r="V42" s="45"/>
+      <c r="W42" s="46"/>
+      <c r="X42" s="46"/>
+      <c r="Y42" s="47"/>
+      <c r="Z42" s="13"/>
+      <c r="AA42" s="13"/>
+      <c r="AB42" s="57"/>
+      <c r="AC42" s="58"/>
+      <c r="AD42" s="58"/>
+      <c r="AE42" s="59"/>
+      <c r="AF42" s="13"/>
+      <c r="AG42" s="13"/>
+      <c r="AH42" s="45"/>
+      <c r="AI42" s="46"/>
+      <c r="AJ42" s="46"/>
+      <c r="AK42" s="46"/>
+      <c r="AL42" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="AH39:AL42"/>
+    <mergeCell ref="J38:T38"/>
+    <mergeCell ref="U39:U42"/>
+    <mergeCell ref="V39:Y42"/>
+    <mergeCell ref="Z39:AA42"/>
+    <mergeCell ref="AB39:AE42"/>
     <mergeCell ref="AF39:AG42"/>
     <mergeCell ref="C39:F42"/>
     <mergeCell ref="G39:I39"/>
     <mergeCell ref="G40:I40"/>
     <mergeCell ref="G41:I41"/>
     <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J38:T38"/>
-    <mergeCell ref="U39:U42"/>
-    <mergeCell ref="V39:Y42"/>
-    <mergeCell ref="Z39:AA42"/>
-    <mergeCell ref="AB39:AE42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -28381,12 +28320,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C36:AS89"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView showGridLines="0" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
     <col min="40" max="40" width="14.85546875" customWidth="1"/>
   </cols>
@@ -28397,378 +28337,378 @@
       </c>
     </row>
     <row r="37" spans="3:17" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="35" t="s">
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G37" s="35"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="19" t="s">
+      <c r="G37" s="28"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23"/>
     </row>
     <row r="38" spans="3:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="36" t="s">
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" s="24"/>
+      <c r="H38" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="G38" s="36"/>
-      <c r="H38" s="37" t="s">
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="23"/>
+      <c r="Q38" s="23"/>
+    </row>
+    <row r="74" spans="3:45" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C74" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" s="26"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-    </row>
-    <row r="74" spans="3:45" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C74" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D74" s="31"/>
-      <c r="E74" s="41"/>
-      <c r="F74" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="G74" s="40"/>
-      <c r="H74" s="51" t="s">
-        <v>51</v>
+      <c r="G74" s="25"/>
+      <c r="H74" s="39" t="s">
+        <v>83</v>
       </c>
       <c r="I74" s="52"/>
       <c r="J74" s="53"/>
       <c r="K74" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="L74" s="62"/>
+      <c r="M74" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="N74" s="75"/>
+      <c r="O74" s="75"/>
+      <c r="P74" s="75"/>
+      <c r="Q74" s="75"/>
+      <c r="R74" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="L74" s="62"/>
-      <c r="M74" s="68" t="s">
-        <v>51</v>
+      <c r="S74" s="25"/>
+      <c r="T74" s="74" t="s">
+        <v>59</v>
       </c>
-      <c r="N74" s="69"/>
-      <c r="O74" s="69"/>
-      <c r="P74" s="69"/>
-      <c r="Q74" s="69"/>
-      <c r="R74" s="70" t="s">
-        <v>56</v>
+      <c r="U74" s="75"/>
+      <c r="V74" s="75"/>
+      <c r="W74" s="75"/>
+      <c r="X74" s="75"/>
+      <c r="Y74" s="67" t="s">
+        <v>58</v>
       </c>
-      <c r="S74" s="70"/>
-      <c r="T74" s="68" t="s">
-        <v>61</v>
+      <c r="Z74" s="68"/>
+      <c r="AA74" s="39" t="s">
+        <v>83</v>
       </c>
-      <c r="U74" s="69"/>
-      <c r="V74" s="69"/>
-      <c r="W74" s="69"/>
-      <c r="X74" s="69"/>
-      <c r="Y74" s="72" t="s">
+      <c r="AB74" s="52"/>
+      <c r="AC74" s="52"/>
+      <c r="AD74" s="52"/>
+      <c r="AE74" s="53"/>
+      <c r="AF74" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="Z74" s="71"/>
-      <c r="AA74" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB74" s="78"/>
-      <c r="AC74" s="78"/>
-      <c r="AD74" s="78"/>
-      <c r="AE74" s="79"/>
-      <c r="AF74" s="72" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG74" s="71"/>
-      <c r="AH74" s="77" t="s">
+      <c r="AG74" s="68"/>
+      <c r="AH74" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="AI74" s="78"/>
-      <c r="AJ74" s="78"/>
-      <c r="AK74" s="78"/>
-      <c r="AL74" s="79"/>
-      <c r="AM74" s="72" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN74" s="71"/>
-      <c r="AO74" s="77" t="s">
+      <c r="AI74" s="52"/>
+      <c r="AJ74" s="52"/>
+      <c r="AK74" s="52"/>
+      <c r="AL74" s="53"/>
+      <c r="AM74" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="AP74" s="78"/>
-      <c r="AQ74" s="78"/>
-      <c r="AR74" s="78"/>
-      <c r="AS74" s="79"/>
+      <c r="AN74" s="69"/>
+      <c r="AO74" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP74" s="52"/>
+      <c r="AQ74" s="52"/>
+      <c r="AR74" s="52"/>
+      <c r="AS74" s="53"/>
     </row>
     <row r="75" spans="3:45" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C75" s="31"/>
-      <c r="D75" s="31"/>
-      <c r="E75" s="41"/>
-      <c r="F75" s="40"/>
-      <c r="G75" s="40"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
       <c r="H75" s="54"/>
       <c r="I75" s="55"/>
       <c r="J75" s="56"/>
       <c r="K75" s="63"/>
       <c r="L75" s="64"/>
-      <c r="M75" s="69"/>
-      <c r="N75" s="69"/>
-      <c r="O75" s="69"/>
-      <c r="P75" s="69"/>
-      <c r="Q75" s="69"/>
-      <c r="R75" s="70"/>
-      <c r="S75" s="70"/>
-      <c r="T75" s="69"/>
-      <c r="U75" s="69"/>
-      <c r="V75" s="69"/>
-      <c r="W75" s="69"/>
-      <c r="X75" s="69"/>
-      <c r="Y75" s="71"/>
-      <c r="Z75" s="71"/>
-      <c r="AA75" s="80"/>
-      <c r="AB75" s="81"/>
-      <c r="AC75" s="81"/>
-      <c r="AD75" s="81"/>
-      <c r="AE75" s="82"/>
-      <c r="AF75" s="71"/>
-      <c r="AG75" s="71"/>
-      <c r="AH75" s="80"/>
-      <c r="AI75" s="81"/>
-      <c r="AJ75" s="81"/>
-      <c r="AK75" s="81"/>
-      <c r="AL75" s="82"/>
-      <c r="AM75" s="71"/>
+      <c r="M75" s="75"/>
+      <c r="N75" s="75"/>
+      <c r="O75" s="75"/>
+      <c r="P75" s="75"/>
+      <c r="Q75" s="75"/>
+      <c r="R75" s="25"/>
+      <c r="S75" s="25"/>
+      <c r="T75" s="75"/>
+      <c r="U75" s="75"/>
+      <c r="V75" s="75"/>
+      <c r="W75" s="75"/>
+      <c r="X75" s="75"/>
+      <c r="Y75" s="68"/>
+      <c r="Z75" s="68"/>
+      <c r="AA75" s="54"/>
+      <c r="AB75" s="55"/>
+      <c r="AC75" s="55"/>
+      <c r="AD75" s="55"/>
+      <c r="AE75" s="56"/>
+      <c r="AF75" s="68"/>
+      <c r="AG75" s="68"/>
+      <c r="AH75" s="54"/>
+      <c r="AI75" s="55"/>
+      <c r="AJ75" s="55"/>
+      <c r="AK75" s="55"/>
+      <c r="AL75" s="56"/>
+      <c r="AM75" s="70"/>
       <c r="AN75" s="71"/>
-      <c r="AO75" s="80"/>
-      <c r="AP75" s="81"/>
-      <c r="AQ75" s="81"/>
-      <c r="AR75" s="81"/>
-      <c r="AS75" s="82"/>
+      <c r="AO75" s="54"/>
+      <c r="AP75" s="55"/>
+      <c r="AQ75" s="55"/>
+      <c r="AR75" s="55"/>
+      <c r="AS75" s="56"/>
     </row>
     <row r="76" spans="3:45" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F76" s="40"/>
-      <c r="G76" s="40"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
       <c r="H76" s="57"/>
       <c r="I76" s="58"/>
       <c r="J76" s="59"/>
       <c r="K76" s="65"/>
       <c r="L76" s="66"/>
-      <c r="M76" s="69"/>
-      <c r="N76" s="69"/>
-      <c r="O76" s="69"/>
-      <c r="P76" s="69"/>
-      <c r="Q76" s="69"/>
-      <c r="R76" s="70"/>
-      <c r="S76" s="70"/>
-      <c r="T76" s="69"/>
-      <c r="U76" s="69"/>
-      <c r="V76" s="69"/>
-      <c r="W76" s="69"/>
-      <c r="X76" s="69"/>
-      <c r="Y76" s="71"/>
-      <c r="Z76" s="71"/>
-      <c r="AA76" s="83"/>
-      <c r="AB76" s="84"/>
-      <c r="AC76" s="84"/>
-      <c r="AD76" s="84"/>
-      <c r="AE76" s="85"/>
-      <c r="AF76" s="71"/>
-      <c r="AG76" s="71"/>
-      <c r="AH76" s="83"/>
-      <c r="AI76" s="84"/>
-      <c r="AJ76" s="84"/>
-      <c r="AK76" s="84"/>
-      <c r="AL76" s="85"/>
-      <c r="AM76" s="71"/>
-      <c r="AN76" s="71"/>
-      <c r="AO76" s="83"/>
-      <c r="AP76" s="84"/>
-      <c r="AQ76" s="84"/>
-      <c r="AR76" s="84"/>
-      <c r="AS76" s="85"/>
+      <c r="M76" s="75"/>
+      <c r="N76" s="75"/>
+      <c r="O76" s="75"/>
+      <c r="P76" s="75"/>
+      <c r="Q76" s="75"/>
+      <c r="R76" s="25"/>
+      <c r="S76" s="25"/>
+      <c r="T76" s="75"/>
+      <c r="U76" s="75"/>
+      <c r="V76" s="75"/>
+      <c r="W76" s="75"/>
+      <c r="X76" s="75"/>
+      <c r="Y76" s="68"/>
+      <c r="Z76" s="68"/>
+      <c r="AA76" s="57"/>
+      <c r="AB76" s="58"/>
+      <c r="AC76" s="58"/>
+      <c r="AD76" s="58"/>
+      <c r="AE76" s="59"/>
+      <c r="AF76" s="68"/>
+      <c r="AG76" s="68"/>
+      <c r="AH76" s="57"/>
+      <c r="AI76" s="58"/>
+      <c r="AJ76" s="58"/>
+      <c r="AK76" s="58"/>
+      <c r="AL76" s="59"/>
+      <c r="AM76" s="72"/>
+      <c r="AN76" s="73"/>
+      <c r="AO76" s="57"/>
+      <c r="AP76" s="58"/>
+      <c r="AQ76" s="58"/>
+      <c r="AR76" s="58"/>
+      <c r="AS76" s="59"/>
     </row>
     <row r="77" spans="3:45" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F77" s="40" t="s">
-        <v>52</v>
+      <c r="F77" s="48" t="s">
+        <v>50</v>
       </c>
-      <c r="G77" s="40"/>
-      <c r="H77" s="60" t="s">
+      <c r="G77" s="49"/>
+      <c r="H77" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="I77" s="52"/>
+      <c r="J77" s="53"/>
+      <c r="K77" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="I77" s="60"/>
-      <c r="J77" s="67"/>
-      <c r="K77" s="36" t="s">
+      <c r="L77" s="67"/>
+      <c r="M77" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="N77" s="75"/>
+      <c r="O77" s="75"/>
+      <c r="P77" s="75"/>
+      <c r="Q77" s="75"/>
+      <c r="R77" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="L77" s="36"/>
-      <c r="M77" s="68" t="s">
-        <v>53</v>
+      <c r="S77" s="25"/>
+      <c r="T77" s="74" t="s">
+        <v>56</v>
       </c>
-      <c r="N77" s="69"/>
-      <c r="O77" s="69"/>
-      <c r="P77" s="69"/>
-      <c r="Q77" s="69"/>
-      <c r="R77" s="70" t="s">
+      <c r="U77" s="75"/>
+      <c r="V77" s="75"/>
+      <c r="W77" s="75"/>
+      <c r="X77" s="75"/>
+      <c r="Y77" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="S77" s="70"/>
-      <c r="T77" s="68" t="s">
-        <v>58</v>
+      <c r="Z77" s="67"/>
+      <c r="AA77" s="39" t="s">
+        <v>84</v>
       </c>
-      <c r="U77" s="69"/>
-      <c r="V77" s="69"/>
-      <c r="W77" s="69"/>
-      <c r="X77" s="69"/>
-      <c r="Y77" s="36" t="s">
-        <v>59</v>
+      <c r="AB77" s="52"/>
+      <c r="AC77" s="52"/>
+      <c r="AD77" s="52"/>
+      <c r="AE77" s="53"/>
+      <c r="AM77" s="48" t="s">
+        <v>67</v>
       </c>
-      <c r="Z77" s="36"/>
-      <c r="AA77" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB77" s="44"/>
-      <c r="AC77" s="44"/>
-      <c r="AD77" s="44"/>
-      <c r="AE77" s="73"/>
-      <c r="AM77" s="72" t="s">
+      <c r="AN77" s="69"/>
+      <c r="AO77" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="AN77" s="71"/>
-      <c r="AO77" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP77" s="78"/>
-      <c r="AQ77" s="78"/>
-      <c r="AR77" s="78"/>
-      <c r="AS77" s="79"/>
+      <c r="AP77" s="52"/>
+      <c r="AQ77" s="52"/>
+      <c r="AR77" s="52"/>
+      <c r="AS77" s="53"/>
     </row>
     <row r="78" spans="3:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F78" s="45"/>
-      <c r="G78" s="46"/>
-      <c r="H78" s="49"/>
-      <c r="I78" s="50"/>
-      <c r="J78" s="50"/>
-      <c r="K78" s="36"/>
-      <c r="L78" s="36"/>
-      <c r="M78" s="69"/>
-      <c r="N78" s="69"/>
-      <c r="O78" s="69"/>
-      <c r="P78" s="69"/>
-      <c r="Q78" s="69"/>
-      <c r="R78" s="70"/>
-      <c r="S78" s="70"/>
-      <c r="T78" s="69"/>
-      <c r="U78" s="69"/>
-      <c r="V78" s="69"/>
-      <c r="W78" s="69"/>
-      <c r="X78" s="69"/>
-      <c r="Y78" s="36"/>
-      <c r="Z78" s="36"/>
-      <c r="AA78" s="74"/>
-      <c r="AB78" s="75"/>
-      <c r="AC78" s="75"/>
-      <c r="AD78" s="75"/>
-      <c r="AE78" s="76"/>
-      <c r="AM78" s="71"/>
+      <c r="F78" s="50"/>
+      <c r="G78" s="51"/>
+      <c r="H78" s="57"/>
+      <c r="I78" s="58"/>
+      <c r="J78" s="59"/>
+      <c r="K78" s="67"/>
+      <c r="L78" s="67"/>
+      <c r="M78" s="75"/>
+      <c r="N78" s="75"/>
+      <c r="O78" s="75"/>
+      <c r="P78" s="75"/>
+      <c r="Q78" s="75"/>
+      <c r="R78" s="25"/>
+      <c r="S78" s="25"/>
+      <c r="T78" s="75"/>
+      <c r="U78" s="75"/>
+      <c r="V78" s="75"/>
+      <c r="W78" s="75"/>
+      <c r="X78" s="75"/>
+      <c r="Y78" s="67"/>
+      <c r="Z78" s="67"/>
+      <c r="AA78" s="57"/>
+      <c r="AB78" s="58"/>
+      <c r="AC78" s="58"/>
+      <c r="AD78" s="58"/>
+      <c r="AE78" s="59"/>
+      <c r="AM78" s="70"/>
       <c r="AN78" s="71"/>
-      <c r="AO78" s="80"/>
-      <c r="AP78" s="81"/>
-      <c r="AQ78" s="81"/>
-      <c r="AR78" s="81"/>
-      <c r="AS78" s="82"/>
+      <c r="AO78" s="54"/>
+      <c r="AP78" s="55"/>
+      <c r="AQ78" s="55"/>
+      <c r="AR78" s="55"/>
+      <c r="AS78" s="56"/>
     </row>
     <row r="79" spans="3:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F79" s="47"/>
-      <c r="G79" s="48"/>
-      <c r="H79" s="49"/>
-      <c r="I79" s="50"/>
-      <c r="J79" s="50"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
       <c r="K79" t="s">
         <v>5</v>
       </c>
-      <c r="R79" s="70"/>
-      <c r="S79" s="70"/>
-      <c r="AM79" s="71"/>
-      <c r="AN79" s="71"/>
-      <c r="AO79" s="83"/>
-      <c r="AP79" s="84"/>
-      <c r="AQ79" s="84"/>
-      <c r="AR79" s="84"/>
-      <c r="AS79" s="85"/>
+      <c r="R79" s="25"/>
+      <c r="S79" s="25"/>
+      <c r="AM79" s="72"/>
+      <c r="AN79" s="73"/>
+      <c r="AO79" s="57"/>
+      <c r="AP79" s="58"/>
+      <c r="AQ79" s="58"/>
+      <c r="AR79" s="58"/>
+      <c r="AS79" s="59"/>
     </row>
     <row r="80" spans="3:45" x14ac:dyDescent="0.25">
-      <c r="AQ80" s="42"/>
+      <c r="AQ80" s="8"/>
     </row>
     <row r="81" spans="8:43" x14ac:dyDescent="0.25">
-      <c r="AQ81" s="42"/>
+      <c r="AQ81" s="8"/>
     </row>
     <row r="82" spans="8:43" x14ac:dyDescent="0.25">
-      <c r="AQ82" s="42"/>
+      <c r="AQ82" s="8"/>
     </row>
     <row r="83" spans="8:43" x14ac:dyDescent="0.25">
-      <c r="AQ83" s="42"/>
+      <c r="AQ83" s="8"/>
     </row>
     <row r="84" spans="8:43" x14ac:dyDescent="0.25">
-      <c r="H84" s="42"/>
-      <c r="AQ84" s="42"/>
+      <c r="H84" s="8"/>
+      <c r="AQ84" s="8"/>
     </row>
     <row r="85" spans="8:43" x14ac:dyDescent="0.25">
-      <c r="H85" s="42"/>
-      <c r="AQ85" s="42"/>
+      <c r="H85" s="8"/>
+      <c r="AQ85" s="8"/>
     </row>
     <row r="86" spans="8:43" x14ac:dyDescent="0.25">
-      <c r="H86" s="42"/>
+      <c r="H86" s="8"/>
     </row>
     <row r="87" spans="8:43" x14ac:dyDescent="0.25">
-      <c r="H87" s="42"/>
+      <c r="H87" s="8"/>
     </row>
     <row r="88" spans="8:43" x14ac:dyDescent="0.25">
-      <c r="H88" s="42"/>
+      <c r="H88" s="8"/>
     </row>
     <row r="89" spans="8:43" x14ac:dyDescent="0.25">
-      <c r="H89" s="42"/>
+      <c r="H89" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="L37:Q38"/>
+    <mergeCell ref="C37:E38"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="C74:E75"/>
+    <mergeCell ref="H74:J76"/>
+    <mergeCell ref="F74:G76"/>
+    <mergeCell ref="H77:J78"/>
+    <mergeCell ref="F77:G78"/>
+    <mergeCell ref="K77:L78"/>
+    <mergeCell ref="M77:Q78"/>
+    <mergeCell ref="R74:S76"/>
+    <mergeCell ref="R77:S79"/>
+    <mergeCell ref="T74:X76"/>
+    <mergeCell ref="T77:X78"/>
+    <mergeCell ref="K74:L76"/>
+    <mergeCell ref="Y77:Z78"/>
+    <mergeCell ref="Y74:Z76"/>
+    <mergeCell ref="AA74:AE76"/>
+    <mergeCell ref="AA77:AE78"/>
+    <mergeCell ref="M74:Q76"/>
     <mergeCell ref="AF74:AG76"/>
     <mergeCell ref="AH74:AL76"/>
     <mergeCell ref="AM74:AN76"/>
     <mergeCell ref="AO74:AS76"/>
     <mergeCell ref="AM77:AN79"/>
     <mergeCell ref="AO77:AS79"/>
-    <mergeCell ref="Y77:Z78"/>
-    <mergeCell ref="Y74:Z76"/>
-    <mergeCell ref="AA74:AE76"/>
-    <mergeCell ref="AA77:AE78"/>
-    <mergeCell ref="M74:Q76"/>
-    <mergeCell ref="K77:L78"/>
-    <mergeCell ref="M77:Q78"/>
-    <mergeCell ref="R74:S76"/>
-    <mergeCell ref="R77:S79"/>
-    <mergeCell ref="T74:X76"/>
-    <mergeCell ref="T77:X78"/>
-    <mergeCell ref="C74:E75"/>
-    <mergeCell ref="H74:J76"/>
-    <mergeCell ref="F74:G76"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="K74:L76"/>
-    <mergeCell ref="L37:Q38"/>
-    <mergeCell ref="C37:E38"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:K38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -28795,8 +28735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28806,7 +28746,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
@@ -28819,82 +28759,82 @@
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="7">
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="3">
         <v>404</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="3">
         <v>201</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="33"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="7">
+      <c r="B8" s="37"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="3">
         <v>201</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="33"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="7">
+      <c r="B10" s="37"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="33"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="7">
+      <c r="B11" s="37"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="3">
         <v>401</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
+      <c r="B12" s="1"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D14" t="s">
@@ -28902,346 +28842,339 @@
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="34" t="s">
-        <v>72</v>
+      <c r="B15" s="33" t="s">
+        <v>70</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="3">
         <v>201</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="7">
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="34" t="s">
-        <v>73</v>
+      <c r="B17" s="33" t="s">
+        <v>71</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="3">
         <v>201</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="7">
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="7">
+      <c r="D19" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="34"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="7">
+      <c r="B20" s="33"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="3">
         <v>404</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="87" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="7">
+      <c r="D21" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="34"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="7">
+      <c r="B22" s="33"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="3">
         <v>404</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="87" t="s">
+      <c r="B23" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="87" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="7">
+      <c r="D23" s="3">
         <v>201</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="7">
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="87" t="s">
+      <c r="B25" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="87" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="7">
+      <c r="D25" s="3">
         <v>201</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="88"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="7">
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="86" t="s">
-        <v>67</v>
+      <c r="B27" s="32" t="s">
+        <v>65</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="3">
         <v>201</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="86"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="7">
+      <c r="B28" s="32"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="86" t="s">
-        <v>65</v>
+      <c r="B29" s="32" t="s">
+        <v>63</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="86"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="7">
+      <c r="B30" s="32"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="3">
         <v>404</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="86" t="s">
-        <v>64</v>
+      <c r="B31" s="32" t="s">
+        <v>62</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="3">
         <v>201</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="86"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="7">
+      <c r="B32" s="32"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="86" t="s">
-        <v>63</v>
+      <c r="B33" s="32" t="s">
+        <v>61</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="3">
         <v>201</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="86"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="7">
+      <c r="B34" s="32"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="86" t="s">
+      <c r="B35" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="86"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="7">
+      <c r="B36" s="32"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="3">
         <v>404</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="86" t="s">
-        <v>82</v>
+      <c r="B37" s="32" t="s">
+        <v>80</v>
       </c>
-      <c r="C37" s="34" t="s">
-        <v>83</v>
+      <c r="C37" s="33" t="s">
+        <v>81</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="3">
         <v>201</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="86"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="7">
+      <c r="B38" s="32"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="86" t="s">
+      <c r="B39" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="3">
         <v>201</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="86"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="7">
+      <c r="B40" s="32"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="34" t="s">
+      <c r="C41" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="3">
         <v>201</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="7">
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="86" t="s">
-        <v>66</v>
+      <c r="B43" s="32" t="s">
+        <v>64</v>
       </c>
-      <c r="C43" s="34" t="s">
+      <c r="C43" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="86"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="7">
+      <c r="B44" s="32"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="3">
         <v>404</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="86" t="s">
+      <c r="B45" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="34" t="s">
+      <c r="C45" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="86"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="7">
+      <c r="B46" s="32"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="3">
         <v>404</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="34" t="s">
+      <c r="C47" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="7">
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="3">
         <v>404</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="34" t="s">
+      <c r="B49" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="34" t="s">
+      <c r="C49" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="3">
         <v>201</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="7">
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="3">
         <v>400</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C5:C6"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="C45:C46"/>
@@ -29258,17 +29191,24 @@
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/04_documentation/Mockup.xlsx
+++ b/04_documentation/Mockup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="18915" windowHeight="11835" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="18915" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="clienteEscritorio" sheetId="4" r:id="rId1"/>
@@ -588,84 +588,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -691,16 +616,22 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -727,7 +658,67 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -749,9 +740,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -769,11 +757,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -28084,8 +28084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C38:AL42"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z36" sqref="Z36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28094,19 +28094,19 @@
   </cols>
   <sheetData>
     <row r="38" spans="3:38" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="J38" s="19" t="s">
+      <c r="J38" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="19"/>
-      <c r="T38" s="19"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="23"/>
+      <c r="Q38" s="23"/>
+      <c r="R38" s="23"/>
+      <c r="S38" s="23"/>
+      <c r="T38" s="23"/>
       <c r="V38" s="7" t="s">
         <v>38</v>
       </c>
@@ -28118,18 +28118,18 @@
       </c>
     </row>
     <row r="39" spans="3:38" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="15" t="s">
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="38" t="s">
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="13" t="s">
         <v>44</v>
       </c>
       <c r="K39" s="5"/>
@@ -28142,48 +28142,48 @@
       <c r="R39" s="5"/>
       <c r="S39" s="5"/>
       <c r="T39" s="6"/>
-      <c r="U39" s="20" t="s">
+      <c r="U39" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="V39" s="39" t="s">
+      <c r="V39" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="W39" s="40"/>
-      <c r="X39" s="40"/>
-      <c r="Y39" s="41"/>
-      <c r="Z39" s="13" t="s">
+      <c r="W39" s="15"/>
+      <c r="X39" s="15"/>
+      <c r="Y39" s="16"/>
+      <c r="Z39" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="AA39" s="13"/>
-      <c r="AB39" s="39" t="s">
+      <c r="AA39" s="28"/>
+      <c r="AB39" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="AC39" s="52"/>
-      <c r="AD39" s="52"/>
-      <c r="AE39" s="53"/>
-      <c r="AF39" s="13" t="s">
+      <c r="AC39" s="29"/>
+      <c r="AD39" s="29"/>
+      <c r="AE39" s="30"/>
+      <c r="AF39" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="AG39" s="13"/>
-      <c r="AH39" s="60" t="s">
+      <c r="AG39" s="28"/>
+      <c r="AH39" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="AI39" s="40"/>
-      <c r="AJ39" s="40"/>
-      <c r="AK39" s="40"/>
-      <c r="AL39" s="41"/>
+      <c r="AI39" s="15"/>
+      <c r="AJ39" s="15"/>
+      <c r="AK39" s="15"/>
+      <c r="AL39" s="16"/>
     </row>
     <row r="40" spans="3:38" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="15" t="s">
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="38" t="s">
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="13" t="s">
         <v>45</v>
       </c>
       <c r="K40" s="5"/>
@@ -28196,36 +28196,36 @@
       <c r="R40" s="5"/>
       <c r="S40" s="5"/>
       <c r="T40" s="6"/>
-      <c r="U40" s="21"/>
-      <c r="V40" s="42"/>
-      <c r="W40" s="43"/>
-      <c r="X40" s="43"/>
-      <c r="Y40" s="44"/>
-      <c r="Z40" s="13"/>
-      <c r="AA40" s="13"/>
-      <c r="AB40" s="54"/>
-      <c r="AC40" s="55"/>
-      <c r="AD40" s="55"/>
-      <c r="AE40" s="56"/>
-      <c r="AF40" s="13"/>
-      <c r="AG40" s="13"/>
-      <c r="AH40" s="42"/>
-      <c r="AI40" s="43"/>
-      <c r="AJ40" s="43"/>
-      <c r="AK40" s="43"/>
-      <c r="AL40" s="44"/>
+      <c r="U40" s="25"/>
+      <c r="V40" s="17"/>
+      <c r="W40" s="18"/>
+      <c r="X40" s="18"/>
+      <c r="Y40" s="19"/>
+      <c r="Z40" s="28"/>
+      <c r="AA40" s="28"/>
+      <c r="AB40" s="31"/>
+      <c r="AC40" s="32"/>
+      <c r="AD40" s="32"/>
+      <c r="AE40" s="33"/>
+      <c r="AF40" s="28"/>
+      <c r="AG40" s="28"/>
+      <c r="AH40" s="17"/>
+      <c r="AI40" s="18"/>
+      <c r="AJ40" s="18"/>
+      <c r="AK40" s="18"/>
+      <c r="AL40" s="19"/>
     </row>
     <row r="41" spans="3:38" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="16" t="s">
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="H41" s="17"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="38" t="s">
+      <c r="H41" s="40"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="13" t="s">
         <v>46</v>
       </c>
       <c r="K41" s="5"/>
@@ -28238,33 +28238,33 @@
       <c r="R41" s="5"/>
       <c r="S41" s="5"/>
       <c r="T41" s="6"/>
-      <c r="U41" s="21"/>
-      <c r="V41" s="42"/>
-      <c r="W41" s="43"/>
-      <c r="X41" s="43"/>
-      <c r="Y41" s="44"/>
-      <c r="Z41" s="13"/>
-      <c r="AA41" s="13"/>
-      <c r="AB41" s="54"/>
-      <c r="AC41" s="55"/>
-      <c r="AD41" s="55"/>
-      <c r="AE41" s="56"/>
-      <c r="AF41" s="13"/>
-      <c r="AG41" s="13"/>
-      <c r="AH41" s="42"/>
-      <c r="AI41" s="43"/>
-      <c r="AJ41" s="43"/>
-      <c r="AK41" s="43"/>
-      <c r="AL41" s="44"/>
+      <c r="U41" s="25"/>
+      <c r="V41" s="17"/>
+      <c r="W41" s="18"/>
+      <c r="X41" s="18"/>
+      <c r="Y41" s="19"/>
+      <c r="Z41" s="28"/>
+      <c r="AA41" s="28"/>
+      <c r="AB41" s="31"/>
+      <c r="AC41" s="32"/>
+      <c r="AD41" s="32"/>
+      <c r="AE41" s="33"/>
+      <c r="AF41" s="28"/>
+      <c r="AG41" s="28"/>
+      <c r="AH41" s="17"/>
+      <c r="AI41" s="18"/>
+      <c r="AJ41" s="18"/>
+      <c r="AK41" s="18"/>
+      <c r="AL41" s="19"/>
     </row>
     <row r="42" spans="3:38" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
@@ -28276,27 +28276,32 @@
       <c r="R42" s="5"/>
       <c r="S42" s="5"/>
       <c r="T42" s="6"/>
-      <c r="U42" s="22"/>
-      <c r="V42" s="45"/>
-      <c r="W42" s="46"/>
-      <c r="X42" s="46"/>
-      <c r="Y42" s="47"/>
-      <c r="Z42" s="13"/>
-      <c r="AA42" s="13"/>
-      <c r="AB42" s="57"/>
-      <c r="AC42" s="58"/>
-      <c r="AD42" s="58"/>
-      <c r="AE42" s="59"/>
-      <c r="AF42" s="13"/>
-      <c r="AG42" s="13"/>
-      <c r="AH42" s="45"/>
-      <c r="AI42" s="46"/>
-      <c r="AJ42" s="46"/>
-      <c r="AK42" s="46"/>
-      <c r="AL42" s="47"/>
+      <c r="U42" s="26"/>
+      <c r="V42" s="20"/>
+      <c r="W42" s="21"/>
+      <c r="X42" s="21"/>
+      <c r="Y42" s="22"/>
+      <c r="Z42" s="28"/>
+      <c r="AA42" s="28"/>
+      <c r="AB42" s="34"/>
+      <c r="AC42" s="35"/>
+      <c r="AD42" s="35"/>
+      <c r="AE42" s="36"/>
+      <c r="AF42" s="28"/>
+      <c r="AG42" s="28"/>
+      <c r="AH42" s="20"/>
+      <c r="AI42" s="21"/>
+      <c r="AJ42" s="21"/>
+      <c r="AK42" s="21"/>
+      <c r="AL42" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C39:F42"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G42:I42"/>
     <mergeCell ref="AH39:AL42"/>
     <mergeCell ref="J38:T38"/>
     <mergeCell ref="U39:U42"/>
@@ -28304,11 +28309,6 @@
     <mergeCell ref="Z39:AA42"/>
     <mergeCell ref="AB39:AE42"/>
     <mergeCell ref="AF39:AG42"/>
-    <mergeCell ref="C39:F42"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G42:I42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -28337,296 +28337,296 @@
       </c>
     </row>
     <row r="37" spans="3:17" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="28" t="s">
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="G37" s="28"/>
+      <c r="G37" s="44"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="6"/>
-      <c r="L37" s="23" t="s">
+      <c r="L37" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="23"/>
-      <c r="Q37" s="23"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="42"/>
     </row>
     <row r="38" spans="3:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="24" t="s">
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="G38" s="24"/>
-      <c r="H38" s="29" t="s">
+      <c r="G38" s="45"/>
+      <c r="H38" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="23"/>
-      <c r="Q38" s="23"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="42"/>
     </row>
     <row r="74" spans="3:45" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C74" s="26" t="s">
+      <c r="C74" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D74" s="26"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="25" t="s">
+      <c r="D74" s="43"/>
+      <c r="E74" s="49"/>
+      <c r="F74" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="G74" s="25"/>
-      <c r="H74" s="39" t="s">
+      <c r="G74" s="50"/>
+      <c r="H74" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="I74" s="52"/>
-      <c r="J74" s="53"/>
-      <c r="K74" s="61" t="s">
+      <c r="I74" s="29"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="L74" s="62"/>
-      <c r="M74" s="74" t="s">
+      <c r="L74" s="59"/>
+      <c r="M74" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="N74" s="75"/>
-      <c r="O74" s="75"/>
-      <c r="P74" s="75"/>
-      <c r="Q74" s="75"/>
-      <c r="R74" s="25" t="s">
+      <c r="N74" s="57"/>
+      <c r="O74" s="57"/>
+      <c r="P74" s="57"/>
+      <c r="Q74" s="57"/>
+      <c r="R74" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="S74" s="25"/>
-      <c r="T74" s="74" t="s">
+      <c r="S74" s="50"/>
+      <c r="T74" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="U74" s="75"/>
-      <c r="V74" s="75"/>
-      <c r="W74" s="75"/>
-      <c r="X74" s="75"/>
-      <c r="Y74" s="67" t="s">
+      <c r="U74" s="57"/>
+      <c r="V74" s="57"/>
+      <c r="W74" s="57"/>
+      <c r="X74" s="57"/>
+      <c r="Y74" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="Z74" s="68"/>
-      <c r="AA74" s="39" t="s">
+      <c r="Z74" s="64"/>
+      <c r="AA74" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="AB74" s="52"/>
-      <c r="AC74" s="52"/>
-      <c r="AD74" s="52"/>
-      <c r="AE74" s="53"/>
-      <c r="AF74" s="67" t="s">
+      <c r="AB74" s="29"/>
+      <c r="AC74" s="29"/>
+      <c r="AD74" s="29"/>
+      <c r="AE74" s="30"/>
+      <c r="AF74" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="AG74" s="68"/>
-      <c r="AH74" s="39" t="s">
+      <c r="AG74" s="64"/>
+      <c r="AH74" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="AI74" s="52"/>
-      <c r="AJ74" s="52"/>
-      <c r="AK74" s="52"/>
-      <c r="AL74" s="53"/>
-      <c r="AM74" s="48" t="s">
+      <c r="AI74" s="29"/>
+      <c r="AJ74" s="29"/>
+      <c r="AK74" s="29"/>
+      <c r="AL74" s="30"/>
+      <c r="AM74" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="AN74" s="69"/>
-      <c r="AO74" s="39" t="s">
+      <c r="AN74" s="65"/>
+      <c r="AO74" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AP74" s="52"/>
-      <c r="AQ74" s="52"/>
-      <c r="AR74" s="52"/>
-      <c r="AS74" s="53"/>
+      <c r="AP74" s="29"/>
+      <c r="AQ74" s="29"/>
+      <c r="AR74" s="29"/>
+      <c r="AS74" s="30"/>
     </row>
     <row r="75" spans="3:45" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="54"/>
-      <c r="I75" s="55"/>
-      <c r="J75" s="56"/>
-      <c r="K75" s="63"/>
-      <c r="L75" s="64"/>
-      <c r="M75" s="75"/>
-      <c r="N75" s="75"/>
-      <c r="O75" s="75"/>
-      <c r="P75" s="75"/>
-      <c r="Q75" s="75"/>
-      <c r="R75" s="25"/>
-      <c r="S75" s="25"/>
-      <c r="T75" s="75"/>
-      <c r="U75" s="75"/>
-      <c r="V75" s="75"/>
-      <c r="W75" s="75"/>
-      <c r="X75" s="75"/>
-      <c r="Y75" s="68"/>
-      <c r="Z75" s="68"/>
-      <c r="AA75" s="54"/>
-      <c r="AB75" s="55"/>
-      <c r="AC75" s="55"/>
-      <c r="AD75" s="55"/>
-      <c r="AE75" s="56"/>
-      <c r="AF75" s="68"/>
-      <c r="AG75" s="68"/>
-      <c r="AH75" s="54"/>
-      <c r="AI75" s="55"/>
-      <c r="AJ75" s="55"/>
-      <c r="AK75" s="55"/>
-      <c r="AL75" s="56"/>
-      <c r="AM75" s="70"/>
-      <c r="AN75" s="71"/>
-      <c r="AO75" s="54"/>
-      <c r="AP75" s="55"/>
-      <c r="AQ75" s="55"/>
-      <c r="AR75" s="55"/>
-      <c r="AS75" s="56"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="50"/>
+      <c r="H75" s="31"/>
+      <c r="I75" s="32"/>
+      <c r="J75" s="33"/>
+      <c r="K75" s="60"/>
+      <c r="L75" s="61"/>
+      <c r="M75" s="57"/>
+      <c r="N75" s="57"/>
+      <c r="O75" s="57"/>
+      <c r="P75" s="57"/>
+      <c r="Q75" s="57"/>
+      <c r="R75" s="50"/>
+      <c r="S75" s="50"/>
+      <c r="T75" s="57"/>
+      <c r="U75" s="57"/>
+      <c r="V75" s="57"/>
+      <c r="W75" s="57"/>
+      <c r="X75" s="57"/>
+      <c r="Y75" s="64"/>
+      <c r="Z75" s="64"/>
+      <c r="AA75" s="31"/>
+      <c r="AB75" s="32"/>
+      <c r="AC75" s="32"/>
+      <c r="AD75" s="32"/>
+      <c r="AE75" s="33"/>
+      <c r="AF75" s="64"/>
+      <c r="AG75" s="64"/>
+      <c r="AH75" s="31"/>
+      <c r="AI75" s="32"/>
+      <c r="AJ75" s="32"/>
+      <c r="AK75" s="32"/>
+      <c r="AL75" s="33"/>
+      <c r="AM75" s="66"/>
+      <c r="AN75" s="67"/>
+      <c r="AO75" s="31"/>
+      <c r="AP75" s="32"/>
+      <c r="AQ75" s="32"/>
+      <c r="AR75" s="32"/>
+      <c r="AS75" s="33"/>
     </row>
     <row r="76" spans="3:45" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="57"/>
-      <c r="I76" s="58"/>
-      <c r="J76" s="59"/>
-      <c r="K76" s="65"/>
-      <c r="L76" s="66"/>
-      <c r="M76" s="75"/>
-      <c r="N76" s="75"/>
-      <c r="O76" s="75"/>
-      <c r="P76" s="75"/>
-      <c r="Q76" s="75"/>
-      <c r="R76" s="25"/>
-      <c r="S76" s="25"/>
-      <c r="T76" s="75"/>
-      <c r="U76" s="75"/>
-      <c r="V76" s="75"/>
-      <c r="W76" s="75"/>
-      <c r="X76" s="75"/>
-      <c r="Y76" s="68"/>
-      <c r="Z76" s="68"/>
-      <c r="AA76" s="57"/>
-      <c r="AB76" s="58"/>
-      <c r="AC76" s="58"/>
-      <c r="AD76" s="58"/>
-      <c r="AE76" s="59"/>
-      <c r="AF76" s="68"/>
-      <c r="AG76" s="68"/>
-      <c r="AH76" s="57"/>
-      <c r="AI76" s="58"/>
-      <c r="AJ76" s="58"/>
-      <c r="AK76" s="58"/>
-      <c r="AL76" s="59"/>
-      <c r="AM76" s="72"/>
-      <c r="AN76" s="73"/>
-      <c r="AO76" s="57"/>
-      <c r="AP76" s="58"/>
-      <c r="AQ76" s="58"/>
-      <c r="AR76" s="58"/>
-      <c r="AS76" s="59"/>
+      <c r="F76" s="50"/>
+      <c r="G76" s="50"/>
+      <c r="H76" s="34"/>
+      <c r="I76" s="35"/>
+      <c r="J76" s="36"/>
+      <c r="K76" s="62"/>
+      <c r="L76" s="63"/>
+      <c r="M76" s="57"/>
+      <c r="N76" s="57"/>
+      <c r="O76" s="57"/>
+      <c r="P76" s="57"/>
+      <c r="Q76" s="57"/>
+      <c r="R76" s="50"/>
+      <c r="S76" s="50"/>
+      <c r="T76" s="57"/>
+      <c r="U76" s="57"/>
+      <c r="V76" s="57"/>
+      <c r="W76" s="57"/>
+      <c r="X76" s="57"/>
+      <c r="Y76" s="64"/>
+      <c r="Z76" s="64"/>
+      <c r="AA76" s="34"/>
+      <c r="AB76" s="35"/>
+      <c r="AC76" s="35"/>
+      <c r="AD76" s="35"/>
+      <c r="AE76" s="36"/>
+      <c r="AF76" s="64"/>
+      <c r="AG76" s="64"/>
+      <c r="AH76" s="34"/>
+      <c r="AI76" s="35"/>
+      <c r="AJ76" s="35"/>
+      <c r="AK76" s="35"/>
+      <c r="AL76" s="36"/>
+      <c r="AM76" s="68"/>
+      <c r="AN76" s="69"/>
+      <c r="AO76" s="34"/>
+      <c r="AP76" s="35"/>
+      <c r="AQ76" s="35"/>
+      <c r="AR76" s="35"/>
+      <c r="AS76" s="36"/>
     </row>
     <row r="77" spans="3:45" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F77" s="48" t="s">
+      <c r="F77" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="G77" s="49"/>
-      <c r="H77" s="39" t="s">
+      <c r="G77" s="52"/>
+      <c r="H77" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="I77" s="52"/>
-      <c r="J77" s="53"/>
-      <c r="K77" s="67" t="s">
+      <c r="I77" s="29"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="L77" s="67"/>
-      <c r="M77" s="74" t="s">
+      <c r="L77" s="55"/>
+      <c r="M77" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="N77" s="75"/>
-      <c r="O77" s="75"/>
-      <c r="P77" s="75"/>
-      <c r="Q77" s="75"/>
-      <c r="R77" s="25" t="s">
+      <c r="N77" s="57"/>
+      <c r="O77" s="57"/>
+      <c r="P77" s="57"/>
+      <c r="Q77" s="57"/>
+      <c r="R77" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="S77" s="25"/>
-      <c r="T77" s="74" t="s">
+      <c r="S77" s="50"/>
+      <c r="T77" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="U77" s="75"/>
-      <c r="V77" s="75"/>
-      <c r="W77" s="75"/>
-      <c r="X77" s="75"/>
-      <c r="Y77" s="67" t="s">
+      <c r="U77" s="57"/>
+      <c r="V77" s="57"/>
+      <c r="W77" s="57"/>
+      <c r="X77" s="57"/>
+      <c r="Y77" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="Z77" s="67"/>
-      <c r="AA77" s="39" t="s">
+      <c r="Z77" s="55"/>
+      <c r="AA77" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="AB77" s="52"/>
-      <c r="AC77" s="52"/>
-      <c r="AD77" s="52"/>
-      <c r="AE77" s="53"/>
-      <c r="AM77" s="48" t="s">
+      <c r="AB77" s="29"/>
+      <c r="AC77" s="29"/>
+      <c r="AD77" s="29"/>
+      <c r="AE77" s="30"/>
+      <c r="AM77" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="AN77" s="69"/>
-      <c r="AO77" s="39" t="s">
+      <c r="AN77" s="65"/>
+      <c r="AO77" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="AP77" s="52"/>
-      <c r="AQ77" s="52"/>
-      <c r="AR77" s="52"/>
-      <c r="AS77" s="53"/>
+      <c r="AP77" s="29"/>
+      <c r="AQ77" s="29"/>
+      <c r="AR77" s="29"/>
+      <c r="AS77" s="30"/>
     </row>
     <row r="78" spans="3:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F78" s="50"/>
-      <c r="G78" s="51"/>
-      <c r="H78" s="57"/>
-      <c r="I78" s="58"/>
-      <c r="J78" s="59"/>
-      <c r="K78" s="67"/>
-      <c r="L78" s="67"/>
-      <c r="M78" s="75"/>
-      <c r="N78" s="75"/>
-      <c r="O78" s="75"/>
-      <c r="P78" s="75"/>
-      <c r="Q78" s="75"/>
-      <c r="R78" s="25"/>
-      <c r="S78" s="25"/>
-      <c r="T78" s="75"/>
-      <c r="U78" s="75"/>
-      <c r="V78" s="75"/>
-      <c r="W78" s="75"/>
-      <c r="X78" s="75"/>
-      <c r="Y78" s="67"/>
-      <c r="Z78" s="67"/>
-      <c r="AA78" s="57"/>
-      <c r="AB78" s="58"/>
-      <c r="AC78" s="58"/>
-      <c r="AD78" s="58"/>
-      <c r="AE78" s="59"/>
-      <c r="AM78" s="70"/>
-      <c r="AN78" s="71"/>
-      <c r="AO78" s="54"/>
-      <c r="AP78" s="55"/>
-      <c r="AQ78" s="55"/>
-      <c r="AR78" s="55"/>
-      <c r="AS78" s="56"/>
+      <c r="F78" s="53"/>
+      <c r="G78" s="54"/>
+      <c r="H78" s="34"/>
+      <c r="I78" s="35"/>
+      <c r="J78" s="36"/>
+      <c r="K78" s="55"/>
+      <c r="L78" s="55"/>
+      <c r="M78" s="57"/>
+      <c r="N78" s="57"/>
+      <c r="O78" s="57"/>
+      <c r="P78" s="57"/>
+      <c r="Q78" s="57"/>
+      <c r="R78" s="50"/>
+      <c r="S78" s="50"/>
+      <c r="T78" s="57"/>
+      <c r="U78" s="57"/>
+      <c r="V78" s="57"/>
+      <c r="W78" s="57"/>
+      <c r="X78" s="57"/>
+      <c r="Y78" s="55"/>
+      <c r="Z78" s="55"/>
+      <c r="AA78" s="34"/>
+      <c r="AB78" s="35"/>
+      <c r="AC78" s="35"/>
+      <c r="AD78" s="35"/>
+      <c r="AE78" s="36"/>
+      <c r="AM78" s="66"/>
+      <c r="AN78" s="67"/>
+      <c r="AO78" s="31"/>
+      <c r="AP78" s="32"/>
+      <c r="AQ78" s="32"/>
+      <c r="AR78" s="32"/>
+      <c r="AS78" s="33"/>
     </row>
     <row r="79" spans="3:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F79" s="9"/>
@@ -28637,15 +28637,15 @@
       <c r="K79" t="s">
         <v>5</v>
       </c>
-      <c r="R79" s="25"/>
-      <c r="S79" s="25"/>
-      <c r="AM79" s="72"/>
-      <c r="AN79" s="73"/>
-      <c r="AO79" s="57"/>
-      <c r="AP79" s="58"/>
-      <c r="AQ79" s="58"/>
-      <c r="AR79" s="58"/>
-      <c r="AS79" s="59"/>
+      <c r="R79" s="50"/>
+      <c r="S79" s="50"/>
+      <c r="AM79" s="68"/>
+      <c r="AN79" s="69"/>
+      <c r="AO79" s="34"/>
+      <c r="AP79" s="35"/>
+      <c r="AQ79" s="35"/>
+      <c r="AR79" s="35"/>
+      <c r="AS79" s="36"/>
     </row>
     <row r="80" spans="3:45" x14ac:dyDescent="0.25">
       <c r="AQ80" s="8"/>
@@ -28681,16 +28681,17 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="L37:Q38"/>
-    <mergeCell ref="C37:E38"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="C74:E75"/>
-    <mergeCell ref="H74:J76"/>
-    <mergeCell ref="F74:G76"/>
-    <mergeCell ref="H77:J78"/>
-    <mergeCell ref="F77:G78"/>
+    <mergeCell ref="AF74:AG76"/>
+    <mergeCell ref="AH74:AL76"/>
+    <mergeCell ref="AM74:AN76"/>
+    <mergeCell ref="AO74:AS76"/>
+    <mergeCell ref="AM77:AN79"/>
+    <mergeCell ref="AO77:AS79"/>
+    <mergeCell ref="Y77:Z78"/>
+    <mergeCell ref="Y74:Z76"/>
+    <mergeCell ref="AA74:AE76"/>
+    <mergeCell ref="AA77:AE78"/>
+    <mergeCell ref="M74:Q76"/>
     <mergeCell ref="K77:L78"/>
     <mergeCell ref="M77:Q78"/>
     <mergeCell ref="R74:S76"/>
@@ -28698,17 +28699,16 @@
     <mergeCell ref="T74:X76"/>
     <mergeCell ref="T77:X78"/>
     <mergeCell ref="K74:L76"/>
-    <mergeCell ref="Y77:Z78"/>
-    <mergeCell ref="Y74:Z76"/>
-    <mergeCell ref="AA74:AE76"/>
-    <mergeCell ref="AA77:AE78"/>
-    <mergeCell ref="M74:Q76"/>
-    <mergeCell ref="AF74:AG76"/>
-    <mergeCell ref="AH74:AL76"/>
-    <mergeCell ref="AM74:AN76"/>
-    <mergeCell ref="AO74:AS76"/>
-    <mergeCell ref="AM77:AN79"/>
-    <mergeCell ref="AO77:AS79"/>
+    <mergeCell ref="C74:E75"/>
+    <mergeCell ref="H74:J76"/>
+    <mergeCell ref="F74:G76"/>
+    <mergeCell ref="H77:J78"/>
+    <mergeCell ref="F77:G78"/>
+    <mergeCell ref="L37:Q38"/>
+    <mergeCell ref="C37:E38"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:K38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -28735,7 +28735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -28767,10 +28767,10 @@
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="71" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="3">
@@ -28778,17 +28778,17 @@
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
       <c r="D6" s="3">
         <v>404</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="71" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3">
@@ -28796,17 +28796,17 @@
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="37"/>
-      <c r="C8" s="36"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="71"/>
       <c r="D8" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="71" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="3">
@@ -28814,15 +28814,15 @@
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="37"/>
-      <c r="C10" s="36"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="71"/>
       <c r="D10" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="37"/>
-      <c r="C11" s="36"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="71"/>
       <c r="D11" s="3">
         <v>401</v>
       </c>
@@ -28842,10 +28842,10 @@
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="72" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="3">
@@ -28853,17 +28853,17 @@
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
       <c r="D16" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="72" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="3">
@@ -28871,17 +28871,17 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
       <c r="D18" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="74" t="s">
         <v>74</v>
       </c>
       <c r="D19" s="3">
@@ -28889,17 +28889,17 @@
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="33"/>
-      <c r="C20" s="35"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="75"/>
       <c r="D20" s="3">
         <v>404</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="74" t="s">
         <v>75</v>
       </c>
       <c r="D21" s="3">
@@ -28907,17 +28907,17 @@
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="33"/>
-      <c r="C22" s="35"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="3">
         <v>404</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="74" t="s">
         <v>78</v>
       </c>
       <c r="D23" s="3">
@@ -28925,17 +28925,17 @@
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="75"/>
       <c r="D24" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="74" t="s">
         <v>79</v>
       </c>
       <c r="D25" s="3">
@@ -28943,17 +28943,17 @@
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="75"/>
       <c r="D26" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="72" t="s">
         <v>23</v>
       </c>
       <c r="D27" s="3">
@@ -28961,17 +28961,17 @@
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="32"/>
-      <c r="C28" s="33"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="72"/>
       <c r="D28" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="72" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
@@ -28979,17 +28979,17 @@
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="32"/>
-      <c r="C30" s="33"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="72"/>
       <c r="D30" s="3">
         <v>404</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="72" t="s">
         <v>25</v>
       </c>
       <c r="D31" s="3">
@@ -28997,17 +28997,17 @@
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="32"/>
-      <c r="C32" s="33"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="72"/>
       <c r="D32" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="72" t="s">
         <v>26</v>
       </c>
       <c r="D33" s="3">
@@ -29015,17 +29015,17 @@
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="32"/>
-      <c r="C34" s="33"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="72"/>
       <c r="D34" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="72" t="s">
         <v>27</v>
       </c>
       <c r="D35" s="3">
@@ -29033,17 +29033,17 @@
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="32"/>
-      <c r="C36" s="33"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="72"/>
       <c r="D36" s="3">
         <v>404</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="72" t="s">
         <v>81</v>
       </c>
       <c r="D37" s="3">
@@ -29051,17 +29051,17 @@
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="32"/>
-      <c r="C38" s="33"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="72"/>
       <c r="D38" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="33" t="s">
+      <c r="C39" s="72" t="s">
         <v>28</v>
       </c>
       <c r="D39" s="3">
@@ -29069,17 +29069,17 @@
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="32"/>
-      <c r="C40" s="33"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="72"/>
       <c r="D40" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="33" t="s">
+      <c r="C41" s="72" t="s">
         <v>29</v>
       </c>
       <c r="D41" s="3">
@@ -29087,17 +29087,17 @@
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="72"/>
       <c r="D42" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="32" t="s">
+      <c r="B43" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="33" t="s">
+      <c r="C43" s="72" t="s">
         <v>30</v>
       </c>
       <c r="D43" s="3">
@@ -29105,17 +29105,17 @@
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="32"/>
-      <c r="C44" s="33"/>
+      <c r="B44" s="73"/>
+      <c r="C44" s="72"/>
       <c r="D44" s="3">
         <v>404</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="33" t="s">
+      <c r="C45" s="72" t="s">
         <v>31</v>
       </c>
       <c r="D45" s="3">
@@ -29123,17 +29123,17 @@
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="32"/>
-      <c r="C46" s="33"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="72"/>
       <c r="D46" s="3">
         <v>404</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="33" t="s">
+      <c r="B47" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="33" t="s">
+      <c r="C47" s="72" t="s">
         <v>32</v>
       </c>
       <c r="D47" s="3">
@@ -29141,17 +29141,17 @@
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
+      <c r="B48" s="72"/>
+      <c r="C48" s="72"/>
       <c r="D48" s="3">
         <v>404</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="33" t="s">
+      <c r="B49" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="33" t="s">
+      <c r="C49" s="72" t="s">
         <v>33</v>
       </c>
       <c r="D49" s="3">
@@ -29159,22 +29159,24 @@
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="33"/>
-      <c r="C50" s="33"/>
+      <c r="B50" s="72"/>
+      <c r="C50" s="72"/>
       <c r="D50" s="3">
         <v>400</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="C45:C46"/>
@@ -29191,24 +29193,22 @@
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C5:C6"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/04_documentation/Mockup.xlsx
+++ b/04_documentation/Mockup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="18915" windowHeight="11835"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="18915" windowHeight="11835" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="clienteEscritorio" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="84">
   <si>
     <t>Elementos</t>
   </si>
@@ -45,10 +45,6 @@
   </si>
   <si>
     <t>POST/formulario</t>
-  </si>
-  <si>
-    <t>2 Bases de datos independientes: 
-una para clientes y otra para usuarios del concesionario</t>
   </si>
   <si>
     <t>Mostrar información del coche</t>
@@ -562,7 +558,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -774,6 +770,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -28084,7 +28083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C38:AL42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Z36" sqref="Z36"/>
     </sheetView>
   </sheetViews>
@@ -28095,7 +28094,7 @@
   <sheetData>
     <row r="38" spans="3:38" ht="26.25" x14ac:dyDescent="0.4">
       <c r="J38" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K38" s="23"/>
       <c r="L38" s="23"/>
@@ -28108,13 +28107,13 @@
       <c r="S38" s="23"/>
       <c r="T38" s="23"/>
       <c r="V38" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB38" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AH38" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="3:38" ht="36" customHeight="1" x14ac:dyDescent="0.4">
@@ -28130,7 +28129,7 @@
       <c r="H39" s="38"/>
       <c r="I39" s="38"/>
       <c r="J39" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
@@ -28143,30 +28142,30 @@
       <c r="S39" s="5"/>
       <c r="T39" s="6"/>
       <c r="U39" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V39" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W39" s="15"/>
       <c r="X39" s="15"/>
       <c r="Y39" s="16"/>
       <c r="Z39" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AA39" s="28"/>
       <c r="AB39" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC39" s="29"/>
       <c r="AD39" s="29"/>
       <c r="AE39" s="30"/>
       <c r="AF39" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG39" s="28"/>
       <c r="AH39" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AI39" s="15"/>
       <c r="AJ39" s="15"/>
@@ -28179,12 +28178,12 @@
       <c r="E40" s="37"/>
       <c r="F40" s="37"/>
       <c r="G40" s="38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H40" s="38"/>
       <c r="I40" s="38"/>
       <c r="J40" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
@@ -28226,7 +28225,7 @@
       <c r="H41" s="40"/>
       <c r="I41" s="41"/>
       <c r="J41" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
@@ -28333,7 +28332,7 @@
   <sheetData>
     <row r="36" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="3:17" ht="36" customHeight="1" x14ac:dyDescent="0.4">
@@ -28364,11 +28363,11 @@
       <c r="D38" s="43"/>
       <c r="E38" s="43"/>
       <c r="F38" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G38" s="45"/>
       <c r="H38" s="46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" s="47"/>
       <c r="J38" s="47"/>
@@ -28387,64 +28386,64 @@
       <c r="D74" s="43"/>
       <c r="E74" s="49"/>
       <c r="F74" s="50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G74" s="50"/>
       <c r="H74" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I74" s="29"/>
       <c r="J74" s="30"/>
       <c r="K74" s="58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L74" s="59"/>
       <c r="M74" s="56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N74" s="57"/>
       <c r="O74" s="57"/>
       <c r="P74" s="57"/>
       <c r="Q74" s="57"/>
       <c r="R74" s="50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S74" s="50"/>
       <c r="T74" s="56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U74" s="57"/>
       <c r="V74" s="57"/>
       <c r="W74" s="57"/>
       <c r="X74" s="57"/>
       <c r="Y74" s="55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Z74" s="64"/>
       <c r="AA74" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB74" s="29"/>
       <c r="AC74" s="29"/>
       <c r="AD74" s="29"/>
       <c r="AE74" s="30"/>
       <c r="AF74" s="55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AG74" s="64"/>
       <c r="AH74" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AI74" s="29"/>
       <c r="AJ74" s="29"/>
       <c r="AK74" s="29"/>
       <c r="AL74" s="30"/>
       <c r="AM74" s="51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AN74" s="65"/>
       <c r="AO74" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AP74" s="29"/>
       <c r="AQ74" s="29"/>
@@ -28540,53 +28539,53 @@
     </row>
     <row r="77" spans="3:45" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F77" s="51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G77" s="52"/>
       <c r="H77" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I77" s="29"/>
       <c r="J77" s="30"/>
       <c r="K77" s="55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L77" s="55"/>
       <c r="M77" s="56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N77" s="57"/>
       <c r="O77" s="57"/>
       <c r="P77" s="57"/>
       <c r="Q77" s="57"/>
       <c r="R77" s="50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S77" s="50"/>
       <c r="T77" s="56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U77" s="57"/>
       <c r="V77" s="57"/>
       <c r="W77" s="57"/>
       <c r="X77" s="57"/>
       <c r="Y77" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z77" s="55"/>
       <c r="AA77" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AB77" s="29"/>
       <c r="AC77" s="29"/>
       <c r="AD77" s="29"/>
       <c r="AE77" s="30"/>
       <c r="AM77" s="51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AN77" s="65"/>
       <c r="AO77" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AP77" s="29"/>
       <c r="AQ77" s="29"/>
@@ -28735,8 +28734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28745,17 +28744,15 @@
     <col min="3" max="3" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -28763,7 +28760,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
@@ -28771,7 +28768,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3">
         <v>200</v>
@@ -28785,18 +28782,18 @@
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="76" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="3">
         <v>201</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="70"/>
+      <c r="B8" s="76"/>
       <c r="C8" s="71"/>
       <c r="D8" s="3">
         <v>400</v>
@@ -28804,10 +28801,10 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="3">
         <v>201</v>
@@ -28832,21 +28829,21 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" s="72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="3">
         <v>201</v>
@@ -28861,10 +28858,10 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" s="72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="3">
         <v>201</v>
@@ -28879,10 +28876,10 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19" s="74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D19" s="3">
         <v>200</v>
@@ -28897,10 +28894,10 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" s="74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D21" s="3">
         <v>200</v>
@@ -28915,10 +28912,10 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="74" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C23" s="74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D23" s="3">
         <v>201</v>
@@ -28933,10 +28930,10 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" s="74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="3">
         <v>201</v>
@@ -28951,10 +28948,10 @@
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="73" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C27" s="72" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" s="3">
         <v>201</v>
@@ -28969,10 +28966,10 @@
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="73" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29" s="72" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D29" s="3">
         <v>200</v>
@@ -28987,10 +28984,10 @@
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="73" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" s="72" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D31" s="3">
         <v>201</v>
@@ -29005,10 +29002,10 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="73" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C33" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D33" s="3">
         <v>201</v>
@@ -29023,10 +29020,10 @@
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C35" s="72" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D35" s="3">
         <v>200</v>
@@ -29041,10 +29038,10 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="73" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C37" s="72" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D37" s="3">
         <v>201</v>
@@ -29059,10 +29056,10 @@
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C39" s="72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D39" s="3">
         <v>201</v>
@@ -29077,10 +29074,10 @@
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C41" s="72" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D41" s="3">
         <v>201</v>
@@ -29095,10 +29092,10 @@
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="73" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C43" s="72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D43" s="3">
         <v>200</v>
@@ -29113,10 +29110,10 @@
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C45" s="72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D45" s="3">
         <v>200</v>
@@ -29130,18 +29127,18 @@
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="72" t="s">
-        <v>21</v>
+      <c r="B47" s="73" t="s">
+        <v>20</v>
       </c>
       <c r="C47" s="72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D47" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="72"/>
+      <c r="B48" s="73"/>
       <c r="C48" s="72"/>
       <c r="D48" s="3">
         <v>404</v>
@@ -29149,10 +29146,10 @@
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C49" s="72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D49" s="3">
         <v>201</v>

--- a/04_documentation/Mockup.xlsx
+++ b/04_documentation/Mockup.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
   <si>
     <t>Elementos</t>
   </si>
@@ -293,6 +293,18 @@
   <si>
     <t>DNI,nombre, apellidos, telefono, cpostal, ciudad</t>
   </si>
+  <si>
+    <t>Modificar alquiler</t>
+  </si>
+  <si>
+    <t>PUT/rent/id</t>
+  </si>
+  <si>
+    <t>PUT/sale/id</t>
+  </si>
+  <si>
+    <t>Modificar venta</t>
+  </si>
 </sst>
 </file>
 
@@ -558,7 +570,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -756,6 +768,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -771,8 +786,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -28319,7 +28337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C36:AS89"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
@@ -28732,10 +28750,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D50"/>
+  <dimension ref="B2:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28764,10 +28782,10 @@
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="72" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="3">
@@ -28775,17 +28793,17 @@
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
       <c r="D6" s="3">
         <v>404</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="72" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="3">
@@ -28793,8 +28811,8 @@
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="76"/>
-      <c r="C8" s="71"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="72"/>
       <c r="D8" s="3">
         <v>400</v>
       </c>
@@ -28803,7 +28821,7 @@
       <c r="B9" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="72" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="3">
@@ -28812,14 +28830,14 @@
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="70"/>
-      <c r="C10" s="71"/>
+      <c r="C10" s="72"/>
       <c r="D10" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="70"/>
-      <c r="C11" s="71"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="3">
         <v>401</v>
       </c>
@@ -28839,10 +28857,10 @@
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="72" t="s">
+      <c r="C15" s="73" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="3">
@@ -28850,17 +28868,17 @@
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
       <c r="D16" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="72" t="s">
+      <c r="C17" s="73" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="3">
@@ -28868,17 +28886,17 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="73"/>
       <c r="D18" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="72" t="s">
+      <c r="B19" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="75" t="s">
         <v>73</v>
       </c>
       <c r="D19" s="3">
@@ -28886,17 +28904,17 @@
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="72"/>
-      <c r="C20" s="75"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="76"/>
       <c r="D20" s="3">
         <v>404</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="74" t="s">
+      <c r="C21" s="75" t="s">
         <v>74</v>
       </c>
       <c r="D21" s="3">
@@ -28904,306 +28922,346 @@
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="72"/>
-      <c r="C22" s="75"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="76"/>
       <c r="D22" s="3">
         <v>404</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="74" t="s">
-        <v>75</v>
+      <c r="B23" s="75" t="s">
+        <v>85</v>
       </c>
-      <c r="C23" s="74" t="s">
-        <v>77</v>
+      <c r="C23" s="75" t="s">
+        <v>84</v>
       </c>
       <c r="D23" s="3">
         <v>201</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="75"/>
-      <c r="C24" s="75"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="74" t="s">
-        <v>76</v>
+      <c r="B25" s="77" t="s">
+        <v>86</v>
       </c>
-      <c r="C25" s="74" t="s">
-        <v>78</v>
+      <c r="C25" s="75" t="s">
+        <v>87</v>
       </c>
       <c r="D25" s="3">
         <v>201</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="75"/>
-      <c r="C26" s="75"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="76"/>
       <c r="D26" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="73" t="s">
-        <v>64</v>
+      <c r="B27" s="75" t="s">
+        <v>75</v>
       </c>
-      <c r="C27" s="72" t="s">
-        <v>22</v>
+      <c r="C27" s="75" t="s">
+        <v>77</v>
       </c>
       <c r="D27" s="3">
         <v>201</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="73"/>
-      <c r="C28" s="72"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="76"/>
       <c r="D28" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="73" t="s">
-        <v>62</v>
+      <c r="B29" s="77" t="s">
+        <v>76</v>
       </c>
-      <c r="C29" s="72" t="s">
-        <v>23</v>
+      <c r="C29" s="75" t="s">
+        <v>78</v>
       </c>
       <c r="D29" s="3">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="73"/>
-      <c r="C30" s="72"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="76"/>
       <c r="D30" s="3">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="73" t="s">
-        <v>61</v>
+      <c r="B31" s="74" t="s">
+        <v>64</v>
       </c>
-      <c r="C31" s="72" t="s">
-        <v>24</v>
+      <c r="C31" s="73" t="s">
+        <v>22</v>
       </c>
       <c r="D31" s="3">
         <v>201</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="73"/>
-      <c r="C32" s="72"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="73"/>
       <c r="D32" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="73" t="s">
-        <v>60</v>
+      <c r="B33" s="74" t="s">
+        <v>62</v>
       </c>
-      <c r="C33" s="72" t="s">
-        <v>25</v>
+      <c r="C33" s="73" t="s">
+        <v>23</v>
       </c>
       <c r="D33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="74"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="3">
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="73"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="3">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="74"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="73" t="s">
-        <v>16</v>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="74" t="s">
+        <v>60</v>
       </c>
-      <c r="C35" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="73"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="3">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="73" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" s="72" t="s">
-        <v>80</v>
+      <c r="C37" s="73" t="s">
+        <v>25</v>
       </c>
       <c r="D37" s="3">
         <v>201</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="73"/>
-      <c r="C38" s="72"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="73"/>
       <c r="D38" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="73" t="s">
-        <v>17</v>
+      <c r="B39" s="74" t="s">
+        <v>16</v>
       </c>
-      <c r="C39" s="72" t="s">
-        <v>27</v>
+      <c r="C39" s="73" t="s">
+        <v>26</v>
       </c>
       <c r="D39" s="3">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="73"/>
-      <c r="C40" s="72"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="73"/>
       <c r="D40" s="3">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="72" t="s">
-        <v>18</v>
+      <c r="B41" s="74" t="s">
+        <v>79</v>
       </c>
-      <c r="C41" s="72" t="s">
-        <v>28</v>
+      <c r="C41" s="73" t="s">
+        <v>80</v>
       </c>
       <c r="D41" s="3">
         <v>201</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="72"/>
-      <c r="C42" s="72"/>
+      <c r="B42" s="74"/>
+      <c r="C42" s="73"/>
       <c r="D42" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="73" t="s">
-        <v>63</v>
+      <c r="B43" s="74" t="s">
+        <v>17</v>
       </c>
-      <c r="C43" s="72" t="s">
-        <v>29</v>
+      <c r="C43" s="73" t="s">
+        <v>27</v>
       </c>
       <c r="D43" s="3">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="73"/>
-      <c r="C44" s="72"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="73"/>
       <c r="D44" s="3">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="73" t="s">
-        <v>19</v>
+      <c r="B45" s="74" t="s">
+        <v>18</v>
       </c>
-      <c r="C45" s="72" t="s">
-        <v>30</v>
+      <c r="C45" s="73" t="s">
+        <v>28</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="73"/>
-      <c r="C46" s="72"/>
+      <c r="B46" s="74"/>
+      <c r="C46" s="73"/>
       <c r="D46" s="3">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="73" t="s">
-        <v>20</v>
+      <c r="B47" s="74" t="s">
+        <v>63</v>
       </c>
-      <c r="C47" s="72" t="s">
-        <v>31</v>
+      <c r="C47" s="73" t="s">
+        <v>29</v>
       </c>
       <c r="D47" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="73"/>
-      <c r="C48" s="72"/>
+      <c r="B48" s="74"/>
+      <c r="C48" s="73"/>
       <c r="D48" s="3">
         <v>404</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="72" t="s">
+      <c r="B49" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="74"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="74"/>
+      <c r="C52" s="73"/>
+      <c r="D52" s="3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="72" t="s">
+      <c r="C53" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D53" s="3">
         <v>201</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="72"/>
-      <c r="C50" s="72"/>
-      <c r="D50" s="3">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="73"/>
+      <c r="C54" s="73"/>
+      <c r="D54" s="3">
         <v>400</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="46">
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
     <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
     <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
     <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B53:B54"/>
     <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C51:C52"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C53:C54"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C21:C22"/>
   </mergeCells>

--- a/04_documentation/Mockup.xlsx
+++ b/04_documentation/Mockup.xlsx
@@ -597,6 +597,21 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -666,68 +681,38 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -747,37 +732,37 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -791,6 +776,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -28111,19 +28111,19 @@
   </cols>
   <sheetData>
     <row r="38" spans="3:38" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="J38" s="23" t="s">
+      <c r="J38" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="23"/>
-      <c r="Q38" s="23"/>
-      <c r="R38" s="23"/>
-      <c r="S38" s="23"/>
-      <c r="T38" s="23"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="28"/>
+      <c r="T38" s="28"/>
       <c r="V38" s="7" t="s">
         <v>37</v>
       </c>
@@ -28135,17 +28135,17 @@
       </c>
     </row>
     <row r="39" spans="3:38" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C39" s="37" t="s">
+      <c r="C39" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="38" t="s">
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
       <c r="J39" s="13" t="s">
         <v>43</v>
       </c>
@@ -28159,47 +28159,47 @@
       <c r="R39" s="5"/>
       <c r="S39" s="5"/>
       <c r="T39" s="6"/>
-      <c r="U39" s="24" t="s">
+      <c r="U39" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="V39" s="27" t="s">
+      <c r="V39" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="W39" s="15"/>
-      <c r="X39" s="15"/>
-      <c r="Y39" s="16"/>
-      <c r="Z39" s="28" t="s">
+      <c r="W39" s="20"/>
+      <c r="X39" s="20"/>
+      <c r="Y39" s="21"/>
+      <c r="Z39" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="AA39" s="28"/>
-      <c r="AB39" s="27" t="s">
+      <c r="AA39" s="33"/>
+      <c r="AB39" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="AC39" s="29"/>
-      <c r="AD39" s="29"/>
-      <c r="AE39" s="30"/>
-      <c r="AF39" s="28" t="s">
+      <c r="AC39" s="34"/>
+      <c r="AD39" s="34"/>
+      <c r="AE39" s="35"/>
+      <c r="AF39" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="AG39" s="28"/>
-      <c r="AH39" s="14" t="s">
+      <c r="AG39" s="33"/>
+      <c r="AH39" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="AI39" s="15"/>
-      <c r="AJ39" s="15"/>
-      <c r="AK39" s="15"/>
-      <c r="AL39" s="16"/>
+      <c r="AI39" s="20"/>
+      <c r="AJ39" s="20"/>
+      <c r="AK39" s="20"/>
+      <c r="AL39" s="21"/>
     </row>
     <row r="40" spans="3:38" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="38" t="s">
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
       <c r="J40" s="13" t="s">
         <v>44</v>
       </c>
@@ -28213,35 +28213,35 @@
       <c r="R40" s="5"/>
       <c r="S40" s="5"/>
       <c r="T40" s="6"/>
-      <c r="U40" s="25"/>
-      <c r="V40" s="17"/>
-      <c r="W40" s="18"/>
-      <c r="X40" s="18"/>
-      <c r="Y40" s="19"/>
-      <c r="Z40" s="28"/>
-      <c r="AA40" s="28"/>
-      <c r="AB40" s="31"/>
-      <c r="AC40" s="32"/>
-      <c r="AD40" s="32"/>
-      <c r="AE40" s="33"/>
-      <c r="AF40" s="28"/>
-      <c r="AG40" s="28"/>
-      <c r="AH40" s="17"/>
-      <c r="AI40" s="18"/>
-      <c r="AJ40" s="18"/>
-      <c r="AK40" s="18"/>
-      <c r="AL40" s="19"/>
+      <c r="U40" s="30"/>
+      <c r="V40" s="22"/>
+      <c r="W40" s="23"/>
+      <c r="X40" s="23"/>
+      <c r="Y40" s="24"/>
+      <c r="Z40" s="33"/>
+      <c r="AA40" s="33"/>
+      <c r="AB40" s="36"/>
+      <c r="AC40" s="37"/>
+      <c r="AD40" s="37"/>
+      <c r="AE40" s="38"/>
+      <c r="AF40" s="33"/>
+      <c r="AG40" s="33"/>
+      <c r="AH40" s="22"/>
+      <c r="AI40" s="23"/>
+      <c r="AJ40" s="23"/>
+      <c r="AK40" s="23"/>
+      <c r="AL40" s="24"/>
     </row>
     <row r="41" spans="3:38" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="39" t="s">
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="H41" s="40"/>
-      <c r="I41" s="41"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="18"/>
       <c r="J41" s="13" t="s">
         <v>45</v>
       </c>
@@ -28255,33 +28255,33 @@
       <c r="R41" s="5"/>
       <c r="S41" s="5"/>
       <c r="T41" s="6"/>
-      <c r="U41" s="25"/>
-      <c r="V41" s="17"/>
-      <c r="W41" s="18"/>
-      <c r="X41" s="18"/>
-      <c r="Y41" s="19"/>
-      <c r="Z41" s="28"/>
-      <c r="AA41" s="28"/>
-      <c r="AB41" s="31"/>
-      <c r="AC41" s="32"/>
-      <c r="AD41" s="32"/>
-      <c r="AE41" s="33"/>
-      <c r="AF41" s="28"/>
-      <c r="AG41" s="28"/>
-      <c r="AH41" s="17"/>
-      <c r="AI41" s="18"/>
-      <c r="AJ41" s="18"/>
-      <c r="AK41" s="18"/>
-      <c r="AL41" s="19"/>
+      <c r="U41" s="30"/>
+      <c r="V41" s="22"/>
+      <c r="W41" s="23"/>
+      <c r="X41" s="23"/>
+      <c r="Y41" s="24"/>
+      <c r="Z41" s="33"/>
+      <c r="AA41" s="33"/>
+      <c r="AB41" s="36"/>
+      <c r="AC41" s="37"/>
+      <c r="AD41" s="37"/>
+      <c r="AE41" s="38"/>
+      <c r="AF41" s="33"/>
+      <c r="AG41" s="33"/>
+      <c r="AH41" s="22"/>
+      <c r="AI41" s="23"/>
+      <c r="AJ41" s="23"/>
+      <c r="AK41" s="23"/>
+      <c r="AL41" s="24"/>
     </row>
     <row r="42" spans="3:38" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
@@ -28293,32 +28293,27 @@
       <c r="R42" s="5"/>
       <c r="S42" s="5"/>
       <c r="T42" s="6"/>
-      <c r="U42" s="26"/>
-      <c r="V42" s="20"/>
-      <c r="W42" s="21"/>
-      <c r="X42" s="21"/>
-      <c r="Y42" s="22"/>
-      <c r="Z42" s="28"/>
-      <c r="AA42" s="28"/>
-      <c r="AB42" s="34"/>
-      <c r="AC42" s="35"/>
-      <c r="AD42" s="35"/>
-      <c r="AE42" s="36"/>
-      <c r="AF42" s="28"/>
-      <c r="AG42" s="28"/>
-      <c r="AH42" s="20"/>
-      <c r="AI42" s="21"/>
-      <c r="AJ42" s="21"/>
-      <c r="AK42" s="21"/>
-      <c r="AL42" s="22"/>
+      <c r="U42" s="31"/>
+      <c r="V42" s="25"/>
+      <c r="W42" s="26"/>
+      <c r="X42" s="26"/>
+      <c r="Y42" s="27"/>
+      <c r="Z42" s="33"/>
+      <c r="AA42" s="33"/>
+      <c r="AB42" s="39"/>
+      <c r="AC42" s="40"/>
+      <c r="AD42" s="40"/>
+      <c r="AE42" s="41"/>
+      <c r="AF42" s="33"/>
+      <c r="AG42" s="33"/>
+      <c r="AH42" s="25"/>
+      <c r="AI42" s="26"/>
+      <c r="AJ42" s="26"/>
+      <c r="AK42" s="26"/>
+      <c r="AL42" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C39:F42"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G42:I42"/>
     <mergeCell ref="AH39:AL42"/>
     <mergeCell ref="J38:T38"/>
     <mergeCell ref="U39:U42"/>
@@ -28326,6 +28321,11 @@
     <mergeCell ref="Z39:AA42"/>
     <mergeCell ref="AB39:AE42"/>
     <mergeCell ref="AF39:AG42"/>
+    <mergeCell ref="C39:F42"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G42:I42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -28354,296 +28354,296 @@
       </c>
     </row>
     <row r="37" spans="3:17" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C37" s="43" t="s">
+      <c r="C37" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="44" t="s">
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="G37" s="44"/>
+      <c r="G37" s="65"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="6"/>
-      <c r="L37" s="42" t="s">
+      <c r="L37" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="M37" s="42"/>
-      <c r="N37" s="42"/>
-      <c r="O37" s="42"/>
-      <c r="P37" s="42"/>
-      <c r="Q37" s="42"/>
+      <c r="M37" s="64"/>
+      <c r="N37" s="64"/>
+      <c r="O37" s="64"/>
+      <c r="P37" s="64"/>
+      <c r="Q37" s="64"/>
     </row>
     <row r="38" spans="3:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="45" t="s">
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="G38" s="45"/>
-      <c r="H38" s="46" t="s">
+      <c r="G38" s="66"/>
+      <c r="H38" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="I38" s="47"/>
-      <c r="J38" s="47"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="42"/>
-      <c r="M38" s="42"/>
-      <c r="N38" s="42"/>
-      <c r="O38" s="42"/>
-      <c r="P38" s="42"/>
-      <c r="Q38" s="42"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="69"/>
+      <c r="L38" s="64"/>
+      <c r="M38" s="64"/>
+      <c r="N38" s="64"/>
+      <c r="O38" s="64"/>
+      <c r="P38" s="64"/>
+      <c r="Q38" s="64"/>
     </row>
     <row r="74" spans="3:45" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C74" s="43" t="s">
+      <c r="C74" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="D74" s="43"/>
-      <c r="E74" s="49"/>
-      <c r="F74" s="50" t="s">
+      <c r="D74" s="59"/>
+      <c r="E74" s="60"/>
+      <c r="F74" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="G74" s="50"/>
-      <c r="H74" s="27" t="s">
+      <c r="G74" s="52"/>
+      <c r="H74" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="I74" s="29"/>
-      <c r="J74" s="30"/>
-      <c r="K74" s="58" t="s">
+      <c r="I74" s="34"/>
+      <c r="J74" s="35"/>
+      <c r="K74" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="L74" s="59"/>
-      <c r="M74" s="56" t="s">
+      <c r="L74" s="54"/>
+      <c r="M74" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="N74" s="57"/>
-      <c r="O74" s="57"/>
-      <c r="P74" s="57"/>
-      <c r="Q74" s="57"/>
-      <c r="R74" s="50" t="s">
+      <c r="N74" s="51"/>
+      <c r="O74" s="51"/>
+      <c r="P74" s="51"/>
+      <c r="Q74" s="51"/>
+      <c r="R74" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="S74" s="50"/>
-      <c r="T74" s="56" t="s">
+      <c r="S74" s="52"/>
+      <c r="T74" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="U74" s="57"/>
-      <c r="V74" s="57"/>
-      <c r="W74" s="57"/>
-      <c r="X74" s="57"/>
-      <c r="Y74" s="55" t="s">
+      <c r="U74" s="51"/>
+      <c r="V74" s="51"/>
+      <c r="W74" s="51"/>
+      <c r="X74" s="51"/>
+      <c r="Y74" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="Z74" s="64"/>
-      <c r="AA74" s="27" t="s">
+      <c r="Z74" s="43"/>
+      <c r="AA74" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="AB74" s="29"/>
-      <c r="AC74" s="29"/>
-      <c r="AD74" s="29"/>
-      <c r="AE74" s="30"/>
-      <c r="AF74" s="55" t="s">
+      <c r="AB74" s="34"/>
+      <c r="AC74" s="34"/>
+      <c r="AD74" s="34"/>
+      <c r="AE74" s="35"/>
+      <c r="AF74" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="AG74" s="64"/>
-      <c r="AH74" s="27" t="s">
+      <c r="AG74" s="43"/>
+      <c r="AH74" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="AI74" s="29"/>
-      <c r="AJ74" s="29"/>
-      <c r="AK74" s="29"/>
-      <c r="AL74" s="30"/>
-      <c r="AM74" s="51" t="s">
+      <c r="AI74" s="34"/>
+      <c r="AJ74" s="34"/>
+      <c r="AK74" s="34"/>
+      <c r="AL74" s="35"/>
+      <c r="AM74" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="AN74" s="65"/>
-      <c r="AO74" s="27" t="s">
+      <c r="AN74" s="45"/>
+      <c r="AO74" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="AP74" s="29"/>
-      <c r="AQ74" s="29"/>
-      <c r="AR74" s="29"/>
-      <c r="AS74" s="30"/>
+      <c r="AP74" s="34"/>
+      <c r="AQ74" s="34"/>
+      <c r="AR74" s="34"/>
+      <c r="AS74" s="35"/>
     </row>
     <row r="75" spans="3:45" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="49"/>
-      <c r="F75" s="50"/>
-      <c r="G75" s="50"/>
-      <c r="H75" s="31"/>
-      <c r="I75" s="32"/>
-      <c r="J75" s="33"/>
-      <c r="K75" s="60"/>
-      <c r="L75" s="61"/>
-      <c r="M75" s="57"/>
-      <c r="N75" s="57"/>
-      <c r="O75" s="57"/>
-      <c r="P75" s="57"/>
-      <c r="Q75" s="57"/>
-      <c r="R75" s="50"/>
-      <c r="S75" s="50"/>
-      <c r="T75" s="57"/>
-      <c r="U75" s="57"/>
-      <c r="V75" s="57"/>
-      <c r="W75" s="57"/>
-      <c r="X75" s="57"/>
-      <c r="Y75" s="64"/>
-      <c r="Z75" s="64"/>
-      <c r="AA75" s="31"/>
-      <c r="AB75" s="32"/>
-      <c r="AC75" s="32"/>
-      <c r="AD75" s="32"/>
-      <c r="AE75" s="33"/>
-      <c r="AF75" s="64"/>
-      <c r="AG75" s="64"/>
-      <c r="AH75" s="31"/>
-      <c r="AI75" s="32"/>
-      <c r="AJ75" s="32"/>
-      <c r="AK75" s="32"/>
-      <c r="AL75" s="33"/>
-      <c r="AM75" s="66"/>
-      <c r="AN75" s="67"/>
-      <c r="AO75" s="31"/>
-      <c r="AP75" s="32"/>
-      <c r="AQ75" s="32"/>
-      <c r="AR75" s="32"/>
-      <c r="AS75" s="33"/>
+      <c r="C75" s="59"/>
+      <c r="D75" s="59"/>
+      <c r="E75" s="60"/>
+      <c r="F75" s="52"/>
+      <c r="G75" s="52"/>
+      <c r="H75" s="36"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="38"/>
+      <c r="K75" s="55"/>
+      <c r="L75" s="56"/>
+      <c r="M75" s="51"/>
+      <c r="N75" s="51"/>
+      <c r="O75" s="51"/>
+      <c r="P75" s="51"/>
+      <c r="Q75" s="51"/>
+      <c r="R75" s="52"/>
+      <c r="S75" s="52"/>
+      <c r="T75" s="51"/>
+      <c r="U75" s="51"/>
+      <c r="V75" s="51"/>
+      <c r="W75" s="51"/>
+      <c r="X75" s="51"/>
+      <c r="Y75" s="43"/>
+      <c r="Z75" s="43"/>
+      <c r="AA75" s="36"/>
+      <c r="AB75" s="37"/>
+      <c r="AC75" s="37"/>
+      <c r="AD75" s="37"/>
+      <c r="AE75" s="38"/>
+      <c r="AF75" s="43"/>
+      <c r="AG75" s="43"/>
+      <c r="AH75" s="36"/>
+      <c r="AI75" s="37"/>
+      <c r="AJ75" s="37"/>
+      <c r="AK75" s="37"/>
+      <c r="AL75" s="38"/>
+      <c r="AM75" s="46"/>
+      <c r="AN75" s="47"/>
+      <c r="AO75" s="36"/>
+      <c r="AP75" s="37"/>
+      <c r="AQ75" s="37"/>
+      <c r="AR75" s="37"/>
+      <c r="AS75" s="38"/>
     </row>
     <row r="76" spans="3:45" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F76" s="50"/>
-      <c r="G76" s="50"/>
-      <c r="H76" s="34"/>
-      <c r="I76" s="35"/>
-      <c r="J76" s="36"/>
-      <c r="K76" s="62"/>
-      <c r="L76" s="63"/>
-      <c r="M76" s="57"/>
-      <c r="N76" s="57"/>
-      <c r="O76" s="57"/>
-      <c r="P76" s="57"/>
-      <c r="Q76" s="57"/>
-      <c r="R76" s="50"/>
-      <c r="S76" s="50"/>
-      <c r="T76" s="57"/>
-      <c r="U76" s="57"/>
-      <c r="V76" s="57"/>
-      <c r="W76" s="57"/>
-      <c r="X76" s="57"/>
-      <c r="Y76" s="64"/>
-      <c r="Z76" s="64"/>
-      <c r="AA76" s="34"/>
-      <c r="AB76" s="35"/>
-      <c r="AC76" s="35"/>
-      <c r="AD76" s="35"/>
-      <c r="AE76" s="36"/>
-      <c r="AF76" s="64"/>
-      <c r="AG76" s="64"/>
-      <c r="AH76" s="34"/>
-      <c r="AI76" s="35"/>
-      <c r="AJ76" s="35"/>
-      <c r="AK76" s="35"/>
-      <c r="AL76" s="36"/>
-      <c r="AM76" s="68"/>
-      <c r="AN76" s="69"/>
-      <c r="AO76" s="34"/>
-      <c r="AP76" s="35"/>
-      <c r="AQ76" s="35"/>
-      <c r="AR76" s="35"/>
-      <c r="AS76" s="36"/>
+      <c r="F76" s="52"/>
+      <c r="G76" s="52"/>
+      <c r="H76" s="39"/>
+      <c r="I76" s="40"/>
+      <c r="J76" s="41"/>
+      <c r="K76" s="57"/>
+      <c r="L76" s="58"/>
+      <c r="M76" s="51"/>
+      <c r="N76" s="51"/>
+      <c r="O76" s="51"/>
+      <c r="P76" s="51"/>
+      <c r="Q76" s="51"/>
+      <c r="R76" s="52"/>
+      <c r="S76" s="52"/>
+      <c r="T76" s="51"/>
+      <c r="U76" s="51"/>
+      <c r="V76" s="51"/>
+      <c r="W76" s="51"/>
+      <c r="X76" s="51"/>
+      <c r="Y76" s="43"/>
+      <c r="Z76" s="43"/>
+      <c r="AA76" s="39"/>
+      <c r="AB76" s="40"/>
+      <c r="AC76" s="40"/>
+      <c r="AD76" s="40"/>
+      <c r="AE76" s="41"/>
+      <c r="AF76" s="43"/>
+      <c r="AG76" s="43"/>
+      <c r="AH76" s="39"/>
+      <c r="AI76" s="40"/>
+      <c r="AJ76" s="40"/>
+      <c r="AK76" s="40"/>
+      <c r="AL76" s="41"/>
+      <c r="AM76" s="48"/>
+      <c r="AN76" s="49"/>
+      <c r="AO76" s="39"/>
+      <c r="AP76" s="40"/>
+      <c r="AQ76" s="40"/>
+      <c r="AR76" s="40"/>
+      <c r="AS76" s="41"/>
     </row>
     <row r="77" spans="3:45" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F77" s="51" t="s">
+      <c r="F77" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="G77" s="52"/>
-      <c r="H77" s="27" t="s">
+      <c r="G77" s="61"/>
+      <c r="H77" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="I77" s="29"/>
-      <c r="J77" s="30"/>
-      <c r="K77" s="55" t="s">
+      <c r="I77" s="34"/>
+      <c r="J77" s="35"/>
+      <c r="K77" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="L77" s="55"/>
-      <c r="M77" s="56" t="s">
+      <c r="L77" s="42"/>
+      <c r="M77" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="N77" s="57"/>
-      <c r="O77" s="57"/>
-      <c r="P77" s="57"/>
-      <c r="Q77" s="57"/>
-      <c r="R77" s="50" t="s">
+      <c r="N77" s="51"/>
+      <c r="O77" s="51"/>
+      <c r="P77" s="51"/>
+      <c r="Q77" s="51"/>
+      <c r="R77" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="S77" s="50"/>
-      <c r="T77" s="56" t="s">
+      <c r="S77" s="52"/>
+      <c r="T77" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="U77" s="57"/>
-      <c r="V77" s="57"/>
-      <c r="W77" s="57"/>
-      <c r="X77" s="57"/>
-      <c r="Y77" s="55" t="s">
+      <c r="U77" s="51"/>
+      <c r="V77" s="51"/>
+      <c r="W77" s="51"/>
+      <c r="X77" s="51"/>
+      <c r="Y77" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="Z77" s="55"/>
-      <c r="AA77" s="27" t="s">
+      <c r="Z77" s="42"/>
+      <c r="AA77" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="AB77" s="29"/>
-      <c r="AC77" s="29"/>
-      <c r="AD77" s="29"/>
-      <c r="AE77" s="30"/>
-      <c r="AM77" s="51" t="s">
+      <c r="AB77" s="34"/>
+      <c r="AC77" s="34"/>
+      <c r="AD77" s="34"/>
+      <c r="AE77" s="35"/>
+      <c r="AM77" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="AN77" s="65"/>
-      <c r="AO77" s="27" t="s">
+      <c r="AN77" s="45"/>
+      <c r="AO77" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="AP77" s="29"/>
-      <c r="AQ77" s="29"/>
-      <c r="AR77" s="29"/>
-      <c r="AS77" s="30"/>
+      <c r="AP77" s="34"/>
+      <c r="AQ77" s="34"/>
+      <c r="AR77" s="34"/>
+      <c r="AS77" s="35"/>
     </row>
     <row r="78" spans="3:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F78" s="53"/>
-      <c r="G78" s="54"/>
-      <c r="H78" s="34"/>
-      <c r="I78" s="35"/>
-      <c r="J78" s="36"/>
-      <c r="K78" s="55"/>
-      <c r="L78" s="55"/>
-      <c r="M78" s="57"/>
-      <c r="N78" s="57"/>
-      <c r="O78" s="57"/>
-      <c r="P78" s="57"/>
-      <c r="Q78" s="57"/>
-      <c r="R78" s="50"/>
-      <c r="S78" s="50"/>
-      <c r="T78" s="57"/>
-      <c r="U78" s="57"/>
-      <c r="V78" s="57"/>
-      <c r="W78" s="57"/>
-      <c r="X78" s="57"/>
-      <c r="Y78" s="55"/>
-      <c r="Z78" s="55"/>
-      <c r="AA78" s="34"/>
-      <c r="AB78" s="35"/>
-      <c r="AC78" s="35"/>
-      <c r="AD78" s="35"/>
-      <c r="AE78" s="36"/>
-      <c r="AM78" s="66"/>
-      <c r="AN78" s="67"/>
-      <c r="AO78" s="31"/>
-      <c r="AP78" s="32"/>
-      <c r="AQ78" s="32"/>
-      <c r="AR78" s="32"/>
-      <c r="AS78" s="33"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="63"/>
+      <c r="H78" s="39"/>
+      <c r="I78" s="40"/>
+      <c r="J78" s="41"/>
+      <c r="K78" s="42"/>
+      <c r="L78" s="42"/>
+      <c r="M78" s="51"/>
+      <c r="N78" s="51"/>
+      <c r="O78" s="51"/>
+      <c r="P78" s="51"/>
+      <c r="Q78" s="51"/>
+      <c r="R78" s="52"/>
+      <c r="S78" s="52"/>
+      <c r="T78" s="51"/>
+      <c r="U78" s="51"/>
+      <c r="V78" s="51"/>
+      <c r="W78" s="51"/>
+      <c r="X78" s="51"/>
+      <c r="Y78" s="42"/>
+      <c r="Z78" s="42"/>
+      <c r="AA78" s="39"/>
+      <c r="AB78" s="40"/>
+      <c r="AC78" s="40"/>
+      <c r="AD78" s="40"/>
+      <c r="AE78" s="41"/>
+      <c r="AM78" s="46"/>
+      <c r="AN78" s="47"/>
+      <c r="AO78" s="36"/>
+      <c r="AP78" s="37"/>
+      <c r="AQ78" s="37"/>
+      <c r="AR78" s="37"/>
+      <c r="AS78" s="38"/>
     </row>
     <row r="79" spans="3:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F79" s="9"/>
@@ -28654,15 +28654,15 @@
       <c r="K79" t="s">
         <v>5</v>
       </c>
-      <c r="R79" s="50"/>
-      <c r="S79" s="50"/>
-      <c r="AM79" s="68"/>
-      <c r="AN79" s="69"/>
-      <c r="AO79" s="34"/>
-      <c r="AP79" s="35"/>
-      <c r="AQ79" s="35"/>
-      <c r="AR79" s="35"/>
-      <c r="AS79" s="36"/>
+      <c r="R79" s="52"/>
+      <c r="S79" s="52"/>
+      <c r="AM79" s="48"/>
+      <c r="AN79" s="49"/>
+      <c r="AO79" s="39"/>
+      <c r="AP79" s="40"/>
+      <c r="AQ79" s="40"/>
+      <c r="AR79" s="40"/>
+      <c r="AS79" s="41"/>
     </row>
     <row r="80" spans="3:45" x14ac:dyDescent="0.25">
       <c r="AQ80" s="8"/>
@@ -28698,17 +28698,16 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="AF74:AG76"/>
-    <mergeCell ref="AH74:AL76"/>
-    <mergeCell ref="AM74:AN76"/>
-    <mergeCell ref="AO74:AS76"/>
-    <mergeCell ref="AM77:AN79"/>
-    <mergeCell ref="AO77:AS79"/>
-    <mergeCell ref="Y77:Z78"/>
-    <mergeCell ref="Y74:Z76"/>
-    <mergeCell ref="AA74:AE76"/>
-    <mergeCell ref="AA77:AE78"/>
-    <mergeCell ref="M74:Q76"/>
+    <mergeCell ref="L37:Q38"/>
+    <mergeCell ref="C37:E38"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="C74:E75"/>
+    <mergeCell ref="H74:J76"/>
+    <mergeCell ref="F74:G76"/>
+    <mergeCell ref="H77:J78"/>
+    <mergeCell ref="F77:G78"/>
     <mergeCell ref="K77:L78"/>
     <mergeCell ref="M77:Q78"/>
     <mergeCell ref="R74:S76"/>
@@ -28716,16 +28715,17 @@
     <mergeCell ref="T74:X76"/>
     <mergeCell ref="T77:X78"/>
     <mergeCell ref="K74:L76"/>
-    <mergeCell ref="C74:E75"/>
-    <mergeCell ref="H74:J76"/>
-    <mergeCell ref="F74:G76"/>
-    <mergeCell ref="H77:J78"/>
-    <mergeCell ref="F77:G78"/>
-    <mergeCell ref="L37:Q38"/>
-    <mergeCell ref="C37:E38"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="Y77:Z78"/>
+    <mergeCell ref="Y74:Z76"/>
+    <mergeCell ref="AA74:AE76"/>
+    <mergeCell ref="AA77:AE78"/>
+    <mergeCell ref="M74:Q76"/>
+    <mergeCell ref="AF74:AG76"/>
+    <mergeCell ref="AH74:AL76"/>
+    <mergeCell ref="AM74:AN76"/>
+    <mergeCell ref="AO74:AS76"/>
+    <mergeCell ref="AM77:AN79"/>
+    <mergeCell ref="AO77:AS79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -28752,8 +28752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:B30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28782,10 +28782,10 @@
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="78" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="3">
@@ -28793,17 +28793,17 @@
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
       <c r="D6" s="3">
         <v>404</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="78" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="3">
@@ -28811,17 +28811,17 @@
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="71"/>
-      <c r="C8" s="72"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="78"/>
       <c r="D8" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="78" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="3">
@@ -28829,15 +28829,15 @@
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="70"/>
-      <c r="C10" s="72"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="78"/>
       <c r="D10" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="70"/>
-      <c r="C11" s="72"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="78"/>
       <c r="D11" s="3">
         <v>401</v>
       </c>
@@ -28857,10 +28857,10 @@
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="74" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="3">
@@ -28868,17 +28868,17 @@
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="74" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="3">
@@ -28886,17 +28886,17 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="74"/>
-      <c r="C18" s="73"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="74"/>
       <c r="D18" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="75" t="s">
+      <c r="C19" s="70" t="s">
         <v>73</v>
       </c>
       <c r="D19" s="3">
@@ -28904,17 +28904,17 @@
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="73"/>
-      <c r="C20" s="76"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="71"/>
       <c r="D20" s="3">
         <v>404</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="74" t="s">
+      <c r="B21" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="70" t="s">
         <v>74</v>
       </c>
       <c r="D21" s="3">
@@ -28922,8 +28922,8 @@
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="74"/>
-      <c r="C22" s="76"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="71"/>
       <c r="D22" s="3">
         <v>404</v>
       </c>
@@ -28932,7 +28932,7 @@
       <c r="B23" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="75" t="s">
+      <c r="C23" s="70" t="s">
         <v>84</v>
       </c>
       <c r="D23" s="3">
@@ -28940,17 +28940,17 @@
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="76"/>
-      <c r="C24" s="76"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="71"/>
       <c r="D24" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="77" t="s">
+      <c r="B25" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="75" t="s">
+      <c r="C25" s="70" t="s">
         <v>87</v>
       </c>
       <c r="D25" s="3">
@@ -28958,8 +28958,8 @@
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="78"/>
-      <c r="C26" s="76"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="71"/>
       <c r="D26" s="3">
         <v>400</v>
       </c>
@@ -28968,7 +28968,7 @@
       <c r="B27" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="75" t="s">
+      <c r="C27" s="70" t="s">
         <v>77</v>
       </c>
       <c r="D27" s="3">
@@ -28976,17 +28976,17 @@
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="76"/>
-      <c r="C28" s="76"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="71"/>
       <c r="D28" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="77" t="s">
+      <c r="B29" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="75" t="s">
+      <c r="C29" s="70" t="s">
         <v>78</v>
       </c>
       <c r="D29" s="3">
@@ -28994,17 +28994,17 @@
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="78"/>
-      <c r="C30" s="76"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="71"/>
       <c r="D30" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="74" t="s">
+      <c r="B31" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="73" t="s">
+      <c r="C31" s="74" t="s">
         <v>22</v>
       </c>
       <c r="D31" s="3">
@@ -29012,17 +29012,17 @@
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="74"/>
-      <c r="C32" s="73"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="74"/>
       <c r="D32" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="74" t="s">
+      <c r="B33" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="73" t="s">
+      <c r="C33" s="74" t="s">
         <v>23</v>
       </c>
       <c r="D33" s="3">
@@ -29030,17 +29030,17 @@
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="74"/>
-      <c r="C34" s="73"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="74"/>
       <c r="D34" s="3">
         <v>404</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="74" t="s">
+      <c r="B35" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="73" t="s">
+      <c r="C35" s="74" t="s">
         <v>24</v>
       </c>
       <c r="D35" s="3">
@@ -29048,17 +29048,17 @@
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="74"/>
-      <c r="C36" s="73"/>
+      <c r="B36" s="75"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="74" t="s">
+      <c r="B37" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="73" t="s">
+      <c r="C37" s="74" t="s">
         <v>25</v>
       </c>
       <c r="D37" s="3">
@@ -29066,17 +29066,17 @@
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="74"/>
-      <c r="C38" s="73"/>
+      <c r="B38" s="75"/>
+      <c r="C38" s="74"/>
       <c r="D38" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="74" t="s">
+      <c r="B39" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="73" t="s">
+      <c r="C39" s="74" t="s">
         <v>26</v>
       </c>
       <c r="D39" s="3">
@@ -29084,17 +29084,17 @@
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="74"/>
-      <c r="C40" s="73"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="74"/>
       <c r="D40" s="3">
         <v>404</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="74" t="s">
+      <c r="B41" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="73" t="s">
+      <c r="C41" s="74" t="s">
         <v>80</v>
       </c>
       <c r="D41" s="3">
@@ -29102,17 +29102,17 @@
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="74"/>
-      <c r="C42" s="73"/>
+      <c r="B42" s="75"/>
+      <c r="C42" s="74"/>
       <c r="D42" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="74" t="s">
+      <c r="B43" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="73" t="s">
+      <c r="C43" s="74" t="s">
         <v>27</v>
       </c>
       <c r="D43" s="3">
@@ -29120,17 +29120,17 @@
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="74"/>
-      <c r="C44" s="73"/>
+      <c r="B44" s="75"/>
+      <c r="C44" s="74"/>
       <c r="D44" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="74" t="s">
+      <c r="B45" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C45" s="73" t="s">
+      <c r="C45" s="74" t="s">
         <v>28</v>
       </c>
       <c r="D45" s="3">
@@ -29138,17 +29138,17 @@
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="74"/>
-      <c r="C46" s="73"/>
+      <c r="B46" s="75"/>
+      <c r="C46" s="74"/>
       <c r="D46" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="74" t="s">
+      <c r="B47" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="C47" s="73" t="s">
+      <c r="C47" s="74" t="s">
         <v>29</v>
       </c>
       <c r="D47" s="3">
@@ -29156,17 +29156,17 @@
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="74"/>
-      <c r="C48" s="73"/>
+      <c r="B48" s="75"/>
+      <c r="C48" s="74"/>
       <c r="D48" s="3">
         <v>404</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="74" t="s">
+      <c r="B49" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="73" t="s">
+      <c r="C49" s="74" t="s">
         <v>30</v>
       </c>
       <c r="D49" s="3">
@@ -29174,17 +29174,17 @@
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="74"/>
-      <c r="C50" s="73"/>
+      <c r="B50" s="75"/>
+      <c r="C50" s="74"/>
       <c r="D50" s="3">
         <v>404</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="74" t="s">
+      <c r="B51" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C51" s="73" t="s">
+      <c r="C51" s="74" t="s">
         <v>31</v>
       </c>
       <c r="D51" s="3">
@@ -29192,17 +29192,17 @@
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="74"/>
-      <c r="C52" s="73"/>
+      <c r="B52" s="75"/>
+      <c r="C52" s="74"/>
       <c r="D52" s="3">
         <v>404</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="73" t="s">
+      <c r="B53" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="C53" s="73" t="s">
+      <c r="C53" s="74" t="s">
         <v>32</v>
       </c>
       <c r="D53" s="3">
@@ -29210,45 +29210,14 @@
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="73"/>
-      <c r="C54" s="73"/>
+      <c r="B54" s="74"/>
+      <c r="C54" s="74"/>
       <c r="D54" s="3">
         <v>400</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B9:B11"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C43:C44"/>
@@ -29264,6 +29233,37 @@
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/04_documentation/Mockup.xlsx
+++ b/04_documentation/Mockup.xlsx
@@ -597,21 +597,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -681,38 +666,68 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -732,37 +747,40 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -771,25 +789,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -28111,19 +28111,19 @@
   </cols>
   <sheetData>
     <row r="38" spans="3:38" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="J38" s="28" t="s">
+      <c r="J38" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K38" s="28"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28"/>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="28"/>
-      <c r="R38" s="28"/>
-      <c r="S38" s="28"/>
-      <c r="T38" s="28"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="23"/>
+      <c r="Q38" s="23"/>
+      <c r="R38" s="23"/>
+      <c r="S38" s="23"/>
+      <c r="T38" s="23"/>
       <c r="V38" s="7" t="s">
         <v>37</v>
       </c>
@@ -28135,17 +28135,17 @@
       </c>
     </row>
     <row r="39" spans="3:38" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="15" t="s">
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
       <c r="J39" s="13" t="s">
         <v>43</v>
       </c>
@@ -28159,47 +28159,47 @@
       <c r="R39" s="5"/>
       <c r="S39" s="5"/>
       <c r="T39" s="6"/>
-      <c r="U39" s="29" t="s">
+      <c r="U39" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="V39" s="32" t="s">
+      <c r="V39" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="W39" s="20"/>
-      <c r="X39" s="20"/>
-      <c r="Y39" s="21"/>
-      <c r="Z39" s="33" t="s">
+      <c r="W39" s="15"/>
+      <c r="X39" s="15"/>
+      <c r="Y39" s="16"/>
+      <c r="Z39" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="AA39" s="33"/>
-      <c r="AB39" s="32" t="s">
+      <c r="AA39" s="28"/>
+      <c r="AB39" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="AC39" s="34"/>
-      <c r="AD39" s="34"/>
-      <c r="AE39" s="35"/>
-      <c r="AF39" s="33" t="s">
+      <c r="AC39" s="29"/>
+      <c r="AD39" s="29"/>
+      <c r="AE39" s="30"/>
+      <c r="AF39" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="AG39" s="33"/>
-      <c r="AH39" s="19" t="s">
+      <c r="AG39" s="28"/>
+      <c r="AH39" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="AI39" s="20"/>
-      <c r="AJ39" s="20"/>
-      <c r="AK39" s="20"/>
-      <c r="AL39" s="21"/>
+      <c r="AI39" s="15"/>
+      <c r="AJ39" s="15"/>
+      <c r="AK39" s="15"/>
+      <c r="AL39" s="16"/>
     </row>
     <row r="40" spans="3:38" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="15" t="s">
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
       <c r="J40" s="13" t="s">
         <v>44</v>
       </c>
@@ -28213,35 +28213,35 @@
       <c r="R40" s="5"/>
       <c r="S40" s="5"/>
       <c r="T40" s="6"/>
-      <c r="U40" s="30"/>
-      <c r="V40" s="22"/>
-      <c r="W40" s="23"/>
-      <c r="X40" s="23"/>
-      <c r="Y40" s="24"/>
-      <c r="Z40" s="33"/>
-      <c r="AA40" s="33"/>
-      <c r="AB40" s="36"/>
-      <c r="AC40" s="37"/>
-      <c r="AD40" s="37"/>
-      <c r="AE40" s="38"/>
-      <c r="AF40" s="33"/>
-      <c r="AG40" s="33"/>
-      <c r="AH40" s="22"/>
-      <c r="AI40" s="23"/>
-      <c r="AJ40" s="23"/>
-      <c r="AK40" s="23"/>
-      <c r="AL40" s="24"/>
+      <c r="U40" s="25"/>
+      <c r="V40" s="17"/>
+      <c r="W40" s="18"/>
+      <c r="X40" s="18"/>
+      <c r="Y40" s="19"/>
+      <c r="Z40" s="28"/>
+      <c r="AA40" s="28"/>
+      <c r="AB40" s="31"/>
+      <c r="AC40" s="32"/>
+      <c r="AD40" s="32"/>
+      <c r="AE40" s="33"/>
+      <c r="AF40" s="28"/>
+      <c r="AG40" s="28"/>
+      <c r="AH40" s="17"/>
+      <c r="AI40" s="18"/>
+      <c r="AJ40" s="18"/>
+      <c r="AK40" s="18"/>
+      <c r="AL40" s="19"/>
     </row>
     <row r="41" spans="3:38" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="16" t="s">
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="H41" s="17"/>
-      <c r="I41" s="18"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="41"/>
       <c r="J41" s="13" t="s">
         <v>45</v>
       </c>
@@ -28255,33 +28255,33 @@
       <c r="R41" s="5"/>
       <c r="S41" s="5"/>
       <c r="T41" s="6"/>
-      <c r="U41" s="30"/>
-      <c r="V41" s="22"/>
-      <c r="W41" s="23"/>
-      <c r="X41" s="23"/>
-      <c r="Y41" s="24"/>
-      <c r="Z41" s="33"/>
-      <c r="AA41" s="33"/>
-      <c r="AB41" s="36"/>
-      <c r="AC41" s="37"/>
-      <c r="AD41" s="37"/>
-      <c r="AE41" s="38"/>
-      <c r="AF41" s="33"/>
-      <c r="AG41" s="33"/>
-      <c r="AH41" s="22"/>
-      <c r="AI41" s="23"/>
-      <c r="AJ41" s="23"/>
-      <c r="AK41" s="23"/>
-      <c r="AL41" s="24"/>
+      <c r="U41" s="25"/>
+      <c r="V41" s="17"/>
+      <c r="W41" s="18"/>
+      <c r="X41" s="18"/>
+      <c r="Y41" s="19"/>
+      <c r="Z41" s="28"/>
+      <c r="AA41" s="28"/>
+      <c r="AB41" s="31"/>
+      <c r="AC41" s="32"/>
+      <c r="AD41" s="32"/>
+      <c r="AE41" s="33"/>
+      <c r="AF41" s="28"/>
+      <c r="AG41" s="28"/>
+      <c r="AH41" s="17"/>
+      <c r="AI41" s="18"/>
+      <c r="AJ41" s="18"/>
+      <c r="AK41" s="18"/>
+      <c r="AL41" s="19"/>
     </row>
     <row r="42" spans="3:38" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
@@ -28293,27 +28293,32 @@
       <c r="R42" s="5"/>
       <c r="S42" s="5"/>
       <c r="T42" s="6"/>
-      <c r="U42" s="31"/>
-      <c r="V42" s="25"/>
-      <c r="W42" s="26"/>
-      <c r="X42" s="26"/>
-      <c r="Y42" s="27"/>
-      <c r="Z42" s="33"/>
-      <c r="AA42" s="33"/>
-      <c r="AB42" s="39"/>
-      <c r="AC42" s="40"/>
-      <c r="AD42" s="40"/>
-      <c r="AE42" s="41"/>
-      <c r="AF42" s="33"/>
-      <c r="AG42" s="33"/>
-      <c r="AH42" s="25"/>
-      <c r="AI42" s="26"/>
-      <c r="AJ42" s="26"/>
-      <c r="AK42" s="26"/>
-      <c r="AL42" s="27"/>
+      <c r="U42" s="26"/>
+      <c r="V42" s="20"/>
+      <c r="W42" s="21"/>
+      <c r="X42" s="21"/>
+      <c r="Y42" s="22"/>
+      <c r="Z42" s="28"/>
+      <c r="AA42" s="28"/>
+      <c r="AB42" s="34"/>
+      <c r="AC42" s="35"/>
+      <c r="AD42" s="35"/>
+      <c r="AE42" s="36"/>
+      <c r="AF42" s="28"/>
+      <c r="AG42" s="28"/>
+      <c r="AH42" s="20"/>
+      <c r="AI42" s="21"/>
+      <c r="AJ42" s="21"/>
+      <c r="AK42" s="21"/>
+      <c r="AL42" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C39:F42"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G42:I42"/>
     <mergeCell ref="AH39:AL42"/>
     <mergeCell ref="J38:T38"/>
     <mergeCell ref="U39:U42"/>
@@ -28321,11 +28326,6 @@
     <mergeCell ref="Z39:AA42"/>
     <mergeCell ref="AB39:AE42"/>
     <mergeCell ref="AF39:AG42"/>
-    <mergeCell ref="C39:F42"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G42:I42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -28354,296 +28354,296 @@
       </c>
     </row>
     <row r="37" spans="3:17" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C37" s="59" t="s">
+      <c r="C37" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="65" t="s">
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="G37" s="65"/>
+      <c r="G37" s="44"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="6"/>
-      <c r="L37" s="64" t="s">
+      <c r="L37" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="M37" s="64"/>
-      <c r="N37" s="64"/>
-      <c r="O37" s="64"/>
-      <c r="P37" s="64"/>
-      <c r="Q37" s="64"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="42"/>
     </row>
     <row r="38" spans="3:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="66" t="s">
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="G38" s="66"/>
-      <c r="H38" s="67" t="s">
+      <c r="G38" s="45"/>
+      <c r="H38" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="I38" s="68"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="69"/>
-      <c r="L38" s="64"/>
-      <c r="M38" s="64"/>
-      <c r="N38" s="64"/>
-      <c r="O38" s="64"/>
-      <c r="P38" s="64"/>
-      <c r="Q38" s="64"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="42"/>
     </row>
     <row r="74" spans="3:45" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C74" s="59" t="s">
+      <c r="C74" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D74" s="59"/>
-      <c r="E74" s="60"/>
-      <c r="F74" s="52" t="s">
+      <c r="D74" s="43"/>
+      <c r="E74" s="49"/>
+      <c r="F74" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="G74" s="52"/>
-      <c r="H74" s="32" t="s">
+      <c r="G74" s="50"/>
+      <c r="H74" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="I74" s="34"/>
-      <c r="J74" s="35"/>
-      <c r="K74" s="53" t="s">
+      <c r="I74" s="29"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="L74" s="54"/>
-      <c r="M74" s="50" t="s">
+      <c r="L74" s="59"/>
+      <c r="M74" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="N74" s="51"/>
-      <c r="O74" s="51"/>
-      <c r="P74" s="51"/>
-      <c r="Q74" s="51"/>
-      <c r="R74" s="52" t="s">
+      <c r="N74" s="57"/>
+      <c r="O74" s="57"/>
+      <c r="P74" s="57"/>
+      <c r="Q74" s="57"/>
+      <c r="R74" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="S74" s="52"/>
-      <c r="T74" s="50" t="s">
+      <c r="S74" s="50"/>
+      <c r="T74" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="U74" s="51"/>
-      <c r="V74" s="51"/>
-      <c r="W74" s="51"/>
-      <c r="X74" s="51"/>
-      <c r="Y74" s="42" t="s">
+      <c r="U74" s="57"/>
+      <c r="V74" s="57"/>
+      <c r="W74" s="57"/>
+      <c r="X74" s="57"/>
+      <c r="Y74" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="Z74" s="43"/>
-      <c r="AA74" s="32" t="s">
+      <c r="Z74" s="64"/>
+      <c r="AA74" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="AB74" s="34"/>
-      <c r="AC74" s="34"/>
-      <c r="AD74" s="34"/>
-      <c r="AE74" s="35"/>
-      <c r="AF74" s="42" t="s">
+      <c r="AB74" s="29"/>
+      <c r="AC74" s="29"/>
+      <c r="AD74" s="29"/>
+      <c r="AE74" s="30"/>
+      <c r="AF74" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="AG74" s="43"/>
-      <c r="AH74" s="32" t="s">
+      <c r="AG74" s="64"/>
+      <c r="AH74" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="AI74" s="34"/>
-      <c r="AJ74" s="34"/>
-      <c r="AK74" s="34"/>
-      <c r="AL74" s="35"/>
-      <c r="AM74" s="44" t="s">
+      <c r="AI74" s="29"/>
+      <c r="AJ74" s="29"/>
+      <c r="AK74" s="29"/>
+      <c r="AL74" s="30"/>
+      <c r="AM74" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="AN74" s="45"/>
-      <c r="AO74" s="32" t="s">
+      <c r="AN74" s="65"/>
+      <c r="AO74" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="AP74" s="34"/>
-      <c r="AQ74" s="34"/>
-      <c r="AR74" s="34"/>
-      <c r="AS74" s="35"/>
+      <c r="AP74" s="29"/>
+      <c r="AQ74" s="29"/>
+      <c r="AR74" s="29"/>
+      <c r="AS74" s="30"/>
     </row>
     <row r="75" spans="3:45" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C75" s="59"/>
-      <c r="D75" s="59"/>
-      <c r="E75" s="60"/>
-      <c r="F75" s="52"/>
-      <c r="G75" s="52"/>
-      <c r="H75" s="36"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="38"/>
-      <c r="K75" s="55"/>
-      <c r="L75" s="56"/>
-      <c r="M75" s="51"/>
-      <c r="N75" s="51"/>
-      <c r="O75" s="51"/>
-      <c r="P75" s="51"/>
-      <c r="Q75" s="51"/>
-      <c r="R75" s="52"/>
-      <c r="S75" s="52"/>
-      <c r="T75" s="51"/>
-      <c r="U75" s="51"/>
-      <c r="V75" s="51"/>
-      <c r="W75" s="51"/>
-      <c r="X75" s="51"/>
-      <c r="Y75" s="43"/>
-      <c r="Z75" s="43"/>
-      <c r="AA75" s="36"/>
-      <c r="AB75" s="37"/>
-      <c r="AC75" s="37"/>
-      <c r="AD75" s="37"/>
-      <c r="AE75" s="38"/>
-      <c r="AF75" s="43"/>
-      <c r="AG75" s="43"/>
-      <c r="AH75" s="36"/>
-      <c r="AI75" s="37"/>
-      <c r="AJ75" s="37"/>
-      <c r="AK75" s="37"/>
-      <c r="AL75" s="38"/>
-      <c r="AM75" s="46"/>
-      <c r="AN75" s="47"/>
-      <c r="AO75" s="36"/>
-      <c r="AP75" s="37"/>
-      <c r="AQ75" s="37"/>
-      <c r="AR75" s="37"/>
-      <c r="AS75" s="38"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="50"/>
+      <c r="H75" s="31"/>
+      <c r="I75" s="32"/>
+      <c r="J75" s="33"/>
+      <c r="K75" s="60"/>
+      <c r="L75" s="61"/>
+      <c r="M75" s="57"/>
+      <c r="N75" s="57"/>
+      <c r="O75" s="57"/>
+      <c r="P75" s="57"/>
+      <c r="Q75" s="57"/>
+      <c r="R75" s="50"/>
+      <c r="S75" s="50"/>
+      <c r="T75" s="57"/>
+      <c r="U75" s="57"/>
+      <c r="V75" s="57"/>
+      <c r="W75" s="57"/>
+      <c r="X75" s="57"/>
+      <c r="Y75" s="64"/>
+      <c r="Z75" s="64"/>
+      <c r="AA75" s="31"/>
+      <c r="AB75" s="32"/>
+      <c r="AC75" s="32"/>
+      <c r="AD75" s="32"/>
+      <c r="AE75" s="33"/>
+      <c r="AF75" s="64"/>
+      <c r="AG75" s="64"/>
+      <c r="AH75" s="31"/>
+      <c r="AI75" s="32"/>
+      <c r="AJ75" s="32"/>
+      <c r="AK75" s="32"/>
+      <c r="AL75" s="33"/>
+      <c r="AM75" s="66"/>
+      <c r="AN75" s="67"/>
+      <c r="AO75" s="31"/>
+      <c r="AP75" s="32"/>
+      <c r="AQ75" s="32"/>
+      <c r="AR75" s="32"/>
+      <c r="AS75" s="33"/>
     </row>
     <row r="76" spans="3:45" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F76" s="52"/>
-      <c r="G76" s="52"/>
-      <c r="H76" s="39"/>
-      <c r="I76" s="40"/>
-      <c r="J76" s="41"/>
-      <c r="K76" s="57"/>
-      <c r="L76" s="58"/>
-      <c r="M76" s="51"/>
-      <c r="N76" s="51"/>
-      <c r="O76" s="51"/>
-      <c r="P76" s="51"/>
-      <c r="Q76" s="51"/>
-      <c r="R76" s="52"/>
-      <c r="S76" s="52"/>
-      <c r="T76" s="51"/>
-      <c r="U76" s="51"/>
-      <c r="V76" s="51"/>
-      <c r="W76" s="51"/>
-      <c r="X76" s="51"/>
-      <c r="Y76" s="43"/>
-      <c r="Z76" s="43"/>
-      <c r="AA76" s="39"/>
-      <c r="AB76" s="40"/>
-      <c r="AC76" s="40"/>
-      <c r="AD76" s="40"/>
-      <c r="AE76" s="41"/>
-      <c r="AF76" s="43"/>
-      <c r="AG76" s="43"/>
-      <c r="AH76" s="39"/>
-      <c r="AI76" s="40"/>
-      <c r="AJ76" s="40"/>
-      <c r="AK76" s="40"/>
-      <c r="AL76" s="41"/>
-      <c r="AM76" s="48"/>
-      <c r="AN76" s="49"/>
-      <c r="AO76" s="39"/>
-      <c r="AP76" s="40"/>
-      <c r="AQ76" s="40"/>
-      <c r="AR76" s="40"/>
-      <c r="AS76" s="41"/>
+      <c r="F76" s="50"/>
+      <c r="G76" s="50"/>
+      <c r="H76" s="34"/>
+      <c r="I76" s="35"/>
+      <c r="J76" s="36"/>
+      <c r="K76" s="62"/>
+      <c r="L76" s="63"/>
+      <c r="M76" s="57"/>
+      <c r="N76" s="57"/>
+      <c r="O76" s="57"/>
+      <c r="P76" s="57"/>
+      <c r="Q76" s="57"/>
+      <c r="R76" s="50"/>
+      <c r="S76" s="50"/>
+      <c r="T76" s="57"/>
+      <c r="U76" s="57"/>
+      <c r="V76" s="57"/>
+      <c r="W76" s="57"/>
+      <c r="X76" s="57"/>
+      <c r="Y76" s="64"/>
+      <c r="Z76" s="64"/>
+      <c r="AA76" s="34"/>
+      <c r="AB76" s="35"/>
+      <c r="AC76" s="35"/>
+      <c r="AD76" s="35"/>
+      <c r="AE76" s="36"/>
+      <c r="AF76" s="64"/>
+      <c r="AG76" s="64"/>
+      <c r="AH76" s="34"/>
+      <c r="AI76" s="35"/>
+      <c r="AJ76" s="35"/>
+      <c r="AK76" s="35"/>
+      <c r="AL76" s="36"/>
+      <c r="AM76" s="68"/>
+      <c r="AN76" s="69"/>
+      <c r="AO76" s="34"/>
+      <c r="AP76" s="35"/>
+      <c r="AQ76" s="35"/>
+      <c r="AR76" s="35"/>
+      <c r="AS76" s="36"/>
     </row>
     <row r="77" spans="3:45" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F77" s="44" t="s">
+      <c r="F77" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="G77" s="61"/>
-      <c r="H77" s="32" t="s">
+      <c r="G77" s="52"/>
+      <c r="H77" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="I77" s="34"/>
-      <c r="J77" s="35"/>
-      <c r="K77" s="42" t="s">
+      <c r="I77" s="29"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="L77" s="42"/>
-      <c r="M77" s="50" t="s">
+      <c r="L77" s="55"/>
+      <c r="M77" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="N77" s="51"/>
-      <c r="O77" s="51"/>
-      <c r="P77" s="51"/>
-      <c r="Q77" s="51"/>
-      <c r="R77" s="52" t="s">
+      <c r="N77" s="57"/>
+      <c r="O77" s="57"/>
+      <c r="P77" s="57"/>
+      <c r="Q77" s="57"/>
+      <c r="R77" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="S77" s="52"/>
-      <c r="T77" s="50" t="s">
+      <c r="S77" s="50"/>
+      <c r="T77" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="U77" s="51"/>
-      <c r="V77" s="51"/>
-      <c r="W77" s="51"/>
-      <c r="X77" s="51"/>
-      <c r="Y77" s="42" t="s">
+      <c r="U77" s="57"/>
+      <c r="V77" s="57"/>
+      <c r="W77" s="57"/>
+      <c r="X77" s="57"/>
+      <c r="Y77" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="Z77" s="42"/>
-      <c r="AA77" s="32" t="s">
+      <c r="Z77" s="55"/>
+      <c r="AA77" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="AB77" s="34"/>
-      <c r="AC77" s="34"/>
-      <c r="AD77" s="34"/>
-      <c r="AE77" s="35"/>
-      <c r="AM77" s="44" t="s">
+      <c r="AB77" s="29"/>
+      <c r="AC77" s="29"/>
+      <c r="AD77" s="29"/>
+      <c r="AE77" s="30"/>
+      <c r="AM77" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="AN77" s="45"/>
-      <c r="AO77" s="32" t="s">
+      <c r="AN77" s="65"/>
+      <c r="AO77" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AP77" s="34"/>
-      <c r="AQ77" s="34"/>
-      <c r="AR77" s="34"/>
-      <c r="AS77" s="35"/>
+      <c r="AP77" s="29"/>
+      <c r="AQ77" s="29"/>
+      <c r="AR77" s="29"/>
+      <c r="AS77" s="30"/>
     </row>
     <row r="78" spans="3:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F78" s="62"/>
-      <c r="G78" s="63"/>
-      <c r="H78" s="39"/>
-      <c r="I78" s="40"/>
-      <c r="J78" s="41"/>
-      <c r="K78" s="42"/>
-      <c r="L78" s="42"/>
-      <c r="M78" s="51"/>
-      <c r="N78" s="51"/>
-      <c r="O78" s="51"/>
-      <c r="P78" s="51"/>
-      <c r="Q78" s="51"/>
-      <c r="R78" s="52"/>
-      <c r="S78" s="52"/>
-      <c r="T78" s="51"/>
-      <c r="U78" s="51"/>
-      <c r="V78" s="51"/>
-      <c r="W78" s="51"/>
-      <c r="X78" s="51"/>
-      <c r="Y78" s="42"/>
-      <c r="Z78" s="42"/>
-      <c r="AA78" s="39"/>
-      <c r="AB78" s="40"/>
-      <c r="AC78" s="40"/>
-      <c r="AD78" s="40"/>
-      <c r="AE78" s="41"/>
-      <c r="AM78" s="46"/>
-      <c r="AN78" s="47"/>
-      <c r="AO78" s="36"/>
-      <c r="AP78" s="37"/>
-      <c r="AQ78" s="37"/>
-      <c r="AR78" s="37"/>
-      <c r="AS78" s="38"/>
+      <c r="F78" s="53"/>
+      <c r="G78" s="54"/>
+      <c r="H78" s="34"/>
+      <c r="I78" s="35"/>
+      <c r="J78" s="36"/>
+      <c r="K78" s="55"/>
+      <c r="L78" s="55"/>
+      <c r="M78" s="57"/>
+      <c r="N78" s="57"/>
+      <c r="O78" s="57"/>
+      <c r="P78" s="57"/>
+      <c r="Q78" s="57"/>
+      <c r="R78" s="50"/>
+      <c r="S78" s="50"/>
+      <c r="T78" s="57"/>
+      <c r="U78" s="57"/>
+      <c r="V78" s="57"/>
+      <c r="W78" s="57"/>
+      <c r="X78" s="57"/>
+      <c r="Y78" s="55"/>
+      <c r="Z78" s="55"/>
+      <c r="AA78" s="34"/>
+      <c r="AB78" s="35"/>
+      <c r="AC78" s="35"/>
+      <c r="AD78" s="35"/>
+      <c r="AE78" s="36"/>
+      <c r="AM78" s="66"/>
+      <c r="AN78" s="67"/>
+      <c r="AO78" s="31"/>
+      <c r="AP78" s="32"/>
+      <c r="AQ78" s="32"/>
+      <c r="AR78" s="32"/>
+      <c r="AS78" s="33"/>
     </row>
     <row r="79" spans="3:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F79" s="9"/>
@@ -28654,15 +28654,15 @@
       <c r="K79" t="s">
         <v>5</v>
       </c>
-      <c r="R79" s="52"/>
-      <c r="S79" s="52"/>
-      <c r="AM79" s="48"/>
-      <c r="AN79" s="49"/>
-      <c r="AO79" s="39"/>
-      <c r="AP79" s="40"/>
-      <c r="AQ79" s="40"/>
-      <c r="AR79" s="40"/>
-      <c r="AS79" s="41"/>
+      <c r="R79" s="50"/>
+      <c r="S79" s="50"/>
+      <c r="AM79" s="68"/>
+      <c r="AN79" s="69"/>
+      <c r="AO79" s="34"/>
+      <c r="AP79" s="35"/>
+      <c r="AQ79" s="35"/>
+      <c r="AR79" s="35"/>
+      <c r="AS79" s="36"/>
     </row>
     <row r="80" spans="3:45" x14ac:dyDescent="0.25">
       <c r="AQ80" s="8"/>
@@ -28698,16 +28698,17 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="L37:Q38"/>
-    <mergeCell ref="C37:E38"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="C74:E75"/>
-    <mergeCell ref="H74:J76"/>
-    <mergeCell ref="F74:G76"/>
-    <mergeCell ref="H77:J78"/>
-    <mergeCell ref="F77:G78"/>
+    <mergeCell ref="AF74:AG76"/>
+    <mergeCell ref="AH74:AL76"/>
+    <mergeCell ref="AM74:AN76"/>
+    <mergeCell ref="AO74:AS76"/>
+    <mergeCell ref="AM77:AN79"/>
+    <mergeCell ref="AO77:AS79"/>
+    <mergeCell ref="Y77:Z78"/>
+    <mergeCell ref="Y74:Z76"/>
+    <mergeCell ref="AA74:AE76"/>
+    <mergeCell ref="AA77:AE78"/>
+    <mergeCell ref="M74:Q76"/>
     <mergeCell ref="K77:L78"/>
     <mergeCell ref="M77:Q78"/>
     <mergeCell ref="R74:S76"/>
@@ -28715,17 +28716,16 @@
     <mergeCell ref="T74:X76"/>
     <mergeCell ref="T77:X78"/>
     <mergeCell ref="K74:L76"/>
-    <mergeCell ref="Y77:Z78"/>
-    <mergeCell ref="Y74:Z76"/>
-    <mergeCell ref="AA74:AE76"/>
-    <mergeCell ref="AA77:AE78"/>
-    <mergeCell ref="M74:Q76"/>
-    <mergeCell ref="AF74:AG76"/>
-    <mergeCell ref="AH74:AL76"/>
-    <mergeCell ref="AM74:AN76"/>
-    <mergeCell ref="AO74:AS76"/>
-    <mergeCell ref="AM77:AN79"/>
-    <mergeCell ref="AO77:AS79"/>
+    <mergeCell ref="C74:E75"/>
+    <mergeCell ref="H74:J76"/>
+    <mergeCell ref="F74:G76"/>
+    <mergeCell ref="H77:J78"/>
+    <mergeCell ref="F77:G78"/>
+    <mergeCell ref="L37:Q38"/>
+    <mergeCell ref="C37:E38"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:K38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -28752,8 +28752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28782,10 +28782,10 @@
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="71" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="3">
@@ -28793,17 +28793,17 @@
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
       <c r="D6" s="3">
         <v>404</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="71" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="3">
@@ -28811,17 +28811,17 @@
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="77"/>
-      <c r="C8" s="78"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="71"/>
       <c r="D8" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="71" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="3">
@@ -28829,15 +28829,15 @@
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="76"/>
-      <c r="C10" s="78"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="71"/>
       <c r="D10" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="76"/>
-      <c r="C11" s="78"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="71"/>
       <c r="D11" s="3">
         <v>401</v>
       </c>
@@ -28857,10 +28857,10 @@
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="74" t="s">
+      <c r="C15" s="72" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="3">
@@ -28868,17 +28868,17 @@
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="75"/>
-      <c r="C16" s="74"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="72"/>
       <c r="D16" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="75" t="s">
+      <c r="B17" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="74" t="s">
+      <c r="C17" s="72" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="3">
@@ -28886,17 +28886,17 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="75"/>
-      <c r="C18" s="74"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="72"/>
       <c r="D18" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="75" t="s">
+      <c r="B19" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="76" t="s">
         <v>73</v>
       </c>
       <c r="D19" s="3">
@@ -28904,17 +28904,17 @@
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="75"/>
-      <c r="C20" s="71"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="77"/>
       <c r="D20" s="3">
         <v>404</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="75" t="s">
+      <c r="B21" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="70" t="s">
+      <c r="C21" s="76" t="s">
         <v>74</v>
       </c>
       <c r="D21" s="3">
@@ -28922,17 +28922,17 @@
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="75"/>
-      <c r="C22" s="71"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="77"/>
       <c r="D22" s="3">
         <v>404</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="75" t="s">
+      <c r="B23" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="70" t="s">
+      <c r="C23" s="76" t="s">
         <v>84</v>
       </c>
       <c r="D23" s="3">
@@ -28940,17 +28940,17 @@
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="75"/>
-      <c r="C24" s="71"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="77"/>
       <c r="D24" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="72" t="s">
+      <c r="B25" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="70" t="s">
+      <c r="C25" s="76" t="s">
         <v>87</v>
       </c>
       <c r="D25" s="3">
@@ -28958,17 +28958,17 @@
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="73"/>
-      <c r="C26" s="71"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="77"/>
       <c r="D26" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="75" t="s">
+      <c r="B27" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="70" t="s">
+      <c r="C27" s="76" t="s">
         <v>77</v>
       </c>
       <c r="D27" s="3">
@@ -28976,17 +28976,17 @@
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="75"/>
-      <c r="C28" s="71"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="77"/>
       <c r="D28" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="72" t="s">
+      <c r="B29" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="70" t="s">
+      <c r="C29" s="76" t="s">
         <v>78</v>
       </c>
       <c r="D29" s="3">
@@ -28994,17 +28994,17 @@
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="73"/>
-      <c r="C30" s="71"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="77"/>
       <c r="D30" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="75" t="s">
+      <c r="B31" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="74" t="s">
+      <c r="C31" s="72" t="s">
         <v>22</v>
       </c>
       <c r="D31" s="3">
@@ -29012,17 +29012,17 @@
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="75"/>
-      <c r="C32" s="74"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="72"/>
       <c r="D32" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="75" t="s">
+      <c r="B33" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="74" t="s">
+      <c r="C33" s="72" t="s">
         <v>23</v>
       </c>
       <c r="D33" s="3">
@@ -29030,17 +29030,17 @@
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="75"/>
-      <c r="C34" s="74"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="72"/>
       <c r="D34" s="3">
         <v>404</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="75" t="s">
+      <c r="B35" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="74" t="s">
+      <c r="C35" s="72" t="s">
         <v>24</v>
       </c>
       <c r="D35" s="3">
@@ -29048,17 +29048,17 @@
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="75"/>
-      <c r="C36" s="74"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="72"/>
       <c r="D36" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="75" t="s">
+      <c r="B37" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="74" t="s">
+      <c r="C37" s="72" t="s">
         <v>25</v>
       </c>
       <c r="D37" s="3">
@@ -29066,17 +29066,17 @@
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="75"/>
-      <c r="C38" s="74"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="72"/>
       <c r="D38" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="75" t="s">
+      <c r="B39" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="74" t="s">
+      <c r="C39" s="72" t="s">
         <v>26</v>
       </c>
       <c r="D39" s="3">
@@ -29084,17 +29084,17 @@
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="75"/>
-      <c r="C40" s="74"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="72"/>
       <c r="D40" s="3">
         <v>404</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="75" t="s">
+      <c r="B41" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="74" t="s">
+      <c r="C41" s="72" t="s">
         <v>80</v>
       </c>
       <c r="D41" s="3">
@@ -29102,17 +29102,17 @@
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="75"/>
-      <c r="C42" s="74"/>
+      <c r="B42" s="73"/>
+      <c r="C42" s="72"/>
       <c r="D42" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="75" t="s">
+      <c r="B43" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="74" t="s">
+      <c r="C43" s="72" t="s">
         <v>27</v>
       </c>
       <c r="D43" s="3">
@@ -29120,17 +29120,17 @@
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="75"/>
-      <c r="C44" s="74"/>
+      <c r="B44" s="73"/>
+      <c r="C44" s="72"/>
       <c r="D44" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="75" t="s">
+      <c r="B45" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="C45" s="74" t="s">
+      <c r="C45" s="72" t="s">
         <v>28</v>
       </c>
       <c r="D45" s="3">
@@ -29138,17 +29138,17 @@
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="75"/>
-      <c r="C46" s="74"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="72"/>
       <c r="D46" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="75" t="s">
+      <c r="B47" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="C47" s="74" t="s">
+      <c r="C47" s="72" t="s">
         <v>29</v>
       </c>
       <c r="D47" s="3">
@@ -29156,17 +29156,17 @@
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="75"/>
-      <c r="C48" s="74"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="72"/>
       <c r="D48" s="3">
         <v>404</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="75" t="s">
+      <c r="B49" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="74" t="s">
+      <c r="C49" s="72" t="s">
         <v>30</v>
       </c>
       <c r="D49" s="3">
@@ -29174,17 +29174,17 @@
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="75"/>
-      <c r="C50" s="74"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="72"/>
       <c r="D50" s="3">
         <v>404</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="75" t="s">
+      <c r="B51" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="C51" s="74" t="s">
+      <c r="C51" s="72" t="s">
         <v>31</v>
       </c>
       <c r="D51" s="3">
@@ -29192,17 +29192,17 @@
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="75"/>
-      <c r="C52" s="74"/>
+      <c r="B52" s="73"/>
+      <c r="C52" s="72"/>
       <c r="D52" s="3">
         <v>404</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="74" t="s">
+      <c r="B53" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="C53" s="74" t="s">
+      <c r="C53" s="72" t="s">
         <v>32</v>
       </c>
       <c r="D53" s="3">
@@ -29210,14 +29210,44 @@
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="74"/>
-      <c r="C54" s="74"/>
+      <c r="B54" s="73"/>
+      <c r="C54" s="72"/>
       <c r="D54" s="3">
         <v>400</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C43:C44"/>
@@ -29234,36 +29264,6 @@
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
